--- a/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4WFINAL\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="1" tabRatio="644" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="644" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="1.CustomerDetail" r:id="rId1" sheetId="1"/>
-    <sheet name="2.AddressInformation" r:id="rId2" sheetId="2"/>
-    <sheet name="3.JobData" r:id="rId3" sheetId="3"/>
-    <sheet name="4.EmergencyContact" r:id="rId4" sheetId="4"/>
-    <sheet name="5.FinancialData" r:id="rId5" sheetId="5"/>
-    <sheet name="6.CustomerAsset" r:id="rId6" sheetId="6"/>
-    <sheet name="7.OtherAttribute" r:id="rId7" sheetId="7"/>
-    <sheet name="Master" r:id="rId8" sheetId="8"/>
+    <sheet name="1.CustomerDetail" sheetId="1" r:id="rId1"/>
+    <sheet name="2.AddressInformation" sheetId="2" r:id="rId2"/>
+    <sheet name="3.JobData" sheetId="3" r:id="rId3"/>
+    <sheet name="4.EmergencyContact" sheetId="4" r:id="rId4"/>
+    <sheet name="5.FinancialData" sheetId="5" r:id="rId5"/>
+    <sheet name="6.CustomerAsset" sheetId="6" r:id="rId6"/>
+    <sheet name="7.OtherAttribute" sheetId="7" r:id="rId7"/>
+    <sheet name="Master" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_1">Master!$A$1:$B$95</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_10">Master!$AB$1:$AC$16</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_11">Master!$AE$1:$AF$492</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_12">Master!$AH$1:$AI$10</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_13">Master!$AK$1:$AL$3</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_14">Master!$AN$1:$AO$9</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_15">Master!$AQ$1:$AR$2</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_16">Master!$AT$1:$AU$8</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_17">Master!$AW$1:$AX$263</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_18">Master!$BA$1:$BB$242</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_19">Master!$BE$1:$BE$10</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_2">Master!$E$1:$E$30</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_3">Master!$H$1:$H$14</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_4">Master!$J$1:$K$147</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_5">Master!$M$1:$N$315</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_6">Master!$P$1:$Q$6</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_7">Master!$S$1:$T$175</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_8">Master!$V$1:$W$14</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_9">Master!$Y$1:$Z$193</definedName>
+    <definedName name="ExternalData_1" localSheetId="7" hidden="1">Master!$A$1:$B$95</definedName>
+    <definedName name="ExternalData_10" localSheetId="7" hidden="1">Master!$AB$1:$AC$16</definedName>
+    <definedName name="ExternalData_11" localSheetId="7" hidden="1">Master!$AE$1:$AF$492</definedName>
+    <definedName name="ExternalData_12" localSheetId="7" hidden="1">Master!$AH$1:$AI$10</definedName>
+    <definedName name="ExternalData_13" localSheetId="7" hidden="1">Master!$AK$1:$AL$3</definedName>
+    <definedName name="ExternalData_14" localSheetId="7" hidden="1">Master!$AN$1:$AO$9</definedName>
+    <definedName name="ExternalData_15" localSheetId="7" hidden="1">Master!$AQ$1:$AR$2</definedName>
+    <definedName name="ExternalData_16" localSheetId="7" hidden="1">Master!$AT$1:$AU$8</definedName>
+    <definedName name="ExternalData_17" localSheetId="7" hidden="1">Master!$AW$1:$AX$263</definedName>
+    <definedName name="ExternalData_18" localSheetId="7" hidden="1">Master!$BA$1:$BB$242</definedName>
+    <definedName name="ExternalData_19" localSheetId="7" hidden="1">Master!$BE$1:$BE$10</definedName>
+    <definedName name="ExternalData_2" localSheetId="7" hidden="1">Master!$E$1:$E$30</definedName>
+    <definedName name="ExternalData_3" localSheetId="7" hidden="1">Master!$H$1:$H$14</definedName>
+    <definedName name="ExternalData_4" localSheetId="7" hidden="1">Master!$J$1:$K$147</definedName>
+    <definedName name="ExternalData_5" localSheetId="7" hidden="1">Master!$M$1:$N$315</definedName>
+    <definedName name="ExternalData_6" localSheetId="7" hidden="1">Master!$P$1:$Q$6</definedName>
+    <definedName name="ExternalData_7" localSheetId="7" hidden="1">Master!$S$1:$T$175</definedName>
+    <definedName name="ExternalData_8" localSheetId="7" hidden="1">Master!$V$1:$W$14</definedName>
+    <definedName name="ExternalData_9" localSheetId="7" hidden="1">Master!$Y$1:$Z$193</definedName>
     <definedName name="ListAfWiMult">Master!$AB$2:INDEX(Master!$AB:$AB,SUMPRODUCT(--(Master!$AB:$AB&lt;&gt;"")))</definedName>
     <definedName name="ListAuthorityAML">Master!$AN$2:INDEX(Master!$AN:$AN,SUMPRODUCT(--(Master!$AN:$AN&lt;&gt;"")))</definedName>
     <definedName name="ListBank">Master!$J$2:INDEX(Master!$J:$J,SUMPRODUCT(--(Master!$J:$J&lt;&gt;"")))</definedName>
@@ -62,7 +62,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -75,7 +75,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A16" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A19" shapeId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A13" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A39" shapeId="0">
+    <comment ref="A39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,103 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A66" shapeId="0">
+    <comment ref="A66" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Format MM/DD/YYYY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A123" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Format MM/DD/YYYY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A150" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Format MM/DD/YYYY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A216" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Format MM/DD/YYYY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A243" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +345,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A8" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +379,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A28" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A31" shapeId="0">
+    <comment ref="A31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="4152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4816" uniqueCount="4178">
   <si>
     <t>Full Name</t>
   </si>
@@ -12854,6 +12950,84 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Industry Code</t>
+  </si>
+  <si>
+    <t>Industry Type</t>
+  </si>
+  <si>
+    <t>Professional No</t>
+  </si>
+  <si>
+    <t>Strat Working Date</t>
+  </si>
+  <si>
+    <t>Professional Job Data</t>
+  </si>
+  <si>
+    <t>Non-Professional Job Data</t>
+  </si>
+  <si>
+    <t>Company Scale</t>
+  </si>
+  <si>
+    <t>Start Working Date</t>
+  </si>
+  <si>
+    <t>Investment Type</t>
+  </si>
+  <si>
+    <t>Small Medium Enterprise  Job Data</t>
+  </si>
+  <si>
+    <t>Sarana Kehutanan</t>
+  </si>
+  <si>
+    <t>PT XYZ</t>
+  </si>
+  <si>
+    <t>kasdo</t>
+  </si>
+  <si>
+    <t>sdnf</t>
+  </si>
+  <si>
+    <t>asdjaijsd</t>
+  </si>
+  <si>
+    <t>sahfgiaf</t>
+  </si>
+  <si>
+    <t>asiufgaiuf</t>
+  </si>
+  <si>
+    <t>jenifqjenro</t>
+  </si>
+  <si>
+    <t>qwehoqwhe</t>
+  </si>
+  <si>
+    <t>qwieoiqwhe</t>
+  </si>
+  <si>
+    <t>wqiheoqwh</t>
+  </si>
+  <si>
+    <t>asjdhiausf</t>
+  </si>
+  <si>
+    <t>Foreign Investment</t>
+  </si>
+  <si>
+    <t>safsrhsr</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
+  <si>
+    <t>ashfaoh</t>
   </si>
 </sst>
 </file>
@@ -13005,98 +13179,99 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="70">
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -13115,7 +13290,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13124,7 +13299,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13149,7 +13324,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13158,7 +13333,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13189,17 +13364,17 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="top" wrapText="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13224,24 +13399,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13250,7 +13425,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13259,10 +13434,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13271,7 +13446,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13296,7 +13471,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13305,7 +13480,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13330,7 +13505,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13339,7 +13514,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13364,24 +13539,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13390,7 +13565,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13399,27 +13574,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13428,7 +13603,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13437,27 +13612,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13466,20 +13641,20 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13488,7 +13663,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13505,7 +13680,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13514,7 +13689,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13523,7 +13698,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13540,7 +13715,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13549,7 +13724,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13558,7 +13733,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13575,7 +13750,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13584,7 +13759,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13593,7 +13768,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13618,7 +13793,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13635,7 +13810,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13652,24 +13827,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13678,7 +13853,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13687,7 +13862,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13711,7 +13886,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -13930,208 +14110,208 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="65" displayName="Query_Job_Profession" headerRowDxfId="66" id="1" insertRowShift="1" name="Query_Job_Profession" ref="A1:B95" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Query_Job_Profession" displayName="Query_Job_Profession" ref="A1:B95" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:B95"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="64" id="1" name="JOB PROFESSION NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="63" id="2" name="JOB POSITION CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="JOB PROFESSION NAME" queryTableFieldId="1" dataDxfId="64"/>
+    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="63"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="33" displayName="Query_Affiliate_with_Multifinance" headerRowDxfId="34" id="10" insertRowShift="1" name="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Query_Affiliate_with_Multifinance" displayName="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="AB1:AC16"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="32" id="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="31" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" dataDxfId="32"/>
+    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="31"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="29" displayName="Query_Department_AML" headerRowDxfId="30" id="11" insertRowShift="1" name="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Query_Department_AML" displayName="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="AE1:AF492"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="28" id="1" name="DEPARTMENT AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="27" id="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="2" uniqueName="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="27"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="25" displayName="Query_csp_usl_source_aml" headerRowDxfId="26" id="12" insertRowShift="1" name="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Query_csp_usl_source_aml" displayName="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="AH1:AI10"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="24" id="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="23" id="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" uniqueName="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" dataDxfId="23"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="21" displayName="Query_payment_type_aml" headerRowDxfId="22" id="13" insertRowShift="1" name="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Query_payment_type_aml" displayName="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="AK1:AL3"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="20" id="1" name="PAYMENT TYPE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="19" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="PAYMENT TYPE AML" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="19"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="17" displayName="Query_authority_aml" headerRowDxfId="18" id="14" insertRowShift="1" name="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Query_authority_aml" displayName="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="AN1:AO9"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="16" id="1" name="AUTHORITY AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="15" id="2" name="AUTHORITY AML2" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" uniqueName="2" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="15"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="13" displayName="Query_Business_Source" headerRowDxfId="14" id="15" insertRowShift="1" name="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Query_Business_Source" displayName="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="AQ1:AR2"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="12" id="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="11" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="9" displayName="query_building" headerRowDxfId="10" id="16" insertRowShift="1" name="query_building" ref="AT1:AU8" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="query_building" displayName="query_building" ref="AT1:AU8" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="AT1:AU8"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="8" id="1" name="BUILDING" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="7" id="2" name="BUILDING CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="BUILDING" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" uniqueName="2" name="BUILDING CODE" queryTableFieldId="2" dataDxfId="7"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="5" displayName="Query_Industry_Type" headerRowDxfId="6" id="17" insertRowShift="1" name="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Query_Industry_Type" displayName="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="AW1:AX263"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="4" id="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="3" id="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" uniqueName="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Country" headerRowDxfId="2" id="18" name="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Query_Country" displayName="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="BA1:BB242"/>
   <tableColumns count="2">
-    <tableColumn id="5" name="COUNTRY NAME" queryTableFieldId="1" uniqueName="5"/>
-    <tableColumn id="6" name="COUNTRY CODE" queryTableFieldId="2" uniqueName="6"/>
+    <tableColumn id="5" uniqueName="5" name="COUNTRY NAME" queryTableFieldId="1"/>
+    <tableColumn id="6" uniqueName="6" name="COUNTRY CODE" queryTableFieldId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Copy_Address_From" headerRowDxfId="1" id="19" name="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Copy_Address_From" displayName="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="BE1:BE10"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="0" id="3" name="Copy Address" queryTableFieldId="1" uniqueName="3"/>
+    <tableColumn id="3" uniqueName="3" name="Copy Address" queryTableFieldId="1" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Job_Position" headerRowDxfId="62" id="2" name="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Query_Job_Position" displayName="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="E1:E30"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="61" id="1" name="JOB POSITION NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn id="1" uniqueName="1" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="61"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Customer_Relationship" headerRowDxfId="60" id="3" name="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Query_Customer_Relationship" displayName="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="60">
   <autoFilter ref="H1:H14"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="59" id="1" name="Customer Relationship" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn id="1" uniqueName="1" name="Customer Relationship" queryTableFieldId="1" dataDxfId="59"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="57" displayName="Query_Bank" headerRowDxfId="58" id="4" insertRowShift="1" name="Query_Bank" ref="J1:K147" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Query_Bank" displayName="Query_Bank" ref="J1:K147" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="J1:K147"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="56" id="1" name="BANK NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="55" id="2" name="BANK CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="BANK NAME" queryTableFieldId="1" dataDxfId="56"/>
+    <tableColumn id="2" uniqueName="2" name="BANK CODE" queryTableFieldId="2" dataDxfId="55"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="53" displayName="Query_Debtor_Group" headerRowDxfId="54" id="5" insertRowShift="1" name="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Query_Debtor_Group" displayName="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="M1:N315"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="52" id="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="51" id="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" dataDxfId="52"/>
+    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" dataDxfId="51"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="49" displayName="Query_Debtor_Business_Scale" headerRowDxfId="50" id="6" insertRowShift="1" name="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Query_Debtor_Business_Scale" displayName="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="P1:Q6"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="48" id="1" name="Debtor Business Scale Description" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="47" id="2" name="Debtor Group Code" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="Debtor Business Scale Description" queryTableFieldId="1" dataDxfId="48"/>
+    <tableColumn id="2" uniqueName="2" name="Debtor Group Code" queryTableFieldId="2" dataDxfId="47"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="45" displayName="Query_Counterpart" headerRowDxfId="46" id="7" insertRowShift="1" name="Query_Counterpart" ref="S1:T175" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Query_Counterpart" displayName="Query_Counterpart" ref="S1:T175" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="S1:T175"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="44" id="1" name="Counterpart Category" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="43" id="2" name="LBPP CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="Counterpart Category" queryTableFieldId="1" dataDxfId="44"/>
+    <tableColumn id="2" uniqueName="2" name="LBPP CODE" queryTableFieldId="2" dataDxfId="43"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="41" displayName="Query_Sustainable_Financial" headerRowDxfId="42" id="8" insertRowShift="1" name="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Query_Sustainable_Financial" displayName="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="V1:W14"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="40" id="1" name="Sustainable Financial Business" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="39" id="2" name="LBPP Code" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="Sustainable Financial Business" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="2" uniqueName="2" name="LBPP Code" queryTableFieldId="2" dataDxfId="39"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="37" displayName="Query_debtor_group_slik" headerRowDxfId="38" id="9" insertRowShift="1" name="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Query_debtor_group_slik" displayName="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="Y1:Z193"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="36" id="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="35" id="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" dataDxfId="36"/>
+    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" dataDxfId="35"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -14140,10 +14320,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14178,7 +14358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -14213,7 +14393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -14307,21 +14487,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -14338,7 +14518,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -14390,15 +14570,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -14406,13 +14586,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -14429,7 +14609,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14446,12 +14626,12 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -14466,7 +14646,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -14481,7 +14661,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -14496,7 +14676,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -14513,7 +14693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -14530,7 +14710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -14547,12 +14727,12 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
@@ -14569,17 +14749,17 @@
         <v>15</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>18</v>
       </c>
@@ -14596,7 +14776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>3649</v>
       </c>
@@ -14617,7 +14797,7 @@
         <v>COUNTRY001</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>20</v>
       </c>
@@ -14640,7 +14820,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>21</v>
       </c>
@@ -14657,7 +14837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>23</v>
       </c>
@@ -14674,7 +14854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>27</v>
       </c>
@@ -14697,59 +14877,59 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD16">
-    <cfRule dxfId="69" priority="2" type="expression">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>AND(A$14&lt;&gt;"Foreigner",A$14&lt;&gt;"",A$14&lt;&gt;"Nationality")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD19">
-    <cfRule dxfId="68" priority="1" type="expression">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>A$8="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18:K18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:K18">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:K17" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:K17">
       <formula1>"S1, S2, S3, SD, SMP, SMA"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B10:K10"/>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B7:K9" type="list">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B10:K10"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:K9">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F14:K14" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:K14">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F11:K11" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F11:K11">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:E14" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E14">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11:E11" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:E11">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="custom">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15">
       <formula1>B$14="Foreigner"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19:E19" type="custom">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19">
       <formula1>B$8="Yes"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B5" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>IF(B$14="Foreigner",ListCountry)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>IF(C$14="Foreigner",Master!$BA$2:$BA$342)</xm:f>
           </x14:formula1>
@@ -14762,8 +14942,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -14771,11 +14951,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -14792,7 +14972,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>29</v>
       </c>
@@ -14809,7 +14989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -14826,7 +15006,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>32</v>
       </c>
@@ -14849,7 +15029,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>37</v>
       </c>
@@ -14872,7 +15052,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>38</v>
       </c>
@@ -14895,7 +15075,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>39</v>
       </c>
@@ -14918,7 +15098,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>42</v>
       </c>
@@ -14941,7 +15121,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>40</v>
       </c>
@@ -14964,7 +15144,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>43</v>
       </c>
@@ -14987,7 +15167,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>296</v>
       </c>
@@ -15002,7 +15182,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>297</v>
       </c>
@@ -15017,7 +15197,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>298</v>
       </c>
@@ -15032,7 +15212,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>299</v>
       </c>
@@ -15047,7 +15227,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>300</v>
       </c>
@@ -15062,7 +15242,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>301</v>
       </c>
@@ -15077,7 +15257,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>302</v>
       </c>
@@ -15092,7 +15272,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>303</v>
       </c>
@@ -15107,7 +15287,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>304</v>
       </c>
@@ -15122,7 +15302,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>305</v>
       </c>
@@ -15137,7 +15317,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>306</v>
       </c>
@@ -15152,7 +15332,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
@@ -15171,36 +15351,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:XFD10">
-    <cfRule dxfId="67" priority="1" type="expression">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>AND(A$3&lt;&gt;"",A$3&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B22:K22" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22:K22">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B2:K2" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:K2">
       <formula1>"Legal, Mailing, Residence, Residence 2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I3:K3" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:K3">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B10" type="custom">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
       <formula1>ISBLANK(B$3)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$110</xm:f>
           </x14:formula1>
           <xm:sqref>C3:H3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$20</xm:f>
           </x14:formula1>
@@ -15213,20 +15393,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K264"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -15243,22 +15423,22 @@
         <v>3356</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>3637</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-    </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>47</v>
       </c>
@@ -15285,7 +15465,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>104</v>
       </c>
@@ -15308,7 +15488,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>49</v>
       </c>
@@ -15331,7 +15511,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>52</v>
       </c>
@@ -15348,7 +15528,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -15365,7 +15545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -15382,7 +15562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>285</v>
       </c>
@@ -15390,7 +15570,7 @@
         <v>56</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>286</v>
       </c>
@@ -15408,7 +15588,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>287</v>
       </c>
@@ -15425,7 +15605,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -15442,7 +15622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>59</v>
       </c>
@@ -15465,7 +15645,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>288</v>
       </c>
@@ -15488,7 +15668,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -15511,22 +15691,22 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row customFormat="1" r="16" s="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
         <v>3638</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-    </row>
-    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>32</v>
       </c>
@@ -15543,7 +15723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>37</v>
       </c>
@@ -15566,7 +15746,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>38</v>
       </c>
@@ -15589,7 +15769,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>39</v>
       </c>
@@ -15612,7 +15792,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>40</v>
       </c>
@@ -15635,7 +15815,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>42</v>
       </c>
@@ -15658,7 +15838,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>43</v>
       </c>
@@ -15681,7 +15861,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -15696,7 +15876,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row customFormat="1" r="25" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>296</v>
       </c>
@@ -15711,7 +15891,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row customFormat="1" r="26" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>297</v>
       </c>
@@ -15726,7 +15906,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row customFormat="1" r="27" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>298</v>
       </c>
@@ -15741,7 +15921,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row customFormat="1" r="28" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>299</v>
       </c>
@@ -15756,7 +15936,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row customFormat="1" r="29" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>300</v>
       </c>
@@ -15771,7 +15951,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row customFormat="1" r="30" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>301</v>
       </c>
@@ -15786,7 +15966,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row customFormat="1" r="31" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>302</v>
       </c>
@@ -15801,7 +15981,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row customFormat="1" r="32" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>303</v>
       </c>
@@ -15816,7 +15996,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row customFormat="1" r="33" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>304</v>
       </c>
@@ -15831,7 +16011,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row customFormat="1" r="34" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>305</v>
       </c>
@@ -15846,7 +16026,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row customFormat="1" r="35" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>306</v>
       </c>
@@ -15861,7 +16041,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row customFormat="1" r="36" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -15878,48 +16058,48 @@
         <v>46</v>
       </c>
     </row>
-    <row customFormat="1" r="37" s="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
         <v>3639</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="46"/>
-    </row>
-    <row customFormat="1" r="38" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row customFormat="1" r="39" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B39" s="37"/>
     </row>
-    <row customFormat="1" r="40" s="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+    <row r="40" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45" t="s">
         <v>3640</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46"/>
-    </row>
-    <row customFormat="1" r="41" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="47"/>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>350</v>
       </c>
@@ -15936,7 +16116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row customFormat="1" r="42" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>351</v>
       </c>
@@ -15959,7 +16139,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row customFormat="1" r="43" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>352</v>
       </c>
@@ -15982,7 +16162,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row customFormat="1" r="44" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>353</v>
       </c>
@@ -16005,7 +16185,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row customFormat="1" r="45" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>354</v>
       </c>
@@ -16028,7 +16208,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row customFormat="1" r="46" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>355</v>
       </c>
@@ -16051,7 +16231,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row customFormat="1" r="47" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>356</v>
       </c>
@@ -16074,7 +16254,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row customFormat="1" r="48" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>357</v>
       </c>
@@ -16089,7 +16269,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row customFormat="1" r="49" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>358</v>
       </c>
@@ -16104,7 +16284,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row customFormat="1" r="50" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>359</v>
       </c>
@@ -16119,7 +16299,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row customFormat="1" r="51" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>360</v>
       </c>
@@ -16134,7 +16314,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row customFormat="1" r="52" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>361</v>
       </c>
@@ -16149,7 +16329,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row customFormat="1" r="53" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>362</v>
       </c>
@@ -16164,7 +16344,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row customFormat="1" r="54" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>363</v>
       </c>
@@ -16179,7 +16359,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row customFormat="1" r="55" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>364</v>
       </c>
@@ -16194,7 +16374,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row customFormat="1" r="56" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>365</v>
       </c>
@@ -16209,7 +16389,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row customFormat="1" r="57" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>366</v>
       </c>
@@ -16224,7 +16404,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row customFormat="1" r="58" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>367</v>
       </c>
@@ -16239,7 +16419,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row customFormat="1" r="59" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>368</v>
       </c>
@@ -16254,7 +16434,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row customFormat="1" r="60" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>369</v>
       </c>
@@ -16271,63 +16451,63 @@
         <v>46</v>
       </c>
     </row>
-    <row customFormat="1" r="61" s="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+    <row r="61" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="45" t="s">
         <v>3641</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-    </row>
-    <row customFormat="1" r="62" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="47"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row customFormat="1" r="63" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row customFormat="1" r="64" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row customFormat="1" r="65" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row customFormat="1" r="66" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B66" s="37"/>
     </row>
-    <row customFormat="1" r="67" s="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="44" t="s">
+    <row r="67" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="45" t="s">
         <v>3642</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="46"/>
-    </row>
-    <row customFormat="1" r="68" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="47"/>
+    </row>
+    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>330</v>
       </c>
@@ -16344,7 +16524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row customFormat="1" r="69" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>331</v>
       </c>
@@ -16367,7 +16547,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row customFormat="1" r="70" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>332</v>
       </c>
@@ -16390,7 +16570,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row customFormat="1" r="71" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>333</v>
       </c>
@@ -16413,7 +16593,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row customFormat="1" r="72" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>334</v>
       </c>
@@ -16430,7 +16610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row customFormat="1" r="73" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>335</v>
       </c>
@@ -16447,7 +16627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row customFormat="1" r="74" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>336</v>
       </c>
@@ -16464,7 +16644,7 @@
         <v>295</v>
       </c>
     </row>
-    <row customFormat="1" r="75" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>337</v>
       </c>
@@ -16479,7 +16659,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row customFormat="1" r="76" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>338</v>
       </c>
@@ -16494,7 +16674,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row customFormat="1" r="77" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>339</v>
       </c>
@@ -16509,7 +16689,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row customFormat="1" r="78" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>340</v>
       </c>
@@ -16524,7 +16704,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row customFormat="1" r="79" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>341</v>
       </c>
@@ -16539,7 +16719,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row customFormat="1" r="80" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>342</v>
       </c>
@@ -16554,7 +16734,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row customFormat="1" r="81" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>343</v>
       </c>
@@ -16569,7 +16749,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row customFormat="1" r="82" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>344</v>
       </c>
@@ -16584,7 +16764,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row customFormat="1" r="83" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>345</v>
       </c>
@@ -16599,7 +16779,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row customFormat="1" r="84" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>346</v>
       </c>
@@ -16614,7 +16794,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row customFormat="1" r="85" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>347</v>
       </c>
@@ -16629,7 +16809,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row customFormat="1" r="86" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>348</v>
       </c>
@@ -16644,7 +16824,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row customFormat="1" r="87" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>349</v>
       </c>
@@ -16661,72 +16841,2769 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
+    <row r="90" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="48" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="3" t="str">
+        <f>VLOOKUP(B92,Master!$A$1:$B$95,2,FALSE)</f>
+        <v>ARCHT</v>
+      </c>
+      <c r="C91" s="3" t="e">
+        <f>VLOOKUP(C92,Master!$A$1:$B$95,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D91" s="3" t="e">
+        <f>VLOOKUP(D92,Master!$A$1:$B$95,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E91" s="3" t="e">
+        <f>VLOOKUP(E92,Master!$A$1:$B$95,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f>VLOOKUP(B96,Master!$AW:$AX,2,FALSE)</f>
+        <v>1380</v>
+      </c>
+      <c r="C95" s="1" t="e">
+        <f>VLOOKUP(C96,Master!$AW:$AX,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D95" s="1" t="e">
+        <f>VLOOKUP(D96,Master!$AW:$AX,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E95" s="1" t="e">
+        <f>VLOOKUP(E96,Master!$AW:$AX,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1823612693</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B98" s="44">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="48" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" s="2">
+        <v>23</v>
+      </c>
+      <c r="C102" s="2">
+        <v>23</v>
+      </c>
+      <c r="D102" s="2">
+        <v>23</v>
+      </c>
+      <c r="E102" s="2">
+        <v>23</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" s="2">
+        <v>12</v>
+      </c>
+      <c r="C103" s="2">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2">
+        <v>12</v>
+      </c>
+      <c r="E103" s="2">
+        <v>12</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="2">
+        <v>11530</v>
+      </c>
+      <c r="C104" s="2">
+        <v>11530</v>
+      </c>
+      <c r="D104" s="2">
+        <v>11530</v>
+      </c>
+      <c r="E104" s="2">
+        <v>11530</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+    </row>
+    <row r="108" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="2">
+        <v>111</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B109" s="2">
+        <v>11</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B110" s="2">
+        <v>33</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B111" s="2">
+        <v>22</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B112" s="2">
+        <v>44</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B113" s="2">
+        <v>66</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B114" s="2">
+        <v>5</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B115" s="2">
+        <v>66</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="2">
+        <v>77</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B117" s="2">
+        <v>88</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1232</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B119" s="2">
+        <v>8</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="45" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="46"/>
+      <c r="J121" s="46"/>
+      <c r="K121" s="47"/>
+    </row>
+    <row r="122" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B123" s="37">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="45" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B124" s="46"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="46"/>
+      <c r="J124" s="46"/>
+      <c r="K124" s="47"/>
+    </row>
+    <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126" s="2">
+        <v>23</v>
+      </c>
+      <c r="C126" s="2">
+        <v>23</v>
+      </c>
+      <c r="D126" s="2">
+        <v>23</v>
+      </c>
+      <c r="E126" s="2">
+        <v>23</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+    </row>
+    <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B127" s="2">
+        <v>12</v>
+      </c>
+      <c r="C127" s="2">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2">
+        <v>12</v>
+      </c>
+      <c r="E127" s="2">
+        <v>12</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B128" s="2">
+        <v>11530</v>
+      </c>
+      <c r="C128" s="2">
+        <v>11530</v>
+      </c>
+      <c r="D128" s="2">
+        <v>11530</v>
+      </c>
+      <c r="E128" s="2">
+        <v>11530</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+    </row>
+    <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+    </row>
+    <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B132" s="2">
+        <v>111</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B133" s="2">
+        <v>11</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B134" s="2">
+        <v>33</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B135" s="2">
+        <v>22</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B136" s="2">
+        <v>44</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B137" s="2">
+        <v>66</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B138" s="2">
+        <v>5</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B139" s="2">
+        <v>66</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B140" s="2">
+        <v>77</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B141" s="2">
+        <v>88</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B142" s="2">
+        <v>1232</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B143" s="2">
+        <v>8</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="45" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="46"/>
+      <c r="I145" s="46"/>
+      <c r="J145" s="46"/>
+      <c r="K145" s="47"/>
+    </row>
+    <row r="146" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B150" s="37">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="45" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B151" s="46"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="46"/>
+      <c r="E151" s="46"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="46"/>
+      <c r="J151" s="46"/>
+      <c r="K151" s="47"/>
+    </row>
+    <row r="152" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B153" s="2">
+        <v>23</v>
+      </c>
+      <c r="C153" s="2">
+        <v>23</v>
+      </c>
+      <c r="D153" s="2">
+        <v>23</v>
+      </c>
+      <c r="E153" s="2">
+        <v>23</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+    </row>
+    <row r="154" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B154" s="2">
+        <v>12</v>
+      </c>
+      <c r="C154" s="2">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2">
+        <v>12</v>
+      </c>
+      <c r="E154" s="2">
+        <v>12</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+    </row>
+    <row r="155" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B155" s="2">
+        <v>11530</v>
+      </c>
+      <c r="C155" s="2">
+        <v>11530</v>
+      </c>
+      <c r="D155" s="2">
+        <v>11530</v>
+      </c>
+      <c r="E155" s="2">
+        <v>11530</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+    </row>
+    <row r="156" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B159" s="2">
+        <v>111</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+    </row>
+    <row r="160" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B160" s="2">
+        <v>11</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+    </row>
+    <row r="161" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B161" s="2">
+        <v>33</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+    </row>
+    <row r="162" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B162" s="2">
+        <v>22</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+    </row>
+    <row r="163" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B163" s="2">
+        <v>44</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+    </row>
+    <row r="164" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B164" s="2">
+        <v>66</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B165" s="2">
+        <v>5</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+    </row>
+    <row r="166" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B166" s="2">
+        <v>66</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+    </row>
+    <row r="167" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B167" s="2">
+        <v>77</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+    </row>
+    <row r="168" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" s="2">
+        <v>88</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+    </row>
+    <row r="169" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B169" s="2">
+        <v>1232</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+    </row>
+    <row r="170" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B170" s="2">
+        <v>8</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+    </row>
+    <row r="171" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+    </row>
+    <row r="174" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="48" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B175" s="3" t="str">
+        <f>VLOOKUP(B176,Master!$A$1:$B$95,2,FALSE)</f>
+        <v>SMPLPR</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="48" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B181" s="3" t="str">
+        <f>VLOOKUP(B182,Master!$A$1:$B$95,2,FALSE)</f>
+        <v>PO</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B186" s="1" t="str">
+        <f>VLOOKUP(B187,Master!$AW:$AX,2,FALSE)</f>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>4159</v>
+      </c>
+      <c r="B189" s="36">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B191" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="48" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B195" s="2">
+        <v>23</v>
+      </c>
+      <c r="C195" s="2">
+        <v>23</v>
+      </c>
+      <c r="D195" s="2">
+        <v>23</v>
+      </c>
+      <c r="E195" s="2">
+        <v>23</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+    </row>
+    <row r="196" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B196" s="2">
+        <v>12</v>
+      </c>
+      <c r="C196" s="2">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2">
+        <v>12</v>
+      </c>
+      <c r="E196" s="2">
+        <v>12</v>
+      </c>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+    </row>
+    <row r="197" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B197" s="2">
+        <v>11530</v>
+      </c>
+      <c r="C197" s="2">
+        <v>11530</v>
+      </c>
+      <c r="D197" s="2">
+        <v>11530</v>
+      </c>
+      <c r="E197" s="2">
+        <v>11530</v>
+      </c>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+    </row>
+    <row r="198" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+    </row>
+    <row r="199" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+    </row>
+    <row r="200" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+    </row>
+    <row r="201" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B201" s="2">
+        <v>111</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+    </row>
+    <row r="202" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B202" s="2">
+        <v>11</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+    </row>
+    <row r="203" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B203" s="2">
+        <v>33</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+    </row>
+    <row r="204" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B204" s="2">
+        <v>22</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+    </row>
+    <row r="205" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B205" s="2">
+        <v>44</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+    </row>
+    <row r="206" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B206" s="2">
+        <v>66</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+    </row>
+    <row r="207" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B207" s="2">
+        <v>5</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+    </row>
+    <row r="208" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B208" s="2">
+        <v>66</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+    </row>
+    <row r="209" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B209" s="2">
+        <v>77</v>
+      </c>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+    </row>
+    <row r="210" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B210" s="2">
+        <v>88</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+    </row>
+    <row r="211" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B211" s="2">
+        <v>1232</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+    </row>
+    <row r="212" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B212" s="2">
+        <v>8</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+    </row>
+    <row r="213" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="48" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B216" s="37">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="48" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B219" s="2">
+        <v>23</v>
+      </c>
+      <c r="C219" s="2">
+        <v>23</v>
+      </c>
+      <c r="D219" s="2">
+        <v>23</v>
+      </c>
+      <c r="E219" s="2">
+        <v>23</v>
+      </c>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+    </row>
+    <row r="220" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B220" s="2">
+        <v>12</v>
+      </c>
+      <c r="C220" s="2">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2">
+        <v>12</v>
+      </c>
+      <c r="E220" s="2">
+        <v>12</v>
+      </c>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+    </row>
+    <row r="221" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B221" s="2">
+        <v>11530</v>
+      </c>
+      <c r="C221" s="2">
+        <v>11530</v>
+      </c>
+      <c r="D221" s="2">
+        <v>11530</v>
+      </c>
+      <c r="E221" s="2">
+        <v>11530</v>
+      </c>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+    </row>
+    <row r="222" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+    </row>
+    <row r="223" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+    </row>
+    <row r="224" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+    </row>
+    <row r="225" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B225" s="2">
+        <v>111</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+    </row>
+    <row r="226" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B226" s="2">
+        <v>11</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+    </row>
+    <row r="227" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B227" s="2">
+        <v>33</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+    </row>
+    <row r="228" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B228" s="2">
+        <v>22</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+    </row>
+    <row r="229" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B229" s="2">
+        <v>44</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+    </row>
+    <row r="230" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B230" s="2">
+        <v>66</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+    </row>
+    <row r="231" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B231" s="2">
+        <v>5</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+    </row>
+    <row r="232" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B232" s="2">
+        <v>66</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+    </row>
+    <row r="233" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B233" s="2">
+        <v>77</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+    </row>
+    <row r="234" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B234" s="2">
+        <v>88</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+    </row>
+    <row r="235" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B235" s="2">
+        <v>1232</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+    </row>
+    <row r="236" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B236" s="2">
+        <v>8</v>
+      </c>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+    </row>
+    <row r="237" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="45" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B238" s="46"/>
+      <c r="C238" s="46"/>
+      <c r="D238" s="46"/>
+      <c r="E238" s="46"/>
+      <c r="F238" s="46"/>
+      <c r="G238" s="46"/>
+      <c r="H238" s="46"/>
+      <c r="I238" s="46"/>
+      <c r="J238" s="46"/>
+      <c r="K238" s="47"/>
+    </row>
+    <row r="239" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B243" s="37">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="45" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B244" s="46"/>
+      <c r="C244" s="46"/>
+      <c r="D244" s="46"/>
+      <c r="E244" s="46"/>
+      <c r="F244" s="46"/>
+      <c r="G244" s="46"/>
+      <c r="H244" s="46"/>
+      <c r="I244" s="46"/>
+      <c r="J244" s="46"/>
+      <c r="K244" s="47"/>
+    </row>
+    <row r="245" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B246" s="2">
+        <v>23</v>
+      </c>
+      <c r="C246" s="2">
+        <v>23</v>
+      </c>
+      <c r="D246" s="2">
+        <v>23</v>
+      </c>
+      <c r="E246" s="2">
+        <v>23</v>
+      </c>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+    </row>
+    <row r="247" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B247" s="2">
+        <v>12</v>
+      </c>
+      <c r="C247" s="2">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2">
+        <v>12</v>
+      </c>
+      <c r="E247" s="2">
+        <v>12</v>
+      </c>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+    </row>
+    <row r="248" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B248" s="2">
+        <v>11530</v>
+      </c>
+      <c r="C248" s="2">
+        <v>11530</v>
+      </c>
+      <c r="D248" s="2">
+        <v>11530</v>
+      </c>
+      <c r="E248" s="2">
+        <v>11530</v>
+      </c>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="2"/>
+      <c r="K248" s="2"/>
+    </row>
+    <row r="249" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B252" s="2">
+        <v>111</v>
+      </c>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+    </row>
+    <row r="253" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B253" s="2">
+        <v>11</v>
+      </c>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+    </row>
+    <row r="254" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B254" s="2">
+        <v>33</v>
+      </c>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+    </row>
+    <row r="255" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B255" s="2">
+        <v>22</v>
+      </c>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+    </row>
+    <row r="256" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B256" s="2">
+        <v>44</v>
+      </c>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+    </row>
+    <row r="257" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B257" s="2">
+        <v>66</v>
+      </c>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
+    </row>
+    <row r="258" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B258" s="2">
+        <v>5</v>
+      </c>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2"/>
+    </row>
+    <row r="259" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B259" s="2">
+        <v>66</v>
+      </c>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="2"/>
+    </row>
+    <row r="260" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B260" s="2">
+        <v>77</v>
+      </c>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
+      <c r="K260" s="2"/>
+    </row>
+    <row r="261" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B261" s="2">
+        <v>88</v>
+      </c>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="2"/>
+      <c r="J261" s="2"/>
+      <c r="K261" s="2"/>
+    </row>
+    <row r="262" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B262" s="2">
+        <v>1232</v>
+      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+    </row>
+    <row r="263" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B263" s="2">
+        <v>8</v>
+      </c>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2"/>
+      <c r="K263" s="2"/>
+    </row>
+    <row r="264" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="19">
     <mergeCell ref="A67:XFD67"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="A37:XFD37"/>
     <mergeCell ref="A40:XFD40"/>
     <mergeCell ref="A61:XFD61"/>
+    <mergeCell ref="A238:XFD238"/>
+    <mergeCell ref="A244:XFD244"/>
+    <mergeCell ref="A180:XFD180"/>
+    <mergeCell ref="A90:XFD90"/>
+    <mergeCell ref="A174:XFD174"/>
+    <mergeCell ref="A193:XFD193"/>
+    <mergeCell ref="A214:XFD214"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A100:XFD100"/>
+    <mergeCell ref="A121:XFD121"/>
+    <mergeCell ref="A124:XFD124"/>
+    <mergeCell ref="A145:XFD145"/>
+    <mergeCell ref="A151:XFD151"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:K8 F11:K11" type="list">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:K8 F11:K11 B93:E93 B184">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B87:K87 B36:K36 B60:K60" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B87:K88 B36:K36 B60:K60 B171:K172 B120:K120 B144:K144 B264:K264 B213:K213 B237:K237">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:K6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:K6">
       <formula1>"Contract, Permanent"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B191">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B92:E92 B182 B176">
       <formula1>ListJobProfession</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B183">
       <formula1>ListJobPosition</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B96:E96 B187">
       <formula1>ListIndustryType</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B192">
+      <formula1>"Domestic Investment, Foreign Investment"</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$29</xm:f>
           </x14:formula1>
           <xm:sqref>F5:K5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$A$2:$A$195</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$129</xm:f>
           </x14:formula1>
           <xm:sqref>C5:E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AW$2:$AW$515</xm:f>
           </x14:formula1>
@@ -16739,8 +19616,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -16748,14 +19625,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -16772,13 +19649,13 @@
         <v>3356</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>63</v>
       </c>
@@ -16801,7 +19678,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>67</v>
       </c>
@@ -16824,7 +19701,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -16837,22 +19714,22 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F3:K3" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:K3">
       <formula1>"AKTA, CAT CAT, CAT IS A CAT, DESCRIPTION FOR AAA, DESCRIPTION FOR ASA, DESCRIPTION FOR KTP, E-KTP, KITAS, NPWP, SIM"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:E5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:E5">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>ListCusRel</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$H$2:$H$113</xm:f>
           </x14:formula1>
@@ -16865,21 +19742,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="3" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -16896,22 +19773,22 @@
         <v>3356</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>3643</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-    </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
@@ -16934,7 +19811,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -16957,7 +19834,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -16980,7 +19857,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
@@ -17003,7 +19880,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -17026,7 +19903,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>382</v>
       </c>
@@ -17049,22 +19926,22 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row customFormat="1" r="9" s="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
         <v>3644</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="46"/>
-    </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -17087,22 +19964,22 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row customFormat="1" r="11" s="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
         <v>3645</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-    </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>79</v>
       </c>
@@ -17129,7 +20006,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>731</v>
       </c>
@@ -17152,7 +20029,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>81</v>
       </c>
@@ -17169,7 +20046,7 @@
         <v>82</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>83</v>
       </c>
@@ -17186,7 +20063,7 @@
         <v>84</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>85</v>
       </c>
@@ -17209,7 +20086,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -17226,7 +20103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -17243,7 +20120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>732</v>
       </c>
@@ -17261,39 +20138,39 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G17:K19 B17:F18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:K19 B17:F18">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:K5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:K5">
       <formula1>"Business, Online Shop, Salary, Stock Trading"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B3:B4" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+27</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:B7" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+22</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+23</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
       <formula1>ListBank</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$J$2:$J$305</xm:f>
           </x14:formula1>
@@ -17306,8 +20183,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -17315,11 +20192,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -17336,7 +20213,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>90</v>
       </c>
@@ -17353,7 +20230,7 @@
         <v>91</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -17370,7 +20247,7 @@
         <v>93</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>94</v>
       </c>
@@ -17387,7 +20264,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>95</v>
       </c>
@@ -17406,21 +20283,21 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:E2" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E2">
       <formula1>"Mobil, Motor, Rumah"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:E5" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E5">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
@@ -17428,12 +20305,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="15.0" collapsed="true"/>
-    <col min="3" max="5" bestFit="true" customWidth="true" style="7" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="14.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -17450,16 +20327,16 @@
         <v>3356</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>3646</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-    </row>
-    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>96</v>
       </c>
@@ -17480,7 +20357,7 @@
         <v>07</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>733</v>
       </c>
@@ -17497,7 +20374,7 @@
         <v>743</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>101</v>
       </c>
@@ -17518,7 +20395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>734</v>
       </c>
@@ -17535,7 +20412,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>1470</v>
       </c>
@@ -17556,7 +20433,7 @@
         <v>e2955</v>
       </c>
     </row>
-    <row customFormat="1" ht="105" r="8" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>735</v>
       </c>
@@ -17573,7 +20450,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>1471</v>
       </c>
@@ -17594,7 +20471,7 @@
         <v>e3822</v>
       </c>
     </row>
-    <row customFormat="1" ht="105" r="10" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>736</v>
       </c>
@@ -17611,16 +20488,16 @@
         <v>1460</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
         <v>3647</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-    </row>
-    <row customFormat="1" r="12" s="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1652</v>
       </c>
@@ -17631,7 +20508,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>1653</v>
       </c>
@@ -17652,7 +20529,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="14" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>1654</v>
       </c>
@@ -17663,7 +20540,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1655</v>
       </c>
@@ -17674,7 +20551,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1656</v>
       </c>
@@ -17685,7 +20562,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>1660</v>
       </c>
@@ -17706,7 +20583,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>1657</v>
       </c>
@@ -17717,7 +20594,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>1659</v>
       </c>
@@ -17738,7 +20615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>1658</v>
       </c>
@@ -17749,7 +20626,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>1662</v>
       </c>
@@ -17770,7 +20647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="22" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>1661</v>
       </c>
@@ -17781,7 +20658,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row customFormat="1" ht="45" r="23" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>1663</v>
       </c>
@@ -17802,7 +20679,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="24" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>1664</v>
       </c>
@@ -17813,7 +20690,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row customFormat="1" r="25" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>1665</v>
       </c>
@@ -17824,7 +20701,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row customFormat="1" r="26" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>1666</v>
       </c>
@@ -17845,7 +20722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" r="27" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1667</v>
       </c>
@@ -17854,7 +20731,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row customFormat="1" r="28" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>102</v>
       </c>
@@ -17871,7 +20748,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row customFormat="1" r="29" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>1668</v>
       </c>
@@ -17892,7 +20769,7 @@
         <v>BISNIS_SENDIRI</v>
       </c>
     </row>
-    <row customFormat="1" r="30" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>1669</v>
       </c>
@@ -17909,7 +20786,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row customFormat="1" r="31" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>1670</v>
       </c>
@@ -17926,7 +20803,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row customFormat="1" r="32" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>1671</v>
       </c>
@@ -17947,7 +20824,7 @@
         <v>FAMILY</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1672</v>
       </c>
@@ -17970,121 +20847,121 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C15:E16 C12:E12 C25:E25" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:E16 C12:E12 C25:E25">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B12 B15:B16 B25" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B15:B16 B25">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>ListDebtGroup</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>ListDebtorBusinessScale</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>ListCounterpart</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>ListSusFinBus</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
       <formula1>ListDebtGroupSLIK</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>ListAfWiMult</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>ListDeptAML</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>ListCSPUSL</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>ListPaymentTypeAML</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
       <formula1>ListAuthorityAML</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>ListBusinessSource</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B33" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
       <formula1>ListBuilding</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AT$2:$AT$109</xm:f>
           </x14:formula1>
           <xm:sqref>C33:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$M$2:$M$629</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$P$2:$P$107</xm:f>
           </x14:formula1>
           <xm:sqref>C6:E6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$S$2:$S$349</xm:f>
           </x14:formula1>
           <xm:sqref>C8:E8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$V$2:$V$115</xm:f>
           </x14:formula1>
           <xm:sqref>C10:E10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$Y$2:$Y$385</xm:f>
           </x14:formula1>
           <xm:sqref>C14:E14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AB$2:$AB$117</xm:f>
           </x14:formula1>
           <xm:sqref>C18:E18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AE$2:$AE$983</xm:f>
           </x14:formula1>
           <xm:sqref>C20:E20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AH$2:$AH$111</xm:f>
           </x14:formula1>
           <xm:sqref>C22:E22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AK$2:$AK$104</xm:f>
           </x14:formula1>
           <xm:sqref>C24:E24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AN$2:$AN$111</xm:f>
           </x14:formula1>
           <xm:sqref>C27:E27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AQ$2:$AQ$102</xm:f>
           </x14:formula1>
@@ -18097,8 +20974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DC882"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DB882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -18106,46 +20983,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="15" width="42.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="43" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="17" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="17" width="23.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="17" width="35.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="19" width="18.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="17" width="29.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="17" width="22.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="17" width="33.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="17" width="20.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="17" width="255.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="17" width="12.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="22" width="80.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="17" width="12.5703125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="23" width="80.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="20" width="21.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="23" width="79.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="20" width="8.140625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="17" width="89.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="17" width="25.5703125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="17" width="23.0" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="20" width="28.5703125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="17" width="25.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="17" width="31.140625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" style="17" width="12.42578125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" style="17" width="17.42578125" collapsed="true"/>
-    <col min="48" max="48" style="17" width="9.140625" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" style="17" width="97.7109375" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" style="17" width="22.5703125" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="42.140625" style="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" style="43" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30" style="17" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.42578125" style="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="33.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="255.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="80.140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="80.7109375" style="23" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="79.85546875" style="23" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="89" style="17" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="25.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23" style="17" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="25.140625" style="17" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="31.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.42578125" style="17" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="17.42578125" style="17" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="9.140625" style="17" collapsed="1"/>
+    <col min="49" max="49" width="97.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="22.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>3365</v>
       </c>
@@ -19030,7 +21907,7 @@
         <v>4141</v>
       </c>
     </row>
-    <row ht="30" r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>120</v>
       </c>
@@ -19109,7 +21986,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row ht="30" r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>122</v>
       </c>
@@ -19177,7 +22054,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row ht="30" r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>124</v>
       </c>
@@ -22541,7 +25418,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row ht="30" r="77" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>252</v>
       </c>
@@ -22591,7 +25468,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row ht="30" r="78" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>254</v>
       </c>
@@ -23191,7 +26068,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row ht="30" r="90" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>276</v>
       </c>
@@ -23241,7 +26118,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row ht="30" r="91" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>277</v>
       </c>
@@ -23818,7 +26695,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row ht="30" r="103" spans="10:106" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:106" ht="30" x14ac:dyDescent="0.25">
       <c r="J103" s="18" t="s">
         <v>492</v>
       </c>
@@ -23862,7 +26739,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row ht="30" r="104" spans="10:106" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:106" ht="30" x14ac:dyDescent="0.25">
       <c r="J104" s="18" t="s">
         <v>393</v>
       </c>
@@ -24082,7 +26959,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row ht="30" r="109" spans="10:106" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:106" ht="30" x14ac:dyDescent="0.25">
       <c r="J109" s="18" t="s">
         <v>413</v>
       </c>
@@ -24346,7 +27223,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row ht="30" r="115" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="J115" s="18" t="s">
         <v>512</v>
       </c>
@@ -24390,7 +27267,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row ht="30" r="116" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="J116" s="18" t="s">
         <v>514</v>
       </c>
@@ -25358,7 +28235,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row ht="30" r="138" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="J138" s="18" t="s">
         <v>553</v>
       </c>
@@ -25954,7 +28831,7 @@
         <v>3951</v>
       </c>
     </row>
-    <row ht="30" r="152" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="K152" s="20"/>
       <c r="M152" s="18" t="s">
         <v>887</v>
@@ -25993,7 +28870,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row ht="30" r="153" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="K153" s="20"/>
       <c r="M153" s="18" t="s">
         <v>888</v>
@@ -32849,8 +35726,8 @@
       <c r="AF882" s="20"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="19">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4WFINAL\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="644" firstSheet="1" activeTab="2"/>
+    <workbookView activeTab="2" firstSheet="2" tabRatio="644" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1.CustomerDetail" sheetId="1" r:id="rId1"/>
-    <sheet name="2.AddressInformation" sheetId="2" r:id="rId2"/>
-    <sheet name="3.JobData" sheetId="3" r:id="rId3"/>
-    <sheet name="4.EmergencyContact" sheetId="4" r:id="rId4"/>
-    <sheet name="5.FinancialData" sheetId="5" r:id="rId5"/>
-    <sheet name="6.CustomerAsset" sheetId="6" r:id="rId6"/>
-    <sheet name="7.OtherAttribute" sheetId="7" r:id="rId7"/>
-    <sheet name="Master" sheetId="8" r:id="rId8"/>
+    <sheet name="1.CustomerDetail" r:id="rId1" sheetId="1"/>
+    <sheet name="2.AddressInformation" r:id="rId2" sheetId="2"/>
+    <sheet name="3.JobData" r:id="rId3" sheetId="3"/>
+    <sheet name="4.EmergencyContact" r:id="rId4" sheetId="4"/>
+    <sheet name="5.FinancialData" r:id="rId5" sheetId="5"/>
+    <sheet name="6.CustomerAsset" r:id="rId6" sheetId="6"/>
+    <sheet name="7.OtherAttribute" r:id="rId7" sheetId="7"/>
+    <sheet name="Master" r:id="rId8" sheetId="8"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="7" hidden="1">Master!$A$1:$B$95</definedName>
-    <definedName name="ExternalData_10" localSheetId="7" hidden="1">Master!$AB$1:$AC$16</definedName>
-    <definedName name="ExternalData_11" localSheetId="7" hidden="1">Master!$AE$1:$AF$492</definedName>
-    <definedName name="ExternalData_12" localSheetId="7" hidden="1">Master!$AH$1:$AI$10</definedName>
-    <definedName name="ExternalData_13" localSheetId="7" hidden="1">Master!$AK$1:$AL$3</definedName>
-    <definedName name="ExternalData_14" localSheetId="7" hidden="1">Master!$AN$1:$AO$9</definedName>
-    <definedName name="ExternalData_15" localSheetId="7" hidden="1">Master!$AQ$1:$AR$2</definedName>
-    <definedName name="ExternalData_16" localSheetId="7" hidden="1">Master!$AT$1:$AU$8</definedName>
-    <definedName name="ExternalData_17" localSheetId="7" hidden="1">Master!$AW$1:$AX$263</definedName>
-    <definedName name="ExternalData_18" localSheetId="7" hidden="1">Master!$BA$1:$BB$242</definedName>
-    <definedName name="ExternalData_19" localSheetId="7" hidden="1">Master!$BE$1:$BE$10</definedName>
-    <definedName name="ExternalData_2" localSheetId="7" hidden="1">Master!$E$1:$E$30</definedName>
-    <definedName name="ExternalData_3" localSheetId="7" hidden="1">Master!$H$1:$H$14</definedName>
-    <definedName name="ExternalData_4" localSheetId="7" hidden="1">Master!$J$1:$K$147</definedName>
-    <definedName name="ExternalData_5" localSheetId="7" hidden="1">Master!$M$1:$N$315</definedName>
-    <definedName name="ExternalData_6" localSheetId="7" hidden="1">Master!$P$1:$Q$6</definedName>
-    <definedName name="ExternalData_7" localSheetId="7" hidden="1">Master!$S$1:$T$175</definedName>
-    <definedName name="ExternalData_8" localSheetId="7" hidden="1">Master!$V$1:$W$14</definedName>
-    <definedName name="ExternalData_9" localSheetId="7" hidden="1">Master!$Y$1:$Z$193</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_1">Master!$A$1:$B$95</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_10">Master!$AB$1:$AC$16</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_11">Master!$AE$1:$AF$492</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_12">Master!$AH$1:$AI$10</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_13">Master!$AK$1:$AL$3</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_14">Master!$AN$1:$AO$9</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_15">Master!$AQ$1:$AR$2</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_16">Master!$AT$1:$AU$8</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_17">Master!$AW$1:$AX$263</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_18">Master!$BA$1:$BB$242</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_19">Master!$BE$1:$BE$10</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_2">Master!$E$1:$E$30</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_3">Master!$H$1:$H$14</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_4">Master!$J$1:$K$147</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_5">Master!$M$1:$N$315</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_6">Master!$P$1:$Q$6</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_7">Master!$S$1:$T$175</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_8">Master!$V$1:$W$14</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_9">Master!$Y$1:$Z$193</definedName>
     <definedName name="ListAfWiMult">Master!$AB$2:INDEX(Master!$AB:$AB,SUMPRODUCT(--(Master!$AB:$AB&lt;&gt;"")))</definedName>
     <definedName name="ListAuthorityAML">Master!$AN$2:INDEX(Master!$AN:$AN,SUMPRODUCT(--(Master!$AN:$AN&lt;&gt;"")))</definedName>
     <definedName name="ListBank">Master!$J$2:INDEX(Master!$J:$J,SUMPRODUCT(--(Master!$J:$J&lt;&gt;"")))</definedName>
@@ -62,7 +62,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -75,7 +75,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A16" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A39" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A66" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A123" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A123" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A150" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A150" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A216" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A216" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A243" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A243" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +345,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A8" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A28" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A31" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4816" uniqueCount="4178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4779" uniqueCount="4172">
   <si>
     <t>Full Name</t>
   </si>
@@ -12988,46 +12988,28 @@
     <t>PT XYZ</t>
   </si>
   <si>
-    <t>kasdo</t>
-  </si>
-  <si>
-    <t>sdnf</t>
-  </si>
-  <si>
-    <t>asdjaijsd</t>
-  </si>
-  <si>
-    <t>sahfgiaf</t>
-  </si>
-  <si>
-    <t>asiufgaiuf</t>
-  </si>
-  <si>
-    <t>jenifqjenro</t>
-  </si>
-  <si>
-    <t>qwehoqwhe</t>
-  </si>
-  <si>
-    <t>qwieoiqwhe</t>
-  </si>
-  <si>
-    <t>wqiheoqwh</t>
-  </si>
-  <si>
-    <t>asjdhiausf</t>
-  </si>
-  <si>
-    <t>Foreign Investment</t>
-  </si>
-  <si>
-    <t>safsrhsr</t>
-  </si>
-  <si>
     <t>SAMPLE</t>
   </si>
   <si>
     <t>ashfaoh</t>
+  </si>
+  <si>
+    <t>JL SFS</t>
+  </si>
+  <si>
+    <t>Nyengseret</t>
+  </si>
+  <si>
+    <t>Astana Anyar</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>PELAJAR/MAHASISWA</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -13179,99 +13161,113 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="72">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13290,7 +13286,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13299,7 +13295,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13324,7 +13320,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13333,7 +13329,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13364,17 +13360,17 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="top" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13399,24 +13395,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13425,7 +13421,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13434,10 +13430,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13446,7 +13442,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13471,7 +13467,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13480,7 +13476,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13505,7 +13501,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13514,7 +13510,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13539,24 +13535,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13565,7 +13561,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13574,27 +13570,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13603,7 +13599,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13612,27 +13608,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13641,20 +13637,20 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13663,7 +13659,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13680,7 +13676,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13689,7 +13685,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13698,7 +13694,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13715,7 +13711,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13724,7 +13720,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13733,7 +13729,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13750,7 +13746,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13759,7 +13755,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13768,7 +13764,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13793,7 +13789,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13810,7 +13806,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13827,24 +13823,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13853,7 +13849,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13862,7 +13858,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13886,7 +13882,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF9966"/>
@@ -14110,208 +14106,208 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Query_Job_Profession" displayName="Query_Job_Profession" ref="A1:B95" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="67" displayName="Query_Job_Profession" headerRowDxfId="68" id="1" insertRowShift="1" name="Query_Job_Profession" ref="A1:B95" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B95"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="JOB PROFESSION NAME" queryTableFieldId="1" dataDxfId="64"/>
-    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="63"/>
+    <tableColumn dataDxfId="66" id="1" name="JOB PROFESSION NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="65" id="2" name="JOB POSITION CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Query_Affiliate_with_Multifinance" displayName="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="35" displayName="Query_Affiliate_with_Multifinance" headerRowDxfId="36" id="10" insertRowShift="1" name="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AC16"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" dataDxfId="32"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="31"/>
+    <tableColumn dataDxfId="34" id="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="33" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Query_Department_AML" displayName="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="31" displayName="Query_Department_AML" headerRowDxfId="32" id="11" insertRowShift="1" name="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AE1:AF492"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="28"/>
-    <tableColumn id="2" uniqueName="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="27"/>
+    <tableColumn dataDxfId="30" id="1" name="DEPARTMENT AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="29" id="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Query_csp_usl_source_aml" displayName="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="27" displayName="Query_csp_usl_source_aml" headerRowDxfId="28" id="12" insertRowShift="1" name="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AI10"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" dataDxfId="24"/>
-    <tableColumn id="2" uniqueName="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn dataDxfId="26" id="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="25" id="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Query_payment_type_aml" displayName="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="23" displayName="Query_payment_type_aml" headerRowDxfId="24" id="13" insertRowShift="1" name="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AK1:AL3"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="PAYMENT TYPE AML" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn dataDxfId="22" id="1" name="PAYMENT TYPE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="21" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Query_authority_aml" displayName="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="19" displayName="Query_authority_aml" headerRowDxfId="20" id="14" insertRowShift="1" name="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AO9"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="16"/>
-    <tableColumn id="2" uniqueName="2" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn dataDxfId="18" id="1" name="AUTHORITY AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="17" id="2" name="AUTHORITY AML2" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Query_Business_Source" displayName="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="15" displayName="Query_Business_Source" headerRowDxfId="16" id="15" insertRowShift="1" name="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AQ1:AR2"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn dataDxfId="14" id="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="13" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="query_building" displayName="query_building" ref="AT1:AU8" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="11" displayName="query_building" headerRowDxfId="12" id="16" insertRowShift="1" name="query_building" ref="AT1:AU8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AT1:AU8"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BUILDING" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" uniqueName="2" name="BUILDING CODE" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn dataDxfId="10" id="1" name="BUILDING" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="9" id="2" name="BUILDING CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Query_Industry_Type" displayName="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="7" displayName="Query_Industry_Type" headerRowDxfId="8" id="17" insertRowShift="1" name="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AW1:AX263"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" uniqueName="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn dataDxfId="6" id="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="5" id="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Query_Country" displayName="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Country" headerRowDxfId="4" id="18" name="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BA1:BB242"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="COUNTRY NAME" queryTableFieldId="1"/>
-    <tableColumn id="6" uniqueName="6" name="COUNTRY CODE" queryTableFieldId="2"/>
+    <tableColumn id="5" name="COUNTRY NAME" queryTableFieldId="1" uniqueName="5"/>
+    <tableColumn id="6" name="COUNTRY CODE" queryTableFieldId="2" uniqueName="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Copy_Address_From" displayName="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Copy_Address_From" headerRowDxfId="3" id="19" name="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BE1:BE10"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Copy Address" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn dataDxfId="2" id="3" name="Copy Address" queryTableFieldId="1" uniqueName="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Query_Job_Position" displayName="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Job_Position" headerRowDxfId="64" id="2" name="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:E30"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="61"/>
+    <tableColumn dataDxfId="63" id="1" name="JOB POSITION NAME" queryTableFieldId="1" uniqueName="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Query_Customer_Relationship" displayName="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Customer_Relationship" headerRowDxfId="62" id="3" name="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="H1:H14"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Customer Relationship" queryTableFieldId="1" dataDxfId="59"/>
+    <tableColumn dataDxfId="61" id="1" name="Customer Relationship" queryTableFieldId="1" uniqueName="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Query_Bank" displayName="Query_Bank" ref="J1:K147" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="59" displayName="Query_Bank" headerRowDxfId="60" id="4" insertRowShift="1" name="Query_Bank" ref="J1:K147" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="J1:K147"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BANK NAME" queryTableFieldId="1" dataDxfId="56"/>
-    <tableColumn id="2" uniqueName="2" name="BANK CODE" queryTableFieldId="2" dataDxfId="55"/>
+    <tableColumn dataDxfId="58" id="1" name="BANK NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="57" id="2" name="BANK CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Query_Debtor_Group" displayName="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="55" displayName="Query_Debtor_Group" headerRowDxfId="56" id="5" insertRowShift="1" name="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N315"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" dataDxfId="52"/>
-    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" dataDxfId="51"/>
+    <tableColumn dataDxfId="54" id="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="53" id="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Query_Debtor_Business_Scale" displayName="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="51" displayName="Query_Debtor_Business_Scale" headerRowDxfId="52" id="6" insertRowShift="1" name="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="P1:Q6"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Debtor Business Scale Description" queryTableFieldId="1" dataDxfId="48"/>
-    <tableColumn id="2" uniqueName="2" name="Debtor Group Code" queryTableFieldId="2" dataDxfId="47"/>
+    <tableColumn dataDxfId="50" id="1" name="Debtor Business Scale Description" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="49" id="2" name="Debtor Group Code" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Query_Counterpart" displayName="Query_Counterpart" ref="S1:T175" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="47" displayName="Query_Counterpart" headerRowDxfId="48" id="7" insertRowShift="1" name="Query_Counterpart" ref="S1:T175" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="S1:T175"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Counterpart Category" queryTableFieldId="1" dataDxfId="44"/>
-    <tableColumn id="2" uniqueName="2" name="LBPP CODE" queryTableFieldId="2" dataDxfId="43"/>
+    <tableColumn dataDxfId="46" id="1" name="Counterpart Category" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="45" id="2" name="LBPP CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Query_Sustainable_Financial" displayName="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="43" displayName="Query_Sustainable_Financial" headerRowDxfId="44" id="8" insertRowShift="1" name="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:W14"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Sustainable Financial Business" queryTableFieldId="1" dataDxfId="40"/>
-    <tableColumn id="2" uniqueName="2" name="LBPP Code" queryTableFieldId="2" dataDxfId="39"/>
+    <tableColumn dataDxfId="42" id="1" name="Sustainable Financial Business" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="41" id="2" name="LBPP Code" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Query_debtor_group_slik" displayName="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="39" displayName="Query_debtor_group_slik" headerRowDxfId="40" id="9" insertRowShift="1" name="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Y1:Z193"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" dataDxfId="36"/>
-    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" dataDxfId="35"/>
+    <tableColumn dataDxfId="38" id="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="37" id="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -14320,10 +14316,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14358,7 +14354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -14393,7 +14389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -14487,21 +14483,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -14518,7 +14514,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -14570,15 +14566,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -14586,13 +14582,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -14609,7 +14605,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14626,12 +14622,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -14646,7 +14642,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -14661,7 +14657,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -14676,7 +14672,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -14693,7 +14689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -14710,7 +14706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -14727,12 +14723,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
@@ -14749,17 +14745,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>18</v>
       </c>
@@ -14776,7 +14772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>3649</v>
       </c>
@@ -14797,7 +14793,7 @@
         <v>COUNTRY001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>20</v>
       </c>
@@ -14820,7 +14816,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>21</v>
       </c>
@@ -14837,7 +14833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>23</v>
       </c>
@@ -14854,7 +14850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>27</v>
       </c>
@@ -14877,59 +14873,59 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD16">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule dxfId="71" priority="2" type="expression">
       <formula>AND(A$14&lt;&gt;"Foreigner",A$14&lt;&gt;"",A$14&lt;&gt;"Nationality")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD19">
-    <cfRule type="expression" dxfId="68" priority="1">
+    <cfRule dxfId="70" priority="1" type="expression">
       <formula>A$8="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:K18">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18:K18" type="list">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:K17">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:K17" type="list">
       <formula1>"S1, S2, S3, SD, SMP, SMA"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B10:K10"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:K9">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B10:K10"/>
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B7:K9" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:K14">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F14:K14" type="list">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F11:K11">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F11:K11" type="list">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E14">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:E14" type="list">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:E11">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11:E11" type="list">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="custom">
       <formula1>B$14="Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19:E19" type="custom">
       <formula1>B$8="Yes"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B5" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16" type="list">
       <formula1>IF(B$14="Foreigner",ListCountry)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>IF(C$14="Foreigner",Master!$BA$2:$BA$342)</xm:f>
           </x14:formula1>
@@ -14942,20 +14938,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -14972,7 +14968,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>29</v>
       </c>
@@ -14989,7 +14985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -15006,7 +15002,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>32</v>
       </c>
@@ -15029,7 +15025,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>37</v>
       </c>
@@ -15052,7 +15048,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>38</v>
       </c>
@@ -15075,7 +15071,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>39</v>
       </c>
@@ -15098,7 +15094,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>42</v>
       </c>
@@ -15121,7 +15117,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>40</v>
       </c>
@@ -15144,7 +15140,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>43</v>
       </c>
@@ -15167,7 +15163,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>296</v>
       </c>
@@ -15182,7 +15178,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>297</v>
       </c>
@@ -15197,7 +15193,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>298</v>
       </c>
@@ -15212,7 +15208,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>299</v>
       </c>
@@ -15227,7 +15223,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>300</v>
       </c>
@@ -15242,7 +15238,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>301</v>
       </c>
@@ -15257,7 +15253,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>302</v>
       </c>
@@ -15272,7 +15268,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>303</v>
       </c>
@@ -15287,7 +15283,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>304</v>
       </c>
@@ -15302,7 +15298,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>305</v>
       </c>
@@ -15317,7 +15313,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>306</v>
       </c>
@@ -15332,7 +15328,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
@@ -15351,36 +15347,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:XFD10">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule dxfId="69" priority="1" type="expression">
       <formula>AND(A$3&lt;&gt;"",A$3&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22:K22">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B22:K22" type="list">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:K2">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B2:K2" type="list">
       <formula1>"Legal, Mailing, Residence, Residence 2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:K3">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I3:K3" type="list">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B10" type="custom">
       <formula1>ISBLANK(B$3)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$110</xm:f>
           </x14:formula1>
           <xm:sqref>C3:H3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$20</xm:f>
           </x14:formula1>
@@ -15393,20 +15389,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K264"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -15423,7 +15419,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>3637</v>
       </c>
@@ -15438,7 +15434,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="47"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>47</v>
       </c>
@@ -15465,7 +15461,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>104</v>
       </c>
@@ -15488,7 +15484,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>49</v>
       </c>
@@ -15511,7 +15507,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>52</v>
       </c>
@@ -15528,7 +15524,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -15545,7 +15541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -15562,7 +15558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>285</v>
       </c>
@@ -15570,7 +15566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>286</v>
       </c>
@@ -15588,7 +15584,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>287</v>
       </c>
@@ -15605,7 +15601,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -15622,7 +15618,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>59</v>
       </c>
@@ -15645,7 +15641,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>288</v>
       </c>
@@ -15668,7 +15664,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -15691,7 +15687,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>3638</v>
       </c>
@@ -15706,12 +15702,12 @@
       <c r="J16" s="46"/>
       <c r="K16" s="47"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>4166</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>34</v>
@@ -15723,12 +15719,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>23</v>
@@ -15746,12 +15742,12 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2">
         <v>12</v>
@@ -15769,12 +15765,12 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="2">
-        <v>11530</v>
+        <v>40202</v>
       </c>
       <c r="C20" s="2">
         <v>11530</v>
@@ -15792,12 +15788,12 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>4168</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>41</v>
@@ -15815,12 +15811,12 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>4167</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>41</v>
@@ -15838,12 +15834,12 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>295</v>
+        <v>4169</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>295</v>
@@ -15861,7 +15857,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -15876,7 +15872,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>296</v>
       </c>
@@ -15891,7 +15887,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>297</v>
       </c>
@@ -15906,7 +15902,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>298</v>
       </c>
@@ -15921,7 +15917,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>299</v>
       </c>
@@ -15936,7 +15932,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>300</v>
       </c>
@@ -15951,7 +15947,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>301</v>
       </c>
@@ -15966,7 +15962,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>302</v>
       </c>
@@ -15981,7 +15977,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>303</v>
       </c>
@@ -15996,7 +15992,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>304</v>
       </c>
@@ -16011,7 +16007,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>305</v>
       </c>
@@ -16026,7 +16022,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>306</v>
       </c>
@@ -16041,7 +16037,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -16058,7 +16054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>3639</v>
       </c>
@@ -16073,18 +16069,18 @@
       <c r="J37" s="46"/>
       <c r="K37" s="47"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B39" s="37"/>
     </row>
-    <row r="40" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>3640</v>
       </c>
@@ -16099,13 +16095,10 @@
       <c r="J40" s="46"/>
       <c r="K40" s="47"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -16116,13 +16109,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B42" s="2">
-        <v>23</v>
-      </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="2">
         <v>23</v>
       </c>
@@ -16139,13 +16130,11 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B43" s="2">
-        <v>12</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2">
         <v>12</v>
       </c>
@@ -16162,13 +16151,11 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B44" s="2">
-        <v>11530</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2">
         <v>11530</v>
       </c>
@@ -16185,13 +16172,11 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>41</v>
       </c>
@@ -16208,13 +16193,11 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>41</v>
       </c>
@@ -16231,13 +16214,11 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>295</v>
       </c>
@@ -16254,7 +16235,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>357</v>
       </c>
@@ -16269,7 +16250,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>358</v>
       </c>
@@ -16284,7 +16265,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>359</v>
       </c>
@@ -16299,7 +16280,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>360</v>
       </c>
@@ -16314,7 +16295,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>361</v>
       </c>
@@ -16329,7 +16310,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>362</v>
       </c>
@@ -16344,7 +16325,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>363</v>
       </c>
@@ -16359,7 +16340,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>364</v>
       </c>
@@ -16374,7 +16355,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>365</v>
       </c>
@@ -16389,7 +16370,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>366</v>
       </c>
@@ -16404,7 +16385,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>367</v>
       </c>
@@ -16419,7 +16400,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>368</v>
       </c>
@@ -16434,13 +16415,10 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C60" s="1" t="s">
         <v>46</v>
       </c>
@@ -16451,7 +16429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
         <v>3641</v>
       </c>
@@ -16466,33 +16444,33 @@
       <c r="J61" s="46"/>
       <c r="K61" s="47"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B66" s="37"/>
     </row>
-    <row r="67" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="45" t="s">
         <v>3642</v>
       </c>
@@ -16507,13 +16485,10 @@
       <c r="J67" s="46"/>
       <c r="K67" s="47"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C68" s="1" t="s">
         <v>34</v>
       </c>
@@ -16524,13 +16499,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B69" s="2">
-        <v>23</v>
-      </c>
+      <c r="B69" s="2"/>
       <c r="C69" s="2">
         <v>23</v>
       </c>
@@ -16547,13 +16520,11 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B70" s="2">
-        <v>12</v>
-      </c>
+      <c r="B70" s="2"/>
       <c r="C70" s="2">
         <v>12</v>
       </c>
@@ -16570,13 +16541,11 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B71" s="2">
-        <v>11530</v>
-      </c>
+      <c r="B71" s="2"/>
       <c r="C71" s="2">
         <v>11530</v>
       </c>
@@ -16593,13 +16562,10 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C72" s="1" t="s">
         <v>41</v>
       </c>
@@ -16610,13 +16576,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C73" s="1" t="s">
         <v>41</v>
       </c>
@@ -16627,13 +16590,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="C74" s="1" t="s">
         <v>295</v>
       </c>
@@ -16644,7 +16604,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>337</v>
       </c>
@@ -16659,7 +16619,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>338</v>
       </c>
@@ -16674,7 +16634,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>339</v>
       </c>
@@ -16689,7 +16649,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>340</v>
       </c>
@@ -16704,7 +16664,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>341</v>
       </c>
@@ -16719,7 +16679,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>342</v>
       </c>
@@ -16734,7 +16694,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>343</v>
       </c>
@@ -16749,7 +16709,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>344</v>
       </c>
@@ -16764,7 +16724,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>345</v>
       </c>
@@ -16779,7 +16739,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>346</v>
       </c>
@@ -16794,7 +16754,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>347</v>
       </c>
@@ -16809,7 +16769,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>348</v>
       </c>
@@ -16824,13 +16784,10 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C87" s="1" t="s">
         <v>46</v>
       </c>
@@ -16841,18 +16798,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" s="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>4156</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>47</v>
       </c>
@@ -16873,7 +16830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
@@ -16884,7 +16841,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>55</v>
       </c>
@@ -16892,7 +16849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>285</v>
       </c>
@@ -16900,7 +16857,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>4152</v>
       </c>
@@ -16921,7 +16878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>4153</v>
       </c>
@@ -16929,7 +16886,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>4154</v>
       </c>
@@ -16937,7 +16894,7 @@
         <v>1823612693</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>4155</v>
       </c>
@@ -16945,7 +16902,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>288</v>
       </c>
@@ -16953,17 +16910,17 @@
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>3638</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>33</v>
+        <v>4166</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>34</v>
@@ -16975,12 +16932,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B102" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C102" s="2">
         <v>23</v>
@@ -16998,12 +16955,12 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B103" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C103" s="2">
         <v>12</v>
@@ -17021,12 +16978,12 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B104" s="2">
-        <v>11530</v>
+        <v>40202</v>
       </c>
       <c r="C104" s="2">
         <v>11530</v>
@@ -17044,12 +17001,12 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>41</v>
+        <v>4168</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>41</v>
@@ -17067,12 +17024,12 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>41</v>
+        <v>4167</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>41</v>
@@ -17090,12 +17047,12 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>295</v>
+        <v>4169</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>295</v>
@@ -17113,13 +17070,11 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B108" s="2">
-        <v>111</v>
-      </c>
+      <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -17130,13 +17085,11 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B109" s="2">
-        <v>11</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -17147,13 +17100,11 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B110" s="2">
-        <v>33</v>
-      </c>
+      <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -17164,13 +17115,11 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B111" s="2">
-        <v>22</v>
-      </c>
+      <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -17181,13 +17130,11 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B112" s="2">
-        <v>44</v>
-      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -17198,13 +17145,11 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B113" s="2">
-        <v>66</v>
-      </c>
+      <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -17215,13 +17160,11 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B114" s="2">
-        <v>5</v>
-      </c>
+      <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -17232,13 +17175,11 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B115" s="2">
-        <v>66</v>
-      </c>
+      <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -17249,13 +17190,11 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B116" s="2">
-        <v>77</v>
-      </c>
+      <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -17266,13 +17205,11 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B117" s="2">
-        <v>88</v>
-      </c>
+      <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -17283,13 +17220,11 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B118" s="2">
-        <v>1232</v>
-      </c>
+      <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -17300,13 +17235,11 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B119" s="2">
-        <v>8</v>
-      </c>
+      <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -17317,7 +17250,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>45</v>
       </c>
@@ -17334,7 +17267,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="45" t="s">
         <v>3639</v>
       </c>
@@ -17349,23 +17282,18 @@
       <c r="J121" s="46"/>
       <c r="K121" s="47"/>
     </row>
-    <row r="122" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>4168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="123" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B123" s="37">
-        <v>44214</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="37"/>
+    </row>
+    <row customFormat="1" r="124" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="45" t="s">
         <v>3640</v>
       </c>
@@ -17380,13 +17308,10 @@
       <c r="J124" s="46"/>
       <c r="K124" s="47"/>
     </row>
-    <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C125" s="1" t="s">
         <v>34</v>
       </c>
@@ -17397,13 +17322,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B126" s="2">
-        <v>23</v>
-      </c>
+      <c r="B126" s="2"/>
       <c r="C126" s="2">
         <v>23</v>
       </c>
@@ -17420,13 +17343,11 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B127" s="2">
-        <v>12</v>
-      </c>
+      <c r="B127" s="2"/>
       <c r="C127" s="2">
         <v>12</v>
       </c>
@@ -17443,13 +17364,11 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B128" s="2">
-        <v>11530</v>
-      </c>
+      <c r="B128" s="2"/>
       <c r="C128" s="2">
         <v>11530</v>
       </c>
@@ -17466,13 +17385,11 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
         <v>41</v>
       </c>
@@ -17489,13 +17406,11 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
         <v>41</v>
       </c>
@@ -17512,13 +17427,11 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
         <v>295</v>
       </c>
@@ -17535,13 +17448,11 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B132" s="2">
-        <v>111</v>
-      </c>
+      <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -17552,13 +17463,11 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B133" s="2">
-        <v>11</v>
-      </c>
+      <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -17569,13 +17478,11 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B134" s="2">
-        <v>33</v>
-      </c>
+      <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -17586,13 +17493,11 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B135" s="2">
-        <v>22</v>
-      </c>
+      <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -17603,13 +17508,11 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B136" s="2">
-        <v>44</v>
-      </c>
+      <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -17620,13 +17523,11 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B137" s="2">
-        <v>66</v>
-      </c>
+      <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -17637,13 +17538,11 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B138" s="2">
-        <v>5</v>
-      </c>
+      <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -17654,13 +17553,11 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B139" s="2">
-        <v>66</v>
-      </c>
+      <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -17671,13 +17568,11 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B140" s="2">
-        <v>77</v>
-      </c>
+      <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -17688,13 +17583,11 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B141" s="2">
-        <v>88</v>
-      </c>
+      <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -17705,13 +17598,11 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B142" s="2">
-        <v>1232</v>
-      </c>
+      <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -17722,13 +17613,11 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B143" s="2">
-        <v>8</v>
-      </c>
+      <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -17739,13 +17628,10 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C144" s="1" t="s">
         <v>46</v>
       </c>
@@ -17756,7 +17642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="45" t="s">
         <v>3641</v>
       </c>
@@ -17771,47 +17657,33 @@
       <c r="J145" s="46"/>
       <c r="K145" s="47"/>
     </row>
-    <row r="146" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="146" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>4164</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="147" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>4165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="148" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>4166</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="149" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>4167</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="150" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B150" s="37">
-        <v>44082</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="37"/>
+    </row>
+    <row customFormat="1" r="151" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="45" t="s">
         <v>3642</v>
       </c>
@@ -17826,13 +17698,10 @@
       <c r="J151" s="46"/>
       <c r="K151" s="47"/>
     </row>
-    <row r="152" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="152" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C152" s="1" t="s">
         <v>34</v>
       </c>
@@ -17843,13 +17712,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="153" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B153" s="2">
-        <v>23</v>
-      </c>
+      <c r="B153" s="2"/>
       <c r="C153" s="2">
         <v>23</v>
       </c>
@@ -17866,13 +17733,11 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="154" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B154" s="2">
-        <v>12</v>
-      </c>
+      <c r="B154" s="2"/>
       <c r="C154" s="2">
         <v>12</v>
       </c>
@@ -17889,13 +17754,11 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="155" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B155" s="2">
-        <v>11530</v>
-      </c>
+      <c r="B155" s="2"/>
       <c r="C155" s="2">
         <v>11530</v>
       </c>
@@ -17912,13 +17775,10 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="156" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C156" s="1" t="s">
         <v>41</v>
       </c>
@@ -17929,13 +17789,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="157" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C157" s="1" t="s">
         <v>41</v>
       </c>
@@ -17946,13 +17803,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="158" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="C158" s="1" t="s">
         <v>295</v>
       </c>
@@ -17963,13 +17817,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="159" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B159" s="2">
-        <v>111</v>
-      </c>
+      <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -17980,13 +17832,11 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="160" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B160" s="2">
-        <v>11</v>
-      </c>
+      <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -17997,13 +17847,11 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="161" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B161" s="2">
-        <v>33</v>
-      </c>
+      <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -18014,13 +17862,11 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="162" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B162" s="2">
-        <v>22</v>
-      </c>
+      <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -18031,13 +17877,11 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="163" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B163" s="2">
-        <v>44</v>
-      </c>
+      <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -18048,13 +17892,11 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="164" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B164" s="2">
-        <v>66</v>
-      </c>
+      <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -18065,13 +17907,11 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="165" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B165" s="2">
-        <v>5</v>
-      </c>
+      <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -18082,13 +17922,11 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="166" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B166" s="2">
-        <v>66</v>
-      </c>
+      <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -18099,13 +17937,11 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="167" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B167" s="2">
-        <v>77</v>
-      </c>
+      <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -18116,13 +17952,11 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="168" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B168" s="2">
-        <v>88</v>
-      </c>
+      <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -18133,13 +17967,11 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="169" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B169" s="2">
-        <v>1232</v>
-      </c>
+      <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -18150,13 +17982,11 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="170" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B170" s="2">
-        <v>8</v>
-      </c>
+      <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -18167,13 +17997,10 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="171" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C171" s="1" t="s">
         <v>46</v>
       </c>
@@ -18184,15 +18011,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="172" s="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
     </row>
-    <row r="174" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="174" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
         <v>4157</v>
       </c>
     </row>
-    <row r="175" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="175" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>47</v>
       </c>
@@ -18201,53 +18028,53 @@
         <v>SMPLPR</v>
       </c>
     </row>
-    <row r="176" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="176" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>4176</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4164</v>
+      </c>
+    </row>
+    <row customFormat="1" r="177" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>4177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4165</v>
+      </c>
+    </row>
+    <row customFormat="1" r="180" s="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>4161</v>
       </c>
     </row>
-    <row r="181" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="181" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B181" s="3" t="str">
         <f>VLOOKUP(B182,Master!$A$1:$B$95,2,FALSE)</f>
-        <v>PO</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>CLG_STD</v>
+      </c>
+    </row>
+    <row customFormat="1" r="182" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4170</v>
+      </c>
+    </row>
+    <row customFormat="1" r="183" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row customFormat="1" r="184" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>55</v>
       </c>
@@ -18255,77 +18082,64 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="185" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>4175</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="186" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>4152</v>
       </c>
       <c r="B186" s="1" t="str">
         <f>VLOOKUP(B187,Master!$AW:$AX,2,FALSE)</f>
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>ADA</v>
+      </c>
+    </row>
+    <row customFormat="1" r="187" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>4153</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3377</v>
+      </c>
+    </row>
+    <row customFormat="1" r="188" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>4158</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="189" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>4159</v>
       </c>
-      <c r="B189" s="36">
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="36"/>
+    </row>
+    <row customFormat="1" r="190" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3377</v>
+      </c>
+    </row>
+    <row customFormat="1" r="191" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B191" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="2"/>
+    </row>
+    <row customFormat="1" r="192" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>4160</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>4174</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="193" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="48" t="s">
         <v>3638</v>
       </c>
     </row>
-    <row r="194" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="194" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="31" t="s">
         <v>32</v>
       </c>
@@ -18342,7 +18156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="195" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="31" t="s">
         <v>37</v>
       </c>
@@ -18365,7 +18179,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="196" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="31" t="s">
         <v>38</v>
       </c>
@@ -18388,7 +18202,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="197" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="31" t="s">
         <v>39</v>
       </c>
@@ -18411,7 +18225,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="198" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="31" t="s">
         <v>40</v>
       </c>
@@ -18434,7 +18248,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="199" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="31" t="s">
         <v>42</v>
       </c>
@@ -18457,7 +18271,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="200" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="31" t="s">
         <v>43</v>
       </c>
@@ -18480,13 +18294,11 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="201" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B201" s="2">
-        <v>111</v>
-      </c>
+      <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -18497,13 +18309,11 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="202" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B202" s="2">
-        <v>11</v>
-      </c>
+      <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -18514,13 +18324,11 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="203" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B203" s="2">
-        <v>33</v>
-      </c>
+      <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -18531,13 +18339,11 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="204" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B204" s="2">
-        <v>22</v>
-      </c>
+      <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -18548,13 +18354,11 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="205" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B205" s="2">
-        <v>44</v>
-      </c>
+      <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -18565,13 +18369,11 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="206" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B206" s="2">
-        <v>66</v>
-      </c>
+      <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -18582,13 +18384,11 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="207" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B207" s="2">
-        <v>5</v>
-      </c>
+      <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -18599,13 +18399,11 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="208" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B208" s="2">
-        <v>66</v>
-      </c>
+      <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -18616,13 +18414,11 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="209" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B209" s="2">
-        <v>77</v>
-      </c>
+      <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -18633,13 +18429,11 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="210" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B210" s="2">
-        <v>88</v>
-      </c>
+      <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -18650,13 +18444,11 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="211" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B211" s="2">
-        <v>1232</v>
-      </c>
+      <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -18667,13 +18459,11 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="212" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B212" s="2">
-        <v>8</v>
-      </c>
+      <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -18684,7 +18474,7 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="213" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>45</v>
       </c>
@@ -18701,39 +18491,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="214" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="48" t="s">
         <v>3639</v>
       </c>
     </row>
-    <row r="215" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="215" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>4173</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="216" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B216" s="37">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="37"/>
+    </row>
+    <row customFormat="1" r="217" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="48" t="s">
         <v>3640</v>
       </c>
     </row>
-    <row r="218" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="218" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C218" s="1" t="s">
         <v>34</v>
       </c>
@@ -18744,13 +18526,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="219" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B219" s="2">
-        <v>23</v>
-      </c>
+      <c r="B219" s="2"/>
       <c r="C219" s="2">
         <v>23</v>
       </c>
@@ -18767,13 +18547,11 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="220" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B220" s="2">
-        <v>12</v>
-      </c>
+      <c r="B220" s="2"/>
       <c r="C220" s="2">
         <v>12</v>
       </c>
@@ -18790,13 +18568,11 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="221" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B221" s="2">
-        <v>11530</v>
-      </c>
+      <c r="B221" s="2"/>
       <c r="C221" s="2">
         <v>11530</v>
       </c>
@@ -18813,13 +18589,11 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="222" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
         <v>41</v>
       </c>
@@ -18836,13 +18610,11 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="223" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
         <v>41</v>
       </c>
@@ -18859,13 +18631,11 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="224" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="B224" s="2"/>
       <c r="C224" s="2" t="s">
         <v>295</v>
       </c>
@@ -18882,13 +18652,11 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="225" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B225" s="2">
-        <v>111</v>
-      </c>
+      <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -18899,13 +18667,11 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="226" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B226" s="2">
-        <v>11</v>
-      </c>
+      <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -18916,13 +18682,11 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="227" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B227" s="2">
-        <v>33</v>
-      </c>
+      <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -18933,13 +18697,11 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="228" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B228" s="2">
-        <v>22</v>
-      </c>
+      <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -18950,13 +18712,11 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="229" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B229" s="2">
-        <v>44</v>
-      </c>
+      <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -18967,13 +18727,11 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="230" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B230" s="2">
-        <v>66</v>
-      </c>
+      <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -18984,13 +18742,11 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="231" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B231" s="2">
-        <v>5</v>
-      </c>
+      <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -19001,13 +18757,11 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="232" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B232" s="2">
-        <v>66</v>
-      </c>
+      <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -19018,13 +18772,11 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="233" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B233" s="2">
-        <v>77</v>
-      </c>
+      <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -19035,13 +18787,11 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="234" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B234" s="2">
-        <v>88</v>
-      </c>
+      <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -19052,13 +18802,11 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="235" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B235" s="2">
-        <v>1232</v>
-      </c>
+      <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -19069,13 +18817,11 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="236" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B236" s="2">
-        <v>8</v>
-      </c>
+      <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -19086,13 +18832,10 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="237" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C237" s="1" t="s">
         <v>46</v>
       </c>
@@ -19103,7 +18846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="238" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="238" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="45" t="s">
         <v>3641</v>
       </c>
@@ -19118,47 +18861,33 @@
       <c r="J238" s="46"/>
       <c r="K238" s="47"/>
     </row>
-    <row r="239" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="239" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>4169</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="240" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>4170</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="241" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>4171</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="242" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>4172</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="243" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B243" s="37">
-        <v>44050</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="37"/>
+    </row>
+    <row customFormat="1" r="244" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="45" t="s">
         <v>3642</v>
       </c>
@@ -19173,13 +18902,10 @@
       <c r="J244" s="46"/>
       <c r="K244" s="47"/>
     </row>
-    <row r="245" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="245" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C245" s="1" t="s">
         <v>34</v>
       </c>
@@ -19190,13 +18916,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="246" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B246" s="2">
-        <v>23</v>
-      </c>
+      <c r="B246" s="2"/>
       <c r="C246" s="2">
         <v>23</v>
       </c>
@@ -19213,13 +18937,11 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="247" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B247" s="2">
-        <v>12</v>
-      </c>
+      <c r="B247" s="2"/>
       <c r="C247" s="2">
         <v>12</v>
       </c>
@@ -19236,13 +18958,11 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="248" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B248" s="2">
-        <v>11530</v>
-      </c>
+      <c r="B248" s="2"/>
       <c r="C248" s="2">
         <v>11530</v>
       </c>
@@ -19259,13 +18979,10 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="249" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C249" s="1" t="s">
         <v>41</v>
       </c>
@@ -19276,13 +18993,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="250" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C250" s="1" t="s">
         <v>41</v>
       </c>
@@ -19293,13 +19007,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="251" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="C251" s="1" t="s">
         <v>295</v>
       </c>
@@ -19310,13 +19021,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="252" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="252" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B252" s="2">
-        <v>111</v>
-      </c>
+      <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -19327,13 +19036,11 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="253" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B253" s="2">
-        <v>11</v>
-      </c>
+      <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -19344,13 +19051,11 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="254" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B254" s="2">
-        <v>33</v>
-      </c>
+      <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -19361,13 +19066,11 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="255" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B255" s="2">
-        <v>22</v>
-      </c>
+      <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -19378,13 +19081,11 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="256" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B256" s="2">
-        <v>44</v>
-      </c>
+      <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -19395,13 +19096,11 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="257" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B257" s="2">
-        <v>66</v>
-      </c>
+      <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -19412,13 +19111,11 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="258" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B258" s="2">
-        <v>5</v>
-      </c>
+      <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -19429,13 +19126,11 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="259" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B259" s="2">
-        <v>66</v>
-      </c>
+      <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -19446,13 +19141,11 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="260" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B260" s="2">
-        <v>77</v>
-      </c>
+      <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -19463,13 +19156,11 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="261" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B261" s="2">
-        <v>88</v>
-      </c>
+      <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -19480,13 +19171,11 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="262" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B262" s="2">
-        <v>1232</v>
-      </c>
+      <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -19497,13 +19186,11 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="263" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B263" s="2">
-        <v>8</v>
-      </c>
+      <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -19514,12 +19201,9 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="264" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>46</v>
@@ -19554,56 +19238,57 @@
     <mergeCell ref="A151:XFD151"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:K8 F11:K11 B93:E93 B184">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:K8 F11:K11 B93:E93 B184" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B87:K88 B36:K36 B60:K60 B171:K172 B120:K120 B144:K144 B264:K264 B213:K213 B237:K237">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B87:K88 B36:K36 B60:K60 B171:K172 B120:K120 B144:K144 B264:K264 B213:K213 B237:K237" type="list">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:K6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:K6" type="list">
       <formula1>"Contract, Permanent"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B191">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15 B191" type="whole">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B92:E92 B182 B176">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4 B92:E92 B182 B176" type="list">
       <formula1>ListJobProfession</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B183">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5 B183" type="list">
       <formula1>ListJobPosition</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B96:E96 B187">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11 B96:E96 B187" type="list">
       <formula1>ListIndustryType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B192">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B192" type="list">
       <formula1>"Domestic Investment, Foreign Investment"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$29</xm:f>
           </x14:formula1>
           <xm:sqref>F5:K5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$A$2:$A$195</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$129</xm:f>
           </x14:formula1>
           <xm:sqref>C5:E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AW$2:$AW$515</xm:f>
           </x14:formula1>
@@ -19616,8 +19301,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -19625,14 +19310,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -19649,13 +19334,13 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>63</v>
       </c>
@@ -19678,7 +19363,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>67</v>
       </c>
@@ -19701,7 +19386,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -19714,22 +19399,22 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:K3">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F3:K3" type="list">
       <formula1>"AKTA, CAT CAT, CAT IS A CAT, DESCRIPTION FOR AAA, DESCRIPTION FOR ASA, DESCRIPTION FOR KTP, E-KTP, KITAS, NPWP, SIM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:E5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:E5" type="list">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
       <formula1>ListCusRel</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$H$2:$H$113</xm:f>
           </x14:formula1>
@@ -19742,8 +19427,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -19751,12 +19436,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -19773,7 +19458,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>3643</v>
       </c>
@@ -19788,7 +19473,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="47"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>70</v>
       </c>
@@ -19811,7 +19496,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -19834,7 +19519,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -19857,7 +19542,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
@@ -19880,7 +19565,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -19903,7 +19588,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>382</v>
       </c>
@@ -19926,7 +19611,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>3644</v>
       </c>
@@ -19941,7 +19626,7 @@
       <c r="J9" s="46"/>
       <c r="K9" s="47"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -19964,7 +19649,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>3645</v>
       </c>
@@ -19979,7 +19664,7 @@
       <c r="J11" s="46"/>
       <c r="K11" s="47"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>79</v>
       </c>
@@ -20006,7 +19691,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>731</v>
       </c>
@@ -20029,7 +19714,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>81</v>
       </c>
@@ -20046,7 +19731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>83</v>
       </c>
@@ -20063,7 +19748,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>85</v>
       </c>
@@ -20086,7 +19771,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -20103,7 +19788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -20120,7 +19805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>732</v>
       </c>
@@ -20138,39 +19823,39 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:K19 B17:F18">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G17:K19 B17:F18" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:K5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:K5" type="list">
       <formula1>"Business, Online Shop, Salary, Stock Trading"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B3:B4" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+27</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:B7" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+22</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+23</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
       <formula1>ListBank</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$J$2:$J$305</xm:f>
           </x14:formula1>
@@ -20183,20 +19868,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -20213,13 +19898,10 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>91</v>
       </c>
@@ -20230,13 +19912,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>93</v>
       </c>
@@ -20247,13 +19926,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="39">
-        <v>600000000</v>
-      </c>
+      <c r="B4" s="39"/>
       <c r="C4" s="39">
         <v>600000000</v>
       </c>
@@ -20264,13 +19941,11 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -20283,34 +19958,34 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:E2" type="list">
       <formula1>"Mobil, Motor, Rumah"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:E5" type="whole">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="14.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="15.0" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" style="7" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -20327,7 +20002,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>3646</v>
       </c>
@@ -20336,7 +20011,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="47"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>96</v>
       </c>
@@ -20357,7 +20032,7 @@
         <v>07</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>733</v>
       </c>
@@ -20374,7 +20049,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>101</v>
       </c>
@@ -20395,7 +20070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>734</v>
       </c>
@@ -20412,7 +20087,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>1470</v>
       </c>
@@ -20433,7 +20108,7 @@
         <v>e2955</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="105" r="8" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>735</v>
       </c>
@@ -20450,7 +20125,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>1471</v>
       </c>
@@ -20471,7 +20146,7 @@
         <v>e3822</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="105" r="10" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>736</v>
       </c>
@@ -20488,7 +20163,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>3647</v>
       </c>
@@ -20497,7 +20172,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="47"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1652</v>
       </c>
@@ -20508,7 +20183,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>1653</v>
       </c>
@@ -20529,7 +20204,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="14" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>1654</v>
       </c>
@@ -20540,7 +20215,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1655</v>
       </c>
@@ -20551,7 +20226,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1656</v>
       </c>
@@ -20562,7 +20237,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>1660</v>
       </c>
@@ -20583,7 +20258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>1657</v>
       </c>
@@ -20594,7 +20269,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>1659</v>
       </c>
@@ -20615,7 +20290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>1658</v>
       </c>
@@ -20626,7 +20301,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>1662</v>
       </c>
@@ -20647,7 +20322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="22" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>1661</v>
       </c>
@@ -20658,7 +20333,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="23" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>1663</v>
       </c>
@@ -20679,7 +20354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="24" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>1664</v>
       </c>
@@ -20690,7 +20365,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>1665</v>
       </c>
@@ -20701,7 +20376,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>1666</v>
       </c>
@@ -20722,7 +20397,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1667</v>
       </c>
@@ -20731,7 +20406,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>102</v>
       </c>
@@ -20748,7 +20423,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>1668</v>
       </c>
@@ -20769,7 +20444,7 @@
         <v>BISNIS_SENDIRI</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>1669</v>
       </c>
@@ -20786,7 +20461,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>1670</v>
       </c>
@@ -20803,7 +20478,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>1671</v>
       </c>
@@ -20824,7 +20499,7 @@
         <v>FAMILY</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1672</v>
       </c>
@@ -20847,121 +20522,121 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:E16 C12:E12 C25:E25">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C15:E16 C12:E12 C25:E25" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B15:B16 B25">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B12 B15:B16 B25" type="list">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
       <formula1>ListDebtGroup</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
       <formula1>ListDebtorBusinessScale</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
       <formula1>ListCounterpart</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
       <formula1>ListSusFinBus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14" type="list">
       <formula1>ListDebtGroupSLIK</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18" type="list">
       <formula1>ListAfWiMult</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
       <formula1>ListDeptAML</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
       <formula1>ListCSPUSL</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
       <formula1>ListPaymentTypeAML</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
       <formula1>ListAuthorityAML</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
       <formula1>ListBusinessSource</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B33" type="list">
       <formula1>ListBuilding</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AT$2:$AT$109</xm:f>
           </x14:formula1>
           <xm:sqref>C33:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$M$2:$M$629</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$P$2:$P$107</xm:f>
           </x14:formula1>
           <xm:sqref>C6:E6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$S$2:$S$349</xm:f>
           </x14:formula1>
           <xm:sqref>C8:E8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$V$2:$V$115</xm:f>
           </x14:formula1>
           <xm:sqref>C10:E10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$Y$2:$Y$385</xm:f>
           </x14:formula1>
           <xm:sqref>C14:E14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AB$2:$AB$117</xm:f>
           </x14:formula1>
           <xm:sqref>C18:E18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AE$2:$AE$983</xm:f>
           </x14:formula1>
           <xm:sqref>C20:E20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AH$2:$AH$111</xm:f>
           </x14:formula1>
           <xm:sqref>C22:E22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AK$2:$AK$104</xm:f>
           </x14:formula1>
           <xm:sqref>C24:E24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AN$2:$AN$111</xm:f>
           </x14:formula1>
           <xm:sqref>C27:E27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AQ$2:$AQ$102</xm:f>
           </x14:formula1>
@@ -20974,55 +20649,55 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB882"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DC882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.28515625" style="43" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30" style="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.85546875" style="19" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="33.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="255.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="80.140625" style="22" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="80.7109375" style="23" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="21.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="79.85546875" style="23" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="8.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="89" style="17" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="25.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23" style="17" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="25.140625" style="17" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="31.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="12.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="17.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="9.140625" style="17" collapsed="1"/>
-    <col min="49" max="49" width="97.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="22.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="15" width="42.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="43" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="17" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="17" width="23.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="17" width="35.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="19" width="18.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="29.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="17" width="22.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="17" width="33.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="17" width="20.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="17" width="255.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="17" width="12.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="22" width="80.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="17" width="12.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="23" width="80.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="20" width="21.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="23" width="79.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="20" width="8.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="17" width="89.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="17" width="25.5703125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="17" width="23.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="20" width="28.5703125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="17" width="25.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="17" width="31.140625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="17" width="12.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="17" width="17.42578125" collapsed="true"/>
+    <col min="48" max="48" style="17" width="9.140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="17" width="97.7109375" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="17" width="22.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>3365</v>
       </c>
@@ -21907,7 +21582,7 @@
         <v>4141</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>120</v>
       </c>
@@ -21986,7 +21661,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>122</v>
       </c>
@@ -22054,7 +21729,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>124</v>
       </c>
@@ -25418,7 +25093,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>252</v>
       </c>
@@ -25468,7 +25143,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>254</v>
       </c>
@@ -26068,7 +25743,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="90" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>276</v>
       </c>
@@ -26118,7 +25793,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="91" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="91" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>277</v>
       </c>
@@ -26695,7 +26370,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="103" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="103" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J103" s="18" t="s">
         <v>492</v>
       </c>
@@ -26739,7 +26414,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="104" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="104" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J104" s="18" t="s">
         <v>393</v>
       </c>
@@ -26959,7 +26634,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="109" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="109" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J109" s="18" t="s">
         <v>413</v>
       </c>
@@ -27223,7 +26898,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="115" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="115" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J115" s="18" t="s">
         <v>512</v>
       </c>
@@ -27267,7 +26942,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="116" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="116" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J116" s="18" t="s">
         <v>514</v>
       </c>
@@ -28235,7 +27910,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="138" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="138" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J138" s="18" t="s">
         <v>553</v>
       </c>
@@ -28831,7 +28506,7 @@
         <v>3951</v>
       </c>
     </row>
-    <row r="152" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="152" spans="10:54" x14ac:dyDescent="0.25">
       <c r="K152" s="20"/>
       <c r="M152" s="18" t="s">
         <v>887</v>
@@ -28870,7 +28545,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="153" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="153" spans="10:54" x14ac:dyDescent="0.25">
       <c r="K153" s="20"/>
       <c r="M153" s="18" t="s">
         <v>888</v>
@@ -35726,8 +35401,8 @@
       <c r="AF882" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="19">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4WFINAL\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="644" firstSheet="2" activeTab="6"/>
+    <workbookView activeTab="6" firstSheet="2" tabRatio="644" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1.CustomerDetail" sheetId="1" r:id="rId1"/>
-    <sheet name="2.AddressInformation" sheetId="2" r:id="rId2"/>
-    <sheet name="3.JobData" sheetId="3" r:id="rId3"/>
-    <sheet name="4.EmergencyContact" sheetId="4" r:id="rId4"/>
-    <sheet name="5.FinancialData" sheetId="5" r:id="rId5"/>
-    <sheet name="6.CustomerAsset" sheetId="6" r:id="rId6"/>
-    <sheet name="7.OtherAttribute" sheetId="7" r:id="rId7"/>
-    <sheet name="Master" sheetId="8" r:id="rId8"/>
+    <sheet name="1.CustomerDetail" r:id="rId1" sheetId="1"/>
+    <sheet name="2.AddressInformation" r:id="rId2" sheetId="2"/>
+    <sheet name="3.JobData" r:id="rId3" sheetId="3"/>
+    <sheet name="4.EmergencyContact" r:id="rId4" sheetId="4"/>
+    <sheet name="5.FinancialData" r:id="rId5" sheetId="5"/>
+    <sheet name="6.CustomerAsset" r:id="rId6" sheetId="6"/>
+    <sheet name="7.OtherAttribute" r:id="rId7" sheetId="7"/>
+    <sheet name="Master" r:id="rId8" sheetId="8"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="7" hidden="1">Master!$A$1:$B$95</definedName>
-    <definedName name="ExternalData_10" localSheetId="7" hidden="1">Master!$AB$1:$AC$16</definedName>
-    <definedName name="ExternalData_11" localSheetId="7" hidden="1">Master!$AE$1:$AF$492</definedName>
-    <definedName name="ExternalData_12" localSheetId="7" hidden="1">Master!$AH$1:$AI$10</definedName>
-    <definedName name="ExternalData_13" localSheetId="7" hidden="1">Master!$AK$1:$AL$3</definedName>
-    <definedName name="ExternalData_14" localSheetId="7" hidden="1">Master!$AN$1:$AO$9</definedName>
-    <definedName name="ExternalData_15" localSheetId="7" hidden="1">Master!$AQ$1:$AR$2</definedName>
-    <definedName name="ExternalData_16" localSheetId="7" hidden="1">Master!$AT$1:$AU$8</definedName>
-    <definedName name="ExternalData_17" localSheetId="7" hidden="1">Master!$AW$1:$AX$263</definedName>
-    <definedName name="ExternalData_18" localSheetId="7" hidden="1">Master!$BA$1:$BB$242</definedName>
-    <definedName name="ExternalData_19" localSheetId="7" hidden="1">Master!$BE$1:$BE$10</definedName>
-    <definedName name="ExternalData_2" localSheetId="7" hidden="1">Master!$E$1:$E$30</definedName>
-    <definedName name="ExternalData_3" localSheetId="7" hidden="1">Master!$H$1:$H$14</definedName>
-    <definedName name="ExternalData_4" localSheetId="7" hidden="1">Master!$J$1:$K$147</definedName>
-    <definedName name="ExternalData_5" localSheetId="7" hidden="1">Master!$M$1:$N$315</definedName>
-    <definedName name="ExternalData_6" localSheetId="7" hidden="1">Master!$P$1:$Q$6</definedName>
-    <definedName name="ExternalData_7" localSheetId="7" hidden="1">Master!$S$1:$T$175</definedName>
-    <definedName name="ExternalData_8" localSheetId="7" hidden="1">Master!$V$1:$W$14</definedName>
-    <definedName name="ExternalData_9" localSheetId="7" hidden="1">Master!$Y$1:$Z$193</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_1">Master!$A$1:$B$95</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_10">Master!$AB$1:$AC$16</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_11">Master!$AE$1:$AF$492</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_12">Master!$AH$1:$AI$10</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_13">Master!$AK$1:$AL$3</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_14">Master!$AN$1:$AO$9</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_15">Master!$AQ$1:$AR$2</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_16">Master!$AT$1:$AU$8</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_17">Master!$AW$1:$AX$263</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_18">Master!$BA$1:$BB$242</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_19">Master!$BE$1:$BE$10</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_2">Master!$E$1:$E$30</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_3">Master!$H$1:$H$14</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_4">Master!$J$1:$K$147</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_5">Master!$M$1:$N$315</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_6">Master!$P$1:$Q$6</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_7">Master!$S$1:$T$175</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_8">Master!$V$1:$W$14</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_9">Master!$Y$1:$Z$193</definedName>
     <definedName name="ListAfWiMult">Master!$AB$2:INDEX(Master!$AB:$AB,SUMPRODUCT(--(Master!$AB:$AB&lt;&gt;"")))</definedName>
     <definedName name="ListAuthorityAML">Master!$AN$2:INDEX(Master!$AN:$AN,SUMPRODUCT(--(Master!$AN:$AN&lt;&gt;"")))</definedName>
     <definedName name="ListBank">Master!$J$2:INDEX(Master!$J:$J,SUMPRODUCT(--(Master!$J:$J&lt;&gt;"")))</definedName>
@@ -62,7 +62,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -75,7 +75,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A16" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A39" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A66" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A123" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A123" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A150" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A150" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A216" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A216" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A243" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A243" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +345,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A8" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A28" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A31" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="4174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="4174">
   <si>
     <t>Full Name</t>
   </si>
@@ -13167,99 +13167,99 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="71">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13278,7 +13278,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13287,7 +13287,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13312,7 +13312,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13321,7 +13321,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13352,17 +13352,17 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="top" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13387,24 +13387,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13413,7 +13413,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13422,10 +13422,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13434,7 +13434,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13459,7 +13459,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13468,7 +13468,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13493,7 +13493,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13502,7 +13502,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13527,24 +13527,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13553,7 +13553,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13562,27 +13562,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13591,7 +13591,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13600,27 +13600,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13629,20 +13629,20 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13651,7 +13651,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13668,7 +13668,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13677,7 +13677,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13686,7 +13686,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13703,7 +13703,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13712,7 +13712,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13721,7 +13721,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13738,7 +13738,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13747,7 +13747,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13756,7 +13756,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13781,7 +13781,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13798,7 +13798,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13815,24 +13815,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt formatCode="@" numFmtId="30"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13841,7 +13841,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13850,7 +13850,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13881,7 +13881,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF9966"/>
@@ -14105,208 +14105,208 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Query_Job_Profession" displayName="Query_Job_Profession" ref="A1:B95" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="65" displayName="Query_Job_Profession" headerRowDxfId="66" id="1" insertRowShift="1" name="Query_Job_Profession" ref="A1:B95" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B95"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="JOB PROFESSION NAME" queryTableFieldId="1" dataDxfId="64"/>
-    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="63"/>
+    <tableColumn dataDxfId="64" id="1" name="JOB PROFESSION NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="63" id="2" name="JOB POSITION CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Query_Affiliate_with_Multifinance" displayName="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="33" displayName="Query_Affiliate_with_Multifinance" headerRowDxfId="34" id="10" insertRowShift="1" name="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AC16"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" dataDxfId="32"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="31"/>
+    <tableColumn dataDxfId="32" id="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="31" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Query_Department_AML" displayName="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="29" displayName="Query_Department_AML" headerRowDxfId="30" id="11" insertRowShift="1" name="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AE1:AF492"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="28"/>
-    <tableColumn id="2" uniqueName="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="27"/>
+    <tableColumn dataDxfId="28" id="1" name="DEPARTMENT AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="27" id="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Query_csp_usl_source_aml" displayName="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="25" displayName="Query_csp_usl_source_aml" headerRowDxfId="26" id="12" insertRowShift="1" name="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AI10"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" dataDxfId="24"/>
-    <tableColumn id="2" uniqueName="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn dataDxfId="24" id="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="23" id="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Query_payment_type_aml" displayName="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="21" displayName="Query_payment_type_aml" headerRowDxfId="22" id="13" insertRowShift="1" name="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AK1:AL3"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="PAYMENT TYPE AML" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn dataDxfId="20" id="1" name="PAYMENT TYPE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="19" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Query_authority_aml" displayName="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="17" displayName="Query_authority_aml" headerRowDxfId="18" id="14" insertRowShift="1" name="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AO9"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="16"/>
-    <tableColumn id="2" uniqueName="2" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn dataDxfId="16" id="1" name="AUTHORITY AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="15" id="2" name="AUTHORITY AML2" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Query_Business_Source" displayName="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="13" displayName="Query_Business_Source" headerRowDxfId="14" id="15" insertRowShift="1" name="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AQ1:AR2"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn dataDxfId="12" id="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="11" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="query_building" displayName="query_building" ref="AT1:AU8" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="9" displayName="query_building" headerRowDxfId="10" id="16" insertRowShift="1" name="query_building" ref="AT1:AU8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AT1:AU8"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BUILDING" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" uniqueName="2" name="BUILDING CODE" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn dataDxfId="8" id="1" name="BUILDING" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="7" id="2" name="BUILDING CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Query_Industry_Type" displayName="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="5" displayName="Query_Industry_Type" headerRowDxfId="6" id="17" insertRowShift="1" name="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AW1:AX263"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" uniqueName="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn dataDxfId="4" id="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="3" id="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Query_Country" displayName="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Country" headerRowDxfId="2" id="18" name="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BA1:BB242"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="COUNTRY NAME" queryTableFieldId="1"/>
-    <tableColumn id="6" uniqueName="6" name="COUNTRY CODE" queryTableFieldId="2"/>
+    <tableColumn id="5" name="COUNTRY NAME" queryTableFieldId="1" uniqueName="5"/>
+    <tableColumn id="6" name="COUNTRY CODE" queryTableFieldId="2" uniqueName="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Copy_Address_From" displayName="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Copy_Address_From" headerRowDxfId="1" id="19" name="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BE1:BE10"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Copy Address" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn dataDxfId="0" id="3" name="Copy Address" queryTableFieldId="1" uniqueName="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Query_Job_Position" displayName="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Job_Position" headerRowDxfId="62" id="2" name="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:E30"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="61"/>
+    <tableColumn dataDxfId="61" id="1" name="JOB POSITION NAME" queryTableFieldId="1" uniqueName="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Query_Customer_Relationship" displayName="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Customer_Relationship" headerRowDxfId="60" id="3" name="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="H1:H14"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Customer Relationship" queryTableFieldId="1" dataDxfId="59"/>
+    <tableColumn dataDxfId="59" id="1" name="Customer Relationship" queryTableFieldId="1" uniqueName="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Query_Bank" displayName="Query_Bank" ref="J1:K147" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="57" displayName="Query_Bank" headerRowDxfId="58" id="4" insertRowShift="1" name="Query_Bank" ref="J1:K147" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="J1:K147"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BANK NAME" queryTableFieldId="1" dataDxfId="56"/>
-    <tableColumn id="2" uniqueName="2" name="BANK CODE" queryTableFieldId="2" dataDxfId="55"/>
+    <tableColumn dataDxfId="56" id="1" name="BANK NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="55" id="2" name="BANK CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Query_Debtor_Group" displayName="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="53" displayName="Query_Debtor_Group" headerRowDxfId="54" id="5" insertRowShift="1" name="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N315"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" dataDxfId="52"/>
-    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" dataDxfId="51"/>
+    <tableColumn dataDxfId="52" id="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="51" id="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Query_Debtor_Business_Scale" displayName="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="49" displayName="Query_Debtor_Business_Scale" headerRowDxfId="50" id="6" insertRowShift="1" name="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="P1:Q6"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Debtor Business Scale Description" queryTableFieldId="1" dataDxfId="48"/>
-    <tableColumn id="2" uniqueName="2" name="Debtor Group Code" queryTableFieldId="2" dataDxfId="47"/>
+    <tableColumn dataDxfId="48" id="1" name="Debtor Business Scale Description" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="47" id="2" name="Debtor Group Code" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Query_Counterpart" displayName="Query_Counterpart" ref="S1:T175" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="45" displayName="Query_Counterpart" headerRowDxfId="46" id="7" insertRowShift="1" name="Query_Counterpart" ref="S1:T175" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="S1:T175"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Counterpart Category" queryTableFieldId="1" dataDxfId="44"/>
-    <tableColumn id="2" uniqueName="2" name="LBPP CODE" queryTableFieldId="2" dataDxfId="43"/>
+    <tableColumn dataDxfId="44" id="1" name="Counterpart Category" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="43" id="2" name="LBPP CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Query_Sustainable_Financial" displayName="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="41" displayName="Query_Sustainable_Financial" headerRowDxfId="42" id="8" insertRowShift="1" name="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:W14"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Sustainable Financial Business" queryTableFieldId="1" dataDxfId="40"/>
-    <tableColumn id="2" uniqueName="2" name="LBPP Code" queryTableFieldId="2" dataDxfId="39"/>
+    <tableColumn dataDxfId="40" id="1" name="Sustainable Financial Business" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="39" id="2" name="LBPP Code" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Query_debtor_group_slik" displayName="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="37" displayName="Query_debtor_group_slik" headerRowDxfId="38" id="9" insertRowShift="1" name="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Y1:Z193"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" dataDxfId="36"/>
-    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" dataDxfId="35"/>
+    <tableColumn dataDxfId="36" id="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="35" id="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -14315,10 +14315,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14353,7 +14353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -14388,7 +14388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -14482,21 +14482,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -14513,7 +14513,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -14565,15 +14565,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -14581,13 +14581,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14621,12 +14621,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -14641,7 +14641,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -14656,7 +14656,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -14671,7 +14671,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -14722,12 +14722,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
@@ -14744,17 +14744,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>18</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>3645</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>COUNTRY001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>20</v>
       </c>
@@ -14815,7 +14815,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>21</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>23</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>24</v>
       </c>
@@ -14872,62 +14872,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD16">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule dxfId="70" priority="2" type="expression">
       <formula>AND(A$14&lt;&gt;"Foreigner",A$14&lt;&gt;"",A$14&lt;&gt;"Nationality")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD19">
-    <cfRule type="expression" dxfId="69" priority="1">
+    <cfRule dxfId="69" priority="1" type="expression">
       <formula>A$8="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:K18">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F18:K18" type="list">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:K17">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:K17" type="list">
       <formula1>"S1, S2, S3, SD, SMP, SMA"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B10:K10"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:K9">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B10:K10"/>
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B7:K9" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:K14">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F14:K14" type="list">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F11:K11">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F11:K11" type="list">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E14">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:E14" type="list">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:E11">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11:E11" type="list">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="custom">
       <formula1>B$14="Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19:E19" type="custom">
       <formula1>B$8="Yes"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B5" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16" type="list">
       <formula1>IF(B$14="Foreigner",ListCountry)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:E18">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18:E18" type="list">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu, AGNOSTIK"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>IF(C$14="Foreigner",Master!$BA$2:$BA$342)</xm:f>
           </x14:formula1>
@@ -14940,8 +14940,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -14949,11 +14949,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>26</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -15004,7 +15004,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
@@ -15027,7 +15027,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>33</v>
       </c>
@@ -15050,7 +15050,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>34</v>
       </c>
@@ -15073,7 +15073,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>35</v>
       </c>
@@ -15096,7 +15096,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>38</v>
       </c>
@@ -15119,7 +15119,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>36</v>
       </c>
@@ -15142,7 +15142,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>39</v>
       </c>
@@ -15165,7 +15165,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>292</v>
       </c>
@@ -15180,7 +15180,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>293</v>
       </c>
@@ -15195,7 +15195,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>294</v>
       </c>
@@ -15210,7 +15210,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>295</v>
       </c>
@@ -15225,7 +15225,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>296</v>
       </c>
@@ -15240,7 +15240,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>297</v>
       </c>
@@ -15255,7 +15255,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>298</v>
       </c>
@@ -15270,7 +15270,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>299</v>
       </c>
@@ -15285,7 +15285,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>300</v>
       </c>
@@ -15300,7 +15300,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>301</v>
       </c>
@@ -15315,7 +15315,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>302</v>
       </c>
@@ -15330,7 +15330,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>41</v>
       </c>
@@ -15349,36 +15349,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:XFD10">
-    <cfRule type="expression" dxfId="68" priority="1">
+    <cfRule dxfId="68" priority="1" type="expression">
       <formula>AND(A$3&lt;&gt;"",A$3&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22:K22">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B22:K22" type="list">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:K2">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B2:K2" type="list">
       <formula1>"Legal, Mailing, Residence, Residence 2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:K3">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I3:K3" type="list">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B10" type="custom">
       <formula1>ISBLANK(B$3)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$110</xm:f>
           </x14:formula1>
           <xm:sqref>C3:H3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$20</xm:f>
           </x14:formula1>
@@ -15391,20 +15391,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K264"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L264"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A147" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>3633</v>
       </c>
@@ -15436,7 +15436,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="47"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>43</v>
       </c>
@@ -15463,7 +15463,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>100</v>
       </c>
@@ -15486,7 +15486,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>45</v>
       </c>
@@ -15509,7 +15509,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>48</v>
       </c>
@@ -15526,7 +15526,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>281</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>282</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>283</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>55</v>
       </c>
@@ -15643,7 +15643,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>284</v>
       </c>
@@ -15666,7 +15666,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -15689,7 +15689,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>3634</v>
       </c>
@@ -15704,7 +15704,7 @@
       <c r="J16" s="46"/>
       <c r="K16" s="47"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>33</v>
       </c>
@@ -15744,7 +15744,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>34</v>
       </c>
@@ -15767,7 +15767,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>35</v>
       </c>
@@ -15790,7 +15790,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>36</v>
       </c>
@@ -15813,7 +15813,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>38</v>
       </c>
@@ -15836,7 +15836,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>39</v>
       </c>
@@ -15859,7 +15859,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -15874,7 +15874,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>292</v>
       </c>
@@ -15889,7 +15889,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>293</v>
       </c>
@@ -15904,7 +15904,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>294</v>
       </c>
@@ -15919,7 +15919,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>295</v>
       </c>
@@ -15934,7 +15934,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>296</v>
       </c>
@@ -15949,7 +15949,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>297</v>
       </c>
@@ -15964,7 +15964,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>298</v>
       </c>
@@ -15979,7 +15979,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>299</v>
       </c>
@@ -15994,7 +15994,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>300</v>
       </c>
@@ -16009,7 +16009,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>301</v>
       </c>
@@ -16024,7 +16024,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>302</v>
       </c>
@@ -16039,7 +16039,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>3635</v>
       </c>
@@ -16071,18 +16071,18 @@
       <c r="J37" s="46"/>
       <c r="K37" s="47"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B39" s="37"/>
     </row>
-    <row r="40" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>3636</v>
       </c>
@@ -16097,7 +16097,7 @@
       <c r="J40" s="46"/>
       <c r="K40" s="47"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>346</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>347</v>
       </c>
@@ -16132,7 +16132,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>348</v>
       </c>
@@ -16153,7 +16153,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>349</v>
       </c>
@@ -16174,7 +16174,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>350</v>
       </c>
@@ -16195,7 +16195,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>351</v>
       </c>
@@ -16216,7 +16216,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>352</v>
       </c>
@@ -16237,7 +16237,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>353</v>
       </c>
@@ -16252,7 +16252,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>354</v>
       </c>
@@ -16267,7 +16267,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>355</v>
       </c>
@@ -16282,7 +16282,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>356</v>
       </c>
@@ -16297,7 +16297,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>357</v>
       </c>
@@ -16312,7 +16312,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>358</v>
       </c>
@@ -16327,7 +16327,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>359</v>
       </c>
@@ -16342,7 +16342,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>360</v>
       </c>
@@ -16357,7 +16357,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>361</v>
       </c>
@@ -16372,7 +16372,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>362</v>
       </c>
@@ -16387,7 +16387,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>363</v>
       </c>
@@ -16402,7 +16402,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>364</v>
       </c>
@@ -16417,7 +16417,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>365</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
         <v>3637</v>
       </c>
@@ -16446,33 +16446,33 @@
       <c r="J61" s="46"/>
       <c r="K61" s="47"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B66" s="37"/>
     </row>
-    <row r="67" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="45" t="s">
         <v>3638</v>
       </c>
@@ -16487,7 +16487,7 @@
       <c r="J67" s="46"/>
       <c r="K67" s="47"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>326</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>327</v>
       </c>
@@ -16522,7 +16522,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>328</v>
       </c>
@@ -16543,7 +16543,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>329</v>
       </c>
@@ -16564,7 +16564,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>330</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>331</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>332</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>333</v>
       </c>
@@ -16621,7 +16621,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>334</v>
       </c>
@@ -16636,7 +16636,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>335</v>
       </c>
@@ -16651,7 +16651,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>336</v>
       </c>
@@ -16666,7 +16666,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>337</v>
       </c>
@@ -16681,7 +16681,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>338</v>
       </c>
@@ -16696,7 +16696,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>339</v>
       </c>
@@ -16711,7 +16711,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>340</v>
       </c>
@@ -16726,7 +16726,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>341</v>
       </c>
@@ -16741,7 +16741,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>342</v>
       </c>
@@ -16756,7 +16756,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>343</v>
       </c>
@@ -16771,7 +16771,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>344</v>
       </c>
@@ -16786,7 +16786,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>345</v>
       </c>
@@ -16800,18 +16800,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" s="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>4150</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>43</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -16843,7 +16843,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>51</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>281</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>4157</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>4146</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>4147</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>4148</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>1823612693</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>4149</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>284</v>
       </c>
@@ -16912,12 +16912,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>3634</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>29</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>33</v>
       </c>
@@ -16957,7 +16957,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>34</v>
       </c>
@@ -16980,7 +16980,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>35</v>
       </c>
@@ -17003,7 +17003,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>38</v>
       </c>
@@ -17026,7 +17026,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>36</v>
       </c>
@@ -17049,7 +17049,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>39</v>
       </c>
@@ -17072,7 +17072,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>40</v>
       </c>
@@ -17087,7 +17087,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>292</v>
       </c>
@@ -17102,7 +17102,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>293</v>
       </c>
@@ -17117,7 +17117,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>294</v>
       </c>
@@ -17132,7 +17132,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>295</v>
       </c>
@@ -17147,7 +17147,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>296</v>
       </c>
@@ -17162,7 +17162,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>297</v>
       </c>
@@ -17177,7 +17177,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>298</v>
       </c>
@@ -17192,7 +17192,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>299</v>
       </c>
@@ -17207,7 +17207,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>300</v>
       </c>
@@ -17222,7 +17222,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>301</v>
       </c>
@@ -17237,7 +17237,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>302</v>
       </c>
@@ -17252,7 +17252,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="45" t="s">
         <v>3635</v>
       </c>
@@ -17284,18 +17284,18 @@
       <c r="J121" s="46"/>
       <c r="K121" s="47"/>
     </row>
-    <row r="122" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B123" s="37"/>
     </row>
-    <row r="124" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="45" t="s">
         <v>3636</v>
       </c>
@@ -17310,7 +17310,7 @@
       <c r="J124" s="46"/>
       <c r="K124" s="47"/>
     </row>
-    <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>346</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>347</v>
       </c>
@@ -17345,7 +17345,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>348</v>
       </c>
@@ -17366,7 +17366,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>349</v>
       </c>
@@ -17387,7 +17387,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>350</v>
       </c>
@@ -17408,7 +17408,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>351</v>
       </c>
@@ -17429,7 +17429,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>352</v>
       </c>
@@ -17450,7 +17450,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>353</v>
       </c>
@@ -17465,7 +17465,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>354</v>
       </c>
@@ -17480,7 +17480,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>355</v>
       </c>
@@ -17495,7 +17495,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>356</v>
       </c>
@@ -17510,7 +17510,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>357</v>
       </c>
@@ -17525,7 +17525,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>358</v>
       </c>
@@ -17540,7 +17540,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>359</v>
       </c>
@@ -17555,7 +17555,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>360</v>
       </c>
@@ -17570,7 +17570,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>361</v>
       </c>
@@ -17585,7 +17585,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
@@ -17600,7 +17600,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>363</v>
       </c>
@@ -17615,7 +17615,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>364</v>
       </c>
@@ -17630,7 +17630,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>365</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="45" t="s">
         <v>3637</v>
       </c>
@@ -17659,33 +17659,33 @@
       <c r="J145" s="46"/>
       <c r="K145" s="47"/>
     </row>
-    <row r="146" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="146" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="147" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="148" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="149" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="150" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B150" s="37"/>
     </row>
-    <row r="151" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="45" t="s">
         <v>3638</v>
       </c>
@@ -17700,7 +17700,7 @@
       <c r="J151" s="46"/>
       <c r="K151" s="47"/>
     </row>
-    <row r="152" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="152" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>326</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="153" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>327</v>
       </c>
@@ -17735,7 +17735,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="154" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>328</v>
       </c>
@@ -17756,7 +17756,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="155" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>329</v>
       </c>
@@ -17777,7 +17777,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="156" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>330</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="157" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>331</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="158" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>332</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="159" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>333</v>
       </c>
@@ -17834,7 +17834,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="160" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>334</v>
       </c>
@@ -17849,7 +17849,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="161" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>335</v>
       </c>
@@ -17864,7 +17864,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="162" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>336</v>
       </c>
@@ -17879,7 +17879,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="163" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>337</v>
       </c>
@@ -17894,7 +17894,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="164" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>338</v>
       </c>
@@ -17909,7 +17909,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="165" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>339</v>
       </c>
@@ -17924,7 +17924,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="166" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>340</v>
       </c>
@@ -17939,7 +17939,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="167" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>341</v>
       </c>
@@ -17954,7 +17954,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="168" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>342</v>
       </c>
@@ -17969,7 +17969,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="169" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>343</v>
       </c>
@@ -17984,7 +17984,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="170" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>344</v>
       </c>
@@ -17999,7 +17999,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="171" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>345</v>
       </c>
@@ -18013,15 +18013,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="172" s="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
     </row>
-    <row r="174" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="174" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
         <v>4151</v>
       </c>
     </row>
-    <row r="175" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="175" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>43</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>SMPLPR</v>
       </c>
     </row>
-    <row r="176" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="176" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>100</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="177" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>284</v>
       </c>
@@ -18046,12 +18046,12 @@
         <v>4159</v>
       </c>
     </row>
-    <row r="180" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="180" s="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>4155</v>
       </c>
     </row>
-    <row r="181" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="181" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>43</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>ENTR</v>
       </c>
     </row>
-    <row r="182" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="182" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>100</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="183" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="183" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>45</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="184" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="184" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>51</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="185" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>281</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="186" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>4146</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="187" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="187" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>4147</v>
       </c>
@@ -18109,12 +18109,12 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="188" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="188" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>4152</v>
       </c>
     </row>
-    <row r="189" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="189" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>4153</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="190" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="190" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>284</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="191" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="191" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -18138,17 +18138,17 @@
         <v>500</v>
       </c>
     </row>
-    <row r="192" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="192" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>4154</v>
       </c>
     </row>
-    <row r="193" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="193" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="48" t="s">
         <v>3634</v>
       </c>
     </row>
-    <row r="194" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="194" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="31" t="s">
         <v>29</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="195" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="31" t="s">
         <v>33</v>
       </c>
@@ -18188,7 +18188,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="196" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="31" t="s">
         <v>34</v>
       </c>
@@ -18211,7 +18211,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="197" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="31" t="s">
         <v>35</v>
       </c>
@@ -18234,7 +18234,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="198" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="31" t="s">
         <v>38</v>
       </c>
@@ -18257,7 +18257,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="199" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="31" t="s">
         <v>36</v>
       </c>
@@ -18280,7 +18280,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="200" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="31" t="s">
         <v>39</v>
       </c>
@@ -18303,7 +18303,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="201" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>40</v>
       </c>
@@ -18318,7 +18318,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="202" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>292</v>
       </c>
@@ -18333,7 +18333,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="203" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>293</v>
       </c>
@@ -18348,7 +18348,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="204" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>294</v>
       </c>
@@ -18363,7 +18363,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="205" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>295</v>
       </c>
@@ -18378,7 +18378,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="206" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>296</v>
       </c>
@@ -18393,7 +18393,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="207" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>297</v>
       </c>
@@ -18408,7 +18408,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="208" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>298</v>
       </c>
@@ -18423,7 +18423,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="209" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>299</v>
       </c>
@@ -18438,7 +18438,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="210" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>300</v>
       </c>
@@ -18453,7 +18453,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="211" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>301</v>
       </c>
@@ -18468,7 +18468,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="212" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>302</v>
       </c>
@@ -18483,7 +18483,7 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="213" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>41</v>
       </c>
@@ -18500,28 +18500,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="214" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="48" t="s">
         <v>3635</v>
       </c>
     </row>
-    <row r="215" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="215" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="216" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="216" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B216" s="37"/>
     </row>
-    <row r="217" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="217" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="48" t="s">
         <v>3636</v>
       </c>
     </row>
-    <row r="218" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="218" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>346</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="219" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="219" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>347</v>
       </c>
@@ -18556,7 +18556,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="220" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>348</v>
       </c>
@@ -18577,7 +18577,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="221" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>349</v>
       </c>
@@ -18598,7 +18598,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="222" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>350</v>
       </c>
@@ -18619,7 +18619,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="223" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>351</v>
       </c>
@@ -18640,7 +18640,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="224" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>352</v>
       </c>
@@ -18661,7 +18661,7 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="225" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>353</v>
       </c>
@@ -18676,7 +18676,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="226" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>354</v>
       </c>
@@ -18691,7 +18691,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="227" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>355</v>
       </c>
@@ -18706,7 +18706,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="228" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>356</v>
       </c>
@@ -18721,7 +18721,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="229" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>357</v>
       </c>
@@ -18736,7 +18736,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="230" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>358</v>
       </c>
@@ -18751,7 +18751,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="231" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>359</v>
       </c>
@@ -18766,7 +18766,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="232" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>360</v>
       </c>
@@ -18781,7 +18781,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="233" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>361</v>
       </c>
@@ -18796,7 +18796,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="234" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>362</v>
       </c>
@@ -18811,7 +18811,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="235" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>363</v>
       </c>
@@ -18826,7 +18826,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="236" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>364</v>
       </c>
@@ -18841,7 +18841,7 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="237" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>365</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="238" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="45" t="s">
         <v>3637</v>
       </c>
@@ -18870,27 +18870,27 @@
       <c r="J238" s="46"/>
       <c r="K238" s="47"/>
     </row>
-    <row r="239" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="239" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="240" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="240" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="241" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="241" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="242" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="242" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="243" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="243" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>290</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>25569</v>
       </c>
     </row>
-    <row r="244" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="244" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="45" t="s">
         <v>3638</v>
       </c>
@@ -18913,7 +18913,7 @@
       <c r="J244" s="46"/>
       <c r="K244" s="47"/>
     </row>
-    <row r="245" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="245" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>326</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="246" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="246" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>327</v>
       </c>
@@ -18948,7 +18948,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="247" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>328</v>
       </c>
@@ -18969,7 +18969,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="248" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>329</v>
       </c>
@@ -18990,7 +18990,7 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="249" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>330</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="250" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="250" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>331</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="251" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="251" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>332</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="252" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="252" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>333</v>
       </c>
@@ -19047,7 +19047,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="253" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>334</v>
       </c>
@@ -19062,7 +19062,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="254" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>335</v>
       </c>
@@ -19077,7 +19077,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="255" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>336</v>
       </c>
@@ -19092,7 +19092,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="256" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>337</v>
       </c>
@@ -19107,7 +19107,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="257" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>338</v>
       </c>
@@ -19122,7 +19122,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="258" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>339</v>
       </c>
@@ -19137,7 +19137,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="259" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>340</v>
       </c>
@@ -19152,7 +19152,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="260" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>341</v>
       </c>
@@ -19167,7 +19167,7 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="261" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>342</v>
       </c>
@@ -19182,7 +19182,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="262" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>343</v>
       </c>
@@ -19197,7 +19197,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="263" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>344</v>
       </c>
@@ -19212,7 +19212,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="264" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>345</v>
       </c>
@@ -19249,68 +19249,68 @@
     <mergeCell ref="A61:XFD61"/>
   </mergeCells>
   <conditionalFormatting sqref="B198:B199">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule dxfId="67" priority="1" type="expression">
       <formula>B$4="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:K8 F11:K11 B93:E93 B184">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:K8 F11:K11 B93:E93 B184" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B87:K88 B36:K36 B60:K60 B171:K172 B120:K120 B144:K144 B264:K264 B213:K213 B237:K237">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B87:K88 B36:K36 B60:K60 B171:K172 B120:K120 B144:K144 B264:K264 B213:K213 B237:K237" type="list">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:K6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:K6" type="list">
       <formula1>"Contract, Permanent"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B191">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15 B191" type="whole">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B92:E92 B182 B176">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4 B92:E92 B182 B176" type="list">
       <formula1>ListJobProfession</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B183">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5 B183" type="list">
       <formula1>ListJobPosition</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B96:E96 B187">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11 B96:E96 B187" type="list">
       <formula1>ListIndustryType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B192">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B192" type="list">
       <formula1>"Domestic Investment, Foreign Investment"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B199">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B199" type="custom">
       <formula1>B170="Input Data"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B198">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B198" type="custom">
       <formula1>B170="Input Data"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$29</xm:f>
           </x14:formula1>
           <xm:sqref>F5:K5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$A$2:$A$195</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$129</xm:f>
           </x14:formula1>
           <xm:sqref>C5:E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AW$2:$AW$515</xm:f>
           </x14:formula1>
@@ -19323,8 +19323,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -19332,14 +19332,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -19356,13 +19356,13 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>366</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>59</v>
       </c>
@@ -19385,7 +19385,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>63</v>
       </c>
@@ -19408,7 +19408,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -19421,22 +19421,22 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:K3">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F3:K3" type="list">
       <formula1>"AKTA, CAT CAT, CAT IS A CAT, DESCRIPTION FOR AAA, DESCRIPTION FOR ASA, DESCRIPTION FOR KTP, E-KTP, KITAS, NPWP, SIM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:E5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:E5" type="list">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
       <formula1>ListCusRel</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$H$2:$H$113</xm:f>
           </x14:formula1>
@@ -19449,8 +19449,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -19458,12 +19458,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>3639</v>
       </c>
@@ -19495,7 +19495,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="47"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>66</v>
       </c>
@@ -19518,7 +19518,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
@@ -19541,7 +19541,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -19564,7 +19564,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -19587,7 +19587,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -19610,7 +19610,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>378</v>
       </c>
@@ -19633,7 +19633,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>3640</v>
       </c>
@@ -19648,7 +19648,7 @@
       <c r="J9" s="46"/>
       <c r="K9" s="47"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -19671,7 +19671,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>3641</v>
       </c>
@@ -19686,7 +19686,7 @@
       <c r="J11" s="46"/>
       <c r="K11" s="47"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>75</v>
       </c>
@@ -19713,7 +19713,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>727</v>
       </c>
@@ -19736,7 +19736,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>77</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>79</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>81</v>
       </c>
@@ -19793,7 +19793,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>728</v>
       </c>
@@ -19845,39 +19845,39 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:K19 B17:F18">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G17:K19 B17:F18" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:K5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:K5" type="list">
       <formula1>"Business, Online Shop, Salary, Stock Trading"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B3:B4" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+27</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:B7" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+22</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+23</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
       <formula1>ListBank</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$J$2:$J$305</xm:f>
           </x14:formula1>
@@ -19890,8 +19890,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -19899,11 +19899,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>86</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>90</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>91</v>
       </c>
@@ -19980,21 +19980,21 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:E2" type="list">
       <formula1>"Mobil, Motor, Rumah"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:E5" type="whole">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
@@ -20002,12 +20002,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="14.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="15.0" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" style="7" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>3642</v>
       </c>
@@ -20033,7 +20033,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="47"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>92</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>07</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>729</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>97</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>730</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>1466</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>e2955</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="105" r="8" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>731</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>1467</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>e3822</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="105" r="10" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>732</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>3643</v>
       </c>
@@ -20194,7 +20194,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="47"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1648</v>
       </c>
@@ -20205,7 +20205,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>1649</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="14" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>1650</v>
       </c>
@@ -20237,7 +20237,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1651</v>
       </c>
@@ -20248,7 +20248,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1652</v>
       </c>
@@ -20259,7 +20259,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>1656</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>1653</v>
       </c>
@@ -20291,7 +20291,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>1655</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>1654</v>
       </c>
@@ -20323,7 +20323,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>1658</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="22" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>1657</v>
       </c>
@@ -20355,7 +20355,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="23" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>1659</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="24" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>1660</v>
       </c>
@@ -20387,7 +20387,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>1661</v>
       </c>
@@ -20398,7 +20398,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>1662</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1663</v>
       </c>
@@ -20428,7 +20428,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>98</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>1664</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>BISNIS_SENDIRI</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>1665</v>
       </c>
@@ -20483,7 +20483,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>1666</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>1667</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>FAMILY</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1668</v>
       </c>
@@ -20544,121 +20544,121 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:E16 C12:E12 C25:E25">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C15:E16 C12:E12 C25:E25" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B15:B16 B25">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B12 B15:B16 B25" type="list">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
       <formula1>ListDebtGroup</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
       <formula1>ListDebtorBusinessScale</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
       <formula1>ListCounterpart</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
       <formula1>ListSusFinBus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14" type="list">
       <formula1>ListDebtGroupSLIK</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18" type="list">
       <formula1>ListAfWiMult</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
       <formula1>ListDeptAML</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
       <formula1>ListCSPUSL</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
       <formula1>ListPaymentTypeAML</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
       <formula1>ListAuthorityAML</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
       <formula1>ListBusinessSource</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B33" type="list">
       <formula1>ListBuilding</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AT$2:$AT$109</xm:f>
           </x14:formula1>
           <xm:sqref>C33:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$M$2:$M$629</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$P$2:$P$107</xm:f>
           </x14:formula1>
           <xm:sqref>C6:E6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$S$2:$S$349</xm:f>
           </x14:formula1>
           <xm:sqref>C8:E8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$V$2:$V$115</xm:f>
           </x14:formula1>
           <xm:sqref>C10:E10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$Y$2:$Y$385</xm:f>
           </x14:formula1>
           <xm:sqref>C14:E14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AB$2:$AB$117</xm:f>
           </x14:formula1>
           <xm:sqref>C18:E18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AE$2:$AE$983</xm:f>
           </x14:formula1>
           <xm:sqref>C20:E20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AH$2:$AH$111</xm:f>
           </x14:formula1>
           <xm:sqref>C22:E22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AK$2:$AK$104</xm:f>
           </x14:formula1>
           <xm:sqref>C24:E24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AN$2:$AN$111</xm:f>
           </x14:formula1>
           <xm:sqref>C27:E27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AQ$2:$AQ$102</xm:f>
           </x14:formula1>
@@ -20671,8 +20671,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB882"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DC882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E30"/>
@@ -20680,46 +20680,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.28515625" style="43" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30" style="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.85546875" style="19" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="33.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="255.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="80.140625" style="22" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="80.7109375" style="23" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="21.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="79.85546875" style="23" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="8.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="89" style="17" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="25.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23" style="17" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="25.140625" style="17" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="31.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="12.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="17.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="9.140625" style="17" collapsed="1"/>
-    <col min="49" max="49" width="97.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="22.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="15" width="42.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="43" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="17" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="17" width="23.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="17" width="35.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="19" width="18.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="29.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="17" width="22.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="17" width="33.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="17" width="20.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="17" width="255.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="17" width="12.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="22" width="80.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="17" width="12.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="23" width="80.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="20" width="21.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="23" width="79.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="20" width="8.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="17" width="89.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="17" width="25.5703125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="17" width="23.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="20" width="28.5703125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="17" width="25.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="17" width="31.140625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="17" width="12.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="17" width="17.42578125" collapsed="true"/>
+    <col min="48" max="48" style="17" width="9.140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="17" width="97.7109375" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="17" width="22.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>3361</v>
       </c>
@@ -21604,7 +21604,7 @@
         <v>4137</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>116</v>
       </c>
@@ -21683,7 +21683,7 @@
         <v>4138</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>120</v>
       </c>
@@ -25115,7 +25115,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>248</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>250</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="90" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>272</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="91" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="91" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>273</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="103" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="103" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J103" s="18" t="s">
         <v>488</v>
       </c>
@@ -26436,7 +26436,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row r="104" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="104" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J104" s="18" t="s">
         <v>389</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="109" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="109" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J109" s="18" t="s">
         <v>409</v>
       </c>
@@ -26920,7 +26920,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="115" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="115" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J115" s="18" t="s">
         <v>508</v>
       </c>
@@ -26964,7 +26964,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="116" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="116" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J116" s="18" t="s">
         <v>510</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="138" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="138" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J138" s="18" t="s">
         <v>549</v>
       </c>
@@ -28528,7 +28528,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row r="152" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="152" spans="10:54" x14ac:dyDescent="0.25">
       <c r="K152" s="20"/>
       <c r="M152" s="18" t="s">
         <v>883</v>
@@ -28567,7 +28567,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="153" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="153" spans="10:54" x14ac:dyDescent="0.25">
       <c r="K153" s="20"/>
       <c r="M153" s="18" t="s">
         <v>884</v>
@@ -35423,8 +35423,8 @@
       <c r="AF882" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="19">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4WFINAL\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="2" tabRatio="644" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="644" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1.CustomerDetail" r:id="rId1" sheetId="1"/>
-    <sheet name="2.AddressInformation" r:id="rId2" sheetId="2"/>
-    <sheet name="3.JobData" r:id="rId3" sheetId="3"/>
-    <sheet name="4.EmergencyContact" r:id="rId4" sheetId="4"/>
-    <sheet name="5.FinancialData" r:id="rId5" sheetId="5"/>
-    <sheet name="6.CustomerAsset" r:id="rId6" sheetId="6"/>
-    <sheet name="7.OtherAttribute" r:id="rId7" sheetId="7"/>
-    <sheet name="Master" r:id="rId8" sheetId="8"/>
+    <sheet name="1.CustomerDetail" sheetId="1" r:id="rId1"/>
+    <sheet name="2.AddressInformation" sheetId="2" r:id="rId2"/>
+    <sheet name="3.JobData" sheetId="3" r:id="rId3"/>
+    <sheet name="4.EmergencyContact" sheetId="4" r:id="rId4"/>
+    <sheet name="5.FinancialData" sheetId="5" r:id="rId5"/>
+    <sheet name="6.CustomerAsset" sheetId="6" r:id="rId6"/>
+    <sheet name="7.OtherAttribute" sheetId="7" r:id="rId7"/>
+    <sheet name="Master" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_1">Master!$A$1:$B$95</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_10">Master!$AB$1:$AC$16</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_11">Master!$AE$1:$AF$492</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_12">Master!$AH$1:$AI$10</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_13">Master!$AK$1:$AL$3</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_14">Master!$AN$1:$AO$9</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_15">Master!$AQ$1:$AR$2</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_16">Master!$AT$1:$AU$8</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_17">Master!$AW$1:$AX$263</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_18">Master!$BA$1:$BB$242</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_19">Master!$BE$1:$BE$10</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_2">Master!$E$1:$E$30</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_3">Master!$H$1:$H$14</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_4">Master!$J$1:$K$147</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_5">Master!$M$1:$N$315</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_6">Master!$P$1:$Q$6</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_7">Master!$S$1:$T$175</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_8">Master!$V$1:$W$14</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_9">Master!$Y$1:$Z$193</definedName>
+    <definedName name="ExternalData_1" localSheetId="7" hidden="1">Master!$A$1:$B$95</definedName>
+    <definedName name="ExternalData_10" localSheetId="7" hidden="1">Master!$AB$1:$AC$16</definedName>
+    <definedName name="ExternalData_11" localSheetId="7" hidden="1">Master!$AE$1:$AF$492</definedName>
+    <definedName name="ExternalData_12" localSheetId="7" hidden="1">Master!$AH$1:$AI$10</definedName>
+    <definedName name="ExternalData_13" localSheetId="7" hidden="1">Master!$AK$1:$AL$3</definedName>
+    <definedName name="ExternalData_14" localSheetId="7" hidden="1">Master!$AN$1:$AO$9</definedName>
+    <definedName name="ExternalData_15" localSheetId="7" hidden="1">Master!$AQ$1:$AR$2</definedName>
+    <definedName name="ExternalData_16" localSheetId="7" hidden="1">Master!$AT$1:$AU$8</definedName>
+    <definedName name="ExternalData_17" localSheetId="7" hidden="1">Master!$AW$1:$AX$263</definedName>
+    <definedName name="ExternalData_18" localSheetId="7" hidden="1">Master!$BA$1:$BB$242</definedName>
+    <definedName name="ExternalData_19" localSheetId="7" hidden="1">Master!$BE$1:$BE$10</definedName>
+    <definedName name="ExternalData_2" localSheetId="7" hidden="1">Master!$E$1:$E$30</definedName>
+    <definedName name="ExternalData_3" localSheetId="7" hidden="1">Master!$H$1:$H$14</definedName>
+    <definedName name="ExternalData_4" localSheetId="7" hidden="1">Master!$J$1:$K$147</definedName>
+    <definedName name="ExternalData_5" localSheetId="7" hidden="1">Master!$M$1:$N$315</definedName>
+    <definedName name="ExternalData_6" localSheetId="7" hidden="1">Master!$P$1:$Q$6</definedName>
+    <definedName name="ExternalData_7" localSheetId="7" hidden="1">Master!$S$1:$T$175</definedName>
+    <definedName name="ExternalData_8" localSheetId="7" hidden="1">Master!$V$1:$W$14</definedName>
+    <definedName name="ExternalData_9" localSheetId="7" hidden="1">Master!$Y$1:$Z$193</definedName>
     <definedName name="ListAfWiMult">Master!$AB$2:INDEX(Master!$AB:$AB,SUMPRODUCT(--(Master!$AB:$AB&lt;&gt;"")))</definedName>
     <definedName name="ListAuthorityAML">Master!$AN$2:INDEX(Master!$AN:$AN,SUMPRODUCT(--(Master!$AN:$AN&lt;&gt;"")))</definedName>
     <definedName name="ListBank">Master!$J$2:INDEX(Master!$J:$J,SUMPRODUCT(--(Master!$J:$J&lt;&gt;"")))</definedName>
@@ -62,7 +62,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -75,7 +75,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A16" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A19" shapeId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A13" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A39" shapeId="0">
+    <comment ref="A39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A66" shapeId="0">
+    <comment ref="A66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A123" shapeId="0">
+    <comment ref="A123" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A150" shapeId="0">
+    <comment ref="A150" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A216" shapeId="0">
+    <comment ref="A216" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A243" shapeId="0">
+    <comment ref="A243" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +345,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A8" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A28" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A31" shapeId="0">
+    <comment ref="A31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="4174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="4174">
   <si>
     <t>Full Name</t>
   </si>
@@ -13167,99 +13167,99 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="71">
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -13278,7 +13278,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13287,7 +13287,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13312,7 +13312,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13321,7 +13321,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13352,17 +13352,17 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="top" wrapText="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13387,24 +13387,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13413,7 +13413,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13422,10 +13422,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13434,7 +13434,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13459,7 +13459,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13468,7 +13468,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13493,7 +13493,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13502,7 +13502,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13527,24 +13527,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13553,7 +13553,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13562,27 +13562,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13591,7 +13591,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13600,27 +13600,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13629,20 +13629,20 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13651,7 +13651,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13668,7 +13668,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13677,7 +13677,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13686,7 +13686,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13703,7 +13703,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13712,7 +13712,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13721,7 +13721,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13738,7 +13738,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13747,7 +13747,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13756,7 +13756,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13781,7 +13781,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13798,7 +13798,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13815,24 +13815,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13841,7 +13841,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13850,7 +13850,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13881,7 +13881,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFFF9966"/>
@@ -14105,208 +14105,208 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="65" displayName="Query_Job_Profession" headerRowDxfId="66" id="1" insertRowShift="1" name="Query_Job_Profession" ref="A1:B95" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Query_Job_Profession" displayName="Query_Job_Profession" ref="A1:B95" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:B95"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="64" id="1" name="JOB PROFESSION NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="63" id="2" name="JOB POSITION CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="JOB PROFESSION NAME" queryTableFieldId="1" dataDxfId="64"/>
+    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="63"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="33" displayName="Query_Affiliate_with_Multifinance" headerRowDxfId="34" id="10" insertRowShift="1" name="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Query_Affiliate_with_Multifinance" displayName="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="AB1:AC16"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="32" id="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="31" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" dataDxfId="32"/>
+    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="31"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="29" displayName="Query_Department_AML" headerRowDxfId="30" id="11" insertRowShift="1" name="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Query_Department_AML" displayName="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="AE1:AF492"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="28" id="1" name="DEPARTMENT AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="27" id="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="2" uniqueName="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="27"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="25" displayName="Query_csp_usl_source_aml" headerRowDxfId="26" id="12" insertRowShift="1" name="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Query_csp_usl_source_aml" displayName="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="AH1:AI10"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="24" id="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="23" id="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" uniqueName="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" dataDxfId="23"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="21" displayName="Query_payment_type_aml" headerRowDxfId="22" id="13" insertRowShift="1" name="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Query_payment_type_aml" displayName="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="AK1:AL3"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="20" id="1" name="PAYMENT TYPE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="19" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="PAYMENT TYPE AML" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="19"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="17" displayName="Query_authority_aml" headerRowDxfId="18" id="14" insertRowShift="1" name="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Query_authority_aml" displayName="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="AN1:AO9"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="16" id="1" name="AUTHORITY AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="15" id="2" name="AUTHORITY AML2" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" uniqueName="2" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="15"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="13" displayName="Query_Business_Source" headerRowDxfId="14" id="15" insertRowShift="1" name="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Query_Business_Source" displayName="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="AQ1:AR2"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="12" id="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="11" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="9" displayName="query_building" headerRowDxfId="10" id="16" insertRowShift="1" name="query_building" ref="AT1:AU8" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="query_building" displayName="query_building" ref="AT1:AU8" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="AT1:AU8"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="8" id="1" name="BUILDING" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="7" id="2" name="BUILDING CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="BUILDING" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" uniqueName="2" name="BUILDING CODE" queryTableFieldId="2" dataDxfId="7"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="5" displayName="Query_Industry_Type" headerRowDxfId="6" id="17" insertRowShift="1" name="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Query_Industry_Type" displayName="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="AW1:AX263"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="4" id="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="3" id="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" uniqueName="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Country" headerRowDxfId="2" id="18" name="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Query_Country" displayName="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="BA1:BB242"/>
   <tableColumns count="2">
-    <tableColumn id="5" name="COUNTRY NAME" queryTableFieldId="1" uniqueName="5"/>
-    <tableColumn id="6" name="COUNTRY CODE" queryTableFieldId="2" uniqueName="6"/>
+    <tableColumn id="5" uniqueName="5" name="COUNTRY NAME" queryTableFieldId="1"/>
+    <tableColumn id="6" uniqueName="6" name="COUNTRY CODE" queryTableFieldId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Copy_Address_From" headerRowDxfId="1" id="19" name="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Copy_Address_From" displayName="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="BE1:BE10"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="0" id="3" name="Copy Address" queryTableFieldId="1" uniqueName="3"/>
+    <tableColumn id="3" uniqueName="3" name="Copy Address" queryTableFieldId="1" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Job_Position" headerRowDxfId="62" id="2" name="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Query_Job_Position" displayName="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="E1:E30"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="61" id="1" name="JOB POSITION NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn id="1" uniqueName="1" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="61"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Customer_Relationship" headerRowDxfId="60" id="3" name="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Query_Customer_Relationship" displayName="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="60">
   <autoFilter ref="H1:H14"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="59" id="1" name="Customer Relationship" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn id="1" uniqueName="1" name="Customer Relationship" queryTableFieldId="1" dataDxfId="59"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="57" displayName="Query_Bank" headerRowDxfId="58" id="4" insertRowShift="1" name="Query_Bank" ref="J1:K147" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Query_Bank" displayName="Query_Bank" ref="J1:K147" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="J1:K147"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="56" id="1" name="BANK NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="55" id="2" name="BANK CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="BANK NAME" queryTableFieldId="1" dataDxfId="56"/>
+    <tableColumn id="2" uniqueName="2" name="BANK CODE" queryTableFieldId="2" dataDxfId="55"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="53" displayName="Query_Debtor_Group" headerRowDxfId="54" id="5" insertRowShift="1" name="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Query_Debtor_Group" displayName="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="M1:N315"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="52" id="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="51" id="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" dataDxfId="52"/>
+    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" dataDxfId="51"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="49" displayName="Query_Debtor_Business_Scale" headerRowDxfId="50" id="6" insertRowShift="1" name="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Query_Debtor_Business_Scale" displayName="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="P1:Q6"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="48" id="1" name="Debtor Business Scale Description" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="47" id="2" name="Debtor Group Code" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="Debtor Business Scale Description" queryTableFieldId="1" dataDxfId="48"/>
+    <tableColumn id="2" uniqueName="2" name="Debtor Group Code" queryTableFieldId="2" dataDxfId="47"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="45" displayName="Query_Counterpart" headerRowDxfId="46" id="7" insertRowShift="1" name="Query_Counterpart" ref="S1:T175" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Query_Counterpart" displayName="Query_Counterpart" ref="S1:T175" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="S1:T175"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="44" id="1" name="Counterpart Category" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="43" id="2" name="LBPP CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="Counterpart Category" queryTableFieldId="1" dataDxfId="44"/>
+    <tableColumn id="2" uniqueName="2" name="LBPP CODE" queryTableFieldId="2" dataDxfId="43"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="41" displayName="Query_Sustainable_Financial" headerRowDxfId="42" id="8" insertRowShift="1" name="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Query_Sustainable_Financial" displayName="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="V1:W14"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="40" id="1" name="Sustainable Financial Business" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="39" id="2" name="LBPP Code" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="Sustainable Financial Business" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="2" uniqueName="2" name="LBPP Code" queryTableFieldId="2" dataDxfId="39"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="37" displayName="Query_debtor_group_slik" headerRowDxfId="38" id="9" insertRowShift="1" name="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Query_debtor_group_slik" displayName="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="Y1:Z193"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="36" id="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="35" id="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" dataDxfId="36"/>
+    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" dataDxfId="35"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -14315,10 +14315,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14353,7 +14353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -14388,7 +14388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -14482,21 +14482,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -14513,7 +14513,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -14565,15 +14565,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -14581,13 +14581,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14621,12 +14621,12 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -14641,7 +14641,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -14656,7 +14656,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -14671,7 +14671,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -14722,12 +14722,12 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
@@ -14744,17 +14744,17 @@
         <v>15</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>18</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>3645</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>COUNTRY001</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>20</v>
       </c>
@@ -14815,7 +14815,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>21</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>23</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>24</v>
       </c>
@@ -14872,62 +14872,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD16">
-    <cfRule dxfId="70" priority="2" type="expression">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>AND(A$14&lt;&gt;"Foreigner",A$14&lt;&gt;"",A$14&lt;&gt;"Nationality")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD19">
-    <cfRule dxfId="69" priority="1" type="expression">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>A$8="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F18:K18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:K18">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:K17" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:K17">
       <formula1>"S1, S2, S3, SD, SMP, SMA"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B10:K10"/>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B7:K9" type="list">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B10:K10"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:K9">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F14:K14" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:K14">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F11:K11" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F11:K11">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:E14" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E14">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11:E11" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:E11">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="custom">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15">
       <formula1>B$14="Foreigner"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19:E19" type="custom">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19">
       <formula1>B$8="Yes"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B5" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>IF(B$14="Foreigner",ListCountry)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18:E18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:E18">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu, AGNOSTIK"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>IF(C$14="Foreigner",Master!$BA$2:$BA$342)</xm:f>
           </x14:formula1>
@@ -14940,20 +14940,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>26</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -15004,7 +15004,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
@@ -15027,7 +15027,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>33</v>
       </c>
@@ -15050,7 +15050,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>34</v>
       </c>
@@ -15073,7 +15073,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>35</v>
       </c>
@@ -15096,7 +15096,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>38</v>
       </c>
@@ -15119,7 +15119,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>36</v>
       </c>
@@ -15142,7 +15142,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>39</v>
       </c>
@@ -15165,7 +15165,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>292</v>
       </c>
@@ -15180,7 +15180,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>293</v>
       </c>
@@ -15195,7 +15195,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>294</v>
       </c>
@@ -15210,7 +15210,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>295</v>
       </c>
@@ -15225,7 +15225,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>296</v>
       </c>
@@ -15240,7 +15240,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>297</v>
       </c>
@@ -15255,7 +15255,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>298</v>
       </c>
@@ -15270,7 +15270,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>299</v>
       </c>
@@ -15285,7 +15285,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>300</v>
       </c>
@@ -15300,7 +15300,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>301</v>
       </c>
@@ -15315,7 +15315,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>302</v>
       </c>
@@ -15330,7 +15330,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>41</v>
       </c>
@@ -15349,36 +15349,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:XFD10">
-    <cfRule dxfId="68" priority="1" type="expression">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>AND(A$3&lt;&gt;"",A$3&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B22:K22" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22:K22">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B2:K2" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:K2">
       <formula1>"Legal, Mailing, Residence, Residence 2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I3:K3" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:K3">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B10" type="custom">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
       <formula1>ISBLANK(B$3)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$110</xm:f>
           </x14:formula1>
           <xm:sqref>C3:H3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$20</xm:f>
           </x14:formula1>
@@ -15391,20 +15391,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L264"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K264"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>3633</v>
       </c>
@@ -15436,7 +15436,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="47"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>43</v>
       </c>
@@ -15463,7 +15463,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>100</v>
       </c>
@@ -15486,7 +15486,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>45</v>
       </c>
@@ -15509,7 +15509,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>48</v>
       </c>
@@ -15526,7 +15526,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>281</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>282</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>283</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>55</v>
       </c>
@@ -15643,7 +15643,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>284</v>
       </c>
@@ -15666,7 +15666,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -15689,7 +15689,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row customFormat="1" r="16" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>3634</v>
       </c>
@@ -15704,7 +15704,7 @@
       <c r="J16" s="46"/>
       <c r="K16" s="47"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>33</v>
       </c>
@@ -15744,7 +15744,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>34</v>
       </c>
@@ -15767,7 +15767,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>35</v>
       </c>
@@ -15790,7 +15790,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>36</v>
       </c>
@@ -15813,7 +15813,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>38</v>
       </c>
@@ -15836,7 +15836,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>39</v>
       </c>
@@ -15859,7 +15859,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -15874,7 +15874,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row customFormat="1" r="25" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>292</v>
       </c>
@@ -15889,7 +15889,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row customFormat="1" r="26" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>293</v>
       </c>
@@ -15904,7 +15904,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row customFormat="1" r="27" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>294</v>
       </c>
@@ -15919,7 +15919,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row customFormat="1" r="28" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>295</v>
       </c>
@@ -15934,7 +15934,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row customFormat="1" r="29" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>296</v>
       </c>
@@ -15949,7 +15949,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row customFormat="1" r="30" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>297</v>
       </c>
@@ -15964,7 +15964,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row customFormat="1" r="31" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>298</v>
       </c>
@@ -15979,7 +15979,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row customFormat="1" r="32" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>299</v>
       </c>
@@ -15994,7 +15994,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row customFormat="1" r="33" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>300</v>
       </c>
@@ -16009,7 +16009,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row customFormat="1" r="34" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>301</v>
       </c>
@@ -16024,7 +16024,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row customFormat="1" r="35" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>302</v>
       </c>
@@ -16039,7 +16039,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row customFormat="1" r="36" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="37" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>3635</v>
       </c>
@@ -16071,18 +16071,18 @@
       <c r="J37" s="46"/>
       <c r="K37" s="47"/>
     </row>
-    <row customFormat="1" r="38" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row customFormat="1" r="39" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B39" s="37"/>
     </row>
-    <row customFormat="1" r="40" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>3636</v>
       </c>
@@ -16097,7 +16097,7 @@
       <c r="J40" s="46"/>
       <c r="K40" s="47"/>
     </row>
-    <row customFormat="1" r="41" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>346</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="42" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>347</v>
       </c>
@@ -16132,7 +16132,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row customFormat="1" r="43" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>348</v>
       </c>
@@ -16153,7 +16153,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row customFormat="1" r="44" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>349</v>
       </c>
@@ -16174,7 +16174,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row customFormat="1" r="45" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>350</v>
       </c>
@@ -16195,7 +16195,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row customFormat="1" r="46" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>351</v>
       </c>
@@ -16216,7 +16216,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row customFormat="1" r="47" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>352</v>
       </c>
@@ -16237,7 +16237,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row customFormat="1" r="48" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>353</v>
       </c>
@@ -16252,7 +16252,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row customFormat="1" r="49" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>354</v>
       </c>
@@ -16267,7 +16267,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row customFormat="1" r="50" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>355</v>
       </c>
@@ -16282,7 +16282,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row customFormat="1" r="51" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>356</v>
       </c>
@@ -16297,7 +16297,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row customFormat="1" r="52" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>357</v>
       </c>
@@ -16312,7 +16312,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row customFormat="1" r="53" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>358</v>
       </c>
@@ -16327,7 +16327,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row customFormat="1" r="54" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>359</v>
       </c>
@@ -16342,7 +16342,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row customFormat="1" r="55" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>360</v>
       </c>
@@ -16357,7 +16357,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row customFormat="1" r="56" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>361</v>
       </c>
@@ -16372,7 +16372,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row customFormat="1" r="57" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>362</v>
       </c>
@@ -16387,7 +16387,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row customFormat="1" r="58" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>363</v>
       </c>
@@ -16402,7 +16402,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row customFormat="1" r="59" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>364</v>
       </c>
@@ -16417,7 +16417,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row customFormat="1" r="60" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>365</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="61" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
         <v>3637</v>
       </c>
@@ -16446,33 +16446,33 @@
       <c r="J61" s="46"/>
       <c r="K61" s="47"/>
     </row>
-    <row customFormat="1" r="62" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row customFormat="1" r="63" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row customFormat="1" r="64" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row customFormat="1" r="65" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row customFormat="1" r="66" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B66" s="37"/>
     </row>
-    <row customFormat="1" r="67" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45" t="s">
         <v>3638</v>
       </c>
@@ -16487,7 +16487,7 @@
       <c r="J67" s="46"/>
       <c r="K67" s="47"/>
     </row>
-    <row customFormat="1" r="68" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>326</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="69" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>327</v>
       </c>
@@ -16522,7 +16522,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row customFormat="1" r="70" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>328</v>
       </c>
@@ -16543,7 +16543,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row customFormat="1" r="71" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>329</v>
       </c>
@@ -16564,7 +16564,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row customFormat="1" r="72" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>330</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="73" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>331</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="74" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>332</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>291</v>
       </c>
     </row>
-    <row customFormat="1" r="75" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>333</v>
       </c>
@@ -16621,7 +16621,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row customFormat="1" r="76" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>334</v>
       </c>
@@ -16636,7 +16636,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row customFormat="1" r="77" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>335</v>
       </c>
@@ -16651,7 +16651,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row customFormat="1" r="78" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>336</v>
       </c>
@@ -16666,7 +16666,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row customFormat="1" r="79" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>337</v>
       </c>
@@ -16681,7 +16681,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row customFormat="1" r="80" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>338</v>
       </c>
@@ -16696,7 +16696,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row customFormat="1" r="81" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>339</v>
       </c>
@@ -16711,7 +16711,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row customFormat="1" r="82" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>340</v>
       </c>
@@ -16726,7 +16726,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row customFormat="1" r="83" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>341</v>
       </c>
@@ -16741,7 +16741,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row customFormat="1" r="84" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>342</v>
       </c>
@@ -16756,7 +16756,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row customFormat="1" r="85" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>343</v>
       </c>
@@ -16771,7 +16771,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row customFormat="1" r="86" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>344</v>
       </c>
@@ -16786,7 +16786,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row customFormat="1" r="87" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>345</v>
       </c>
@@ -16800,18 +16800,18 @@
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="88" s="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
     </row>
-    <row customFormat="1" r="90" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>4150</v>
       </c>
     </row>
-    <row customFormat="1" r="91" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>43</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" r="92" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -16843,7 +16843,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row customFormat="1" r="93" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>51</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="94" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>281</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>4157</v>
       </c>
     </row>
-    <row customFormat="1" r="95" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>4146</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" r="96" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>4147</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row customFormat="1" r="97" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>4148</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>1823612693</v>
       </c>
     </row>
-    <row customFormat="1" r="98" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>4149</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row customFormat="1" r="99" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>284</v>
       </c>
@@ -16912,12 +16912,12 @@
         <v>312</v>
       </c>
     </row>
-    <row customFormat="1" r="100" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>3634</v>
       </c>
     </row>
-    <row customFormat="1" r="101" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>29</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="102" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>33</v>
       </c>
@@ -16957,7 +16957,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row customFormat="1" r="103" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>34</v>
       </c>
@@ -16980,7 +16980,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row customFormat="1" r="104" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>35</v>
       </c>
@@ -17003,7 +17003,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row customFormat="1" r="105" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>38</v>
       </c>
@@ -17026,7 +17026,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row customFormat="1" r="106" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>36</v>
       </c>
@@ -17049,7 +17049,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row customFormat="1" r="107" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>39</v>
       </c>
@@ -17072,7 +17072,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row customFormat="1" r="108" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>40</v>
       </c>
@@ -17087,7 +17087,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row customFormat="1" r="109" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>292</v>
       </c>
@@ -17102,7 +17102,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row customFormat="1" r="110" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>293</v>
       </c>
@@ -17117,7 +17117,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row customFormat="1" r="111" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>294</v>
       </c>
@@ -17132,7 +17132,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row customFormat="1" r="112" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>295</v>
       </c>
@@ -17147,7 +17147,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row customFormat="1" r="113" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>296</v>
       </c>
@@ -17162,7 +17162,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row customFormat="1" r="114" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>297</v>
       </c>
@@ -17177,7 +17177,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row customFormat="1" r="115" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>298</v>
       </c>
@@ -17192,7 +17192,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row customFormat="1" r="116" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>299</v>
       </c>
@@ -17207,7 +17207,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row customFormat="1" r="117" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>300</v>
       </c>
@@ -17222,7 +17222,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row customFormat="1" r="118" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>301</v>
       </c>
@@ -17237,7 +17237,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row customFormat="1" r="119" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>302</v>
       </c>
@@ -17252,7 +17252,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row customFormat="1" r="120" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="121" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="45" t="s">
         <v>3635</v>
       </c>
@@ -17284,18 +17284,18 @@
       <c r="J121" s="46"/>
       <c r="K121" s="47"/>
     </row>
-    <row customFormat="1" r="122" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row customFormat="1" r="123" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B123" s="37"/>
     </row>
-    <row customFormat="1" r="124" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="45" t="s">
         <v>3636</v>
       </c>
@@ -17310,7 +17310,7 @@
       <c r="J124" s="46"/>
       <c r="K124" s="47"/>
     </row>
-    <row customFormat="1" r="125" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>346</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="126" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>347</v>
       </c>
@@ -17345,7 +17345,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row customFormat="1" r="127" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>348</v>
       </c>
@@ -17366,7 +17366,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row customFormat="1" r="128" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>349</v>
       </c>
@@ -17387,7 +17387,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row customFormat="1" r="129" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>350</v>
       </c>
@@ -17408,7 +17408,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row customFormat="1" r="130" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>351</v>
       </c>
@@ -17429,7 +17429,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row customFormat="1" r="131" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>352</v>
       </c>
@@ -17450,7 +17450,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row customFormat="1" r="132" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>353</v>
       </c>
@@ -17465,7 +17465,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row customFormat="1" r="133" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>354</v>
       </c>
@@ -17480,7 +17480,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row customFormat="1" r="134" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>355</v>
       </c>
@@ -17495,7 +17495,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row customFormat="1" r="135" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>356</v>
       </c>
@@ -17510,7 +17510,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row customFormat="1" r="136" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>357</v>
       </c>
@@ -17525,7 +17525,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row customFormat="1" r="137" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>358</v>
       </c>
@@ -17540,7 +17540,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row customFormat="1" r="138" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>359</v>
       </c>
@@ -17555,7 +17555,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row customFormat="1" r="139" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>360</v>
       </c>
@@ -17570,7 +17570,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row customFormat="1" r="140" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>361</v>
       </c>
@@ -17585,7 +17585,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row customFormat="1" r="141" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
@@ -17600,7 +17600,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row customFormat="1" r="142" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>363</v>
       </c>
@@ -17615,7 +17615,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row customFormat="1" r="143" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>364</v>
       </c>
@@ -17630,7 +17630,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row customFormat="1" r="144" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>365</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="145" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="45" t="s">
         <v>3637</v>
       </c>
@@ -17659,33 +17659,33 @@
       <c r="J145" s="46"/>
       <c r="K145" s="47"/>
     </row>
-    <row customFormat="1" r="146" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row customFormat="1" r="147" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row customFormat="1" r="148" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row customFormat="1" r="149" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row customFormat="1" r="150" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B150" s="37"/>
     </row>
-    <row customFormat="1" r="151" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="45" t="s">
         <v>3638</v>
       </c>
@@ -17700,7 +17700,7 @@
       <c r="J151" s="46"/>
       <c r="K151" s="47"/>
     </row>
-    <row customFormat="1" r="152" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>326</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="153" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>327</v>
       </c>
@@ -17735,7 +17735,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row customFormat="1" r="154" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>328</v>
       </c>
@@ -17756,7 +17756,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row customFormat="1" r="155" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>329</v>
       </c>
@@ -17777,7 +17777,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row customFormat="1" r="156" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>330</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="157" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>331</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="158" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>332</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>291</v>
       </c>
     </row>
-    <row customFormat="1" r="159" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>333</v>
       </c>
@@ -17834,7 +17834,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row customFormat="1" r="160" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>334</v>
       </c>
@@ -17849,7 +17849,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row customFormat="1" r="161" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>335</v>
       </c>
@@ -17864,7 +17864,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row customFormat="1" r="162" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>336</v>
       </c>
@@ -17879,7 +17879,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row customFormat="1" r="163" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>337</v>
       </c>
@@ -17894,7 +17894,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row customFormat="1" r="164" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>338</v>
       </c>
@@ -17909,7 +17909,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row customFormat="1" r="165" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>339</v>
       </c>
@@ -17924,7 +17924,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row customFormat="1" r="166" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>340</v>
       </c>
@@ -17939,7 +17939,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row customFormat="1" r="167" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>341</v>
       </c>
@@ -17954,7 +17954,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row customFormat="1" r="168" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>342</v>
       </c>
@@ -17969,7 +17969,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row customFormat="1" r="169" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>343</v>
       </c>
@@ -17984,7 +17984,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row customFormat="1" r="170" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>344</v>
       </c>
@@ -17999,7 +17999,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row customFormat="1" r="171" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>345</v>
       </c>
@@ -18013,15 +18013,15 @@
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="172" s="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
     </row>
-    <row customFormat="1" r="174" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
         <v>4151</v>
       </c>
     </row>
-    <row customFormat="1" r="175" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>43</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>SMPLPR</v>
       </c>
     </row>
-    <row customFormat="1" r="176" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>100</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row customFormat="1" r="177" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>284</v>
       </c>
@@ -18046,12 +18046,12 @@
         <v>4159</v>
       </c>
     </row>
-    <row customFormat="1" r="180" s="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>4155</v>
       </c>
     </row>
-    <row customFormat="1" r="181" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>43</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>ENTR</v>
       </c>
     </row>
-    <row customFormat="1" r="182" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>100</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>277</v>
       </c>
     </row>
-    <row customFormat="1" r="183" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>45</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>303</v>
       </c>
     </row>
-    <row customFormat="1" r="184" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>51</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="185" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>281</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row customFormat="1" r="186" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>4146</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row customFormat="1" r="187" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>4147</v>
       </c>
@@ -18109,12 +18109,12 @@
         <v>4164</v>
       </c>
     </row>
-    <row customFormat="1" r="188" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>4152</v>
       </c>
     </row>
-    <row customFormat="1" r="189" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>4153</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row customFormat="1" r="190" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>284</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row customFormat="1" r="191" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -18138,17 +18138,17 @@
         <v>500</v>
       </c>
     </row>
-    <row customFormat="1" r="192" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>4154</v>
       </c>
     </row>
-    <row customFormat="1" r="193" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="48" t="s">
         <v>3634</v>
       </c>
     </row>
-    <row customFormat="1" r="194" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="31" t="s">
         <v>29</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="195" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="31" t="s">
         <v>33</v>
       </c>
@@ -18188,7 +18188,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row customFormat="1" r="196" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="31" t="s">
         <v>34</v>
       </c>
@@ -18211,7 +18211,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row customFormat="1" r="197" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="31" t="s">
         <v>35</v>
       </c>
@@ -18234,7 +18234,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row customFormat="1" r="198" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="31" t="s">
         <v>38</v>
       </c>
@@ -18257,7 +18257,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row customFormat="1" r="199" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="31" t="s">
         <v>36</v>
       </c>
@@ -18280,7 +18280,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row customFormat="1" r="200" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="31" t="s">
         <v>39</v>
       </c>
@@ -18303,7 +18303,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row customFormat="1" r="201" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>40</v>
       </c>
@@ -18318,7 +18318,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row customFormat="1" r="202" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>292</v>
       </c>
@@ -18333,7 +18333,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row customFormat="1" r="203" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>293</v>
       </c>
@@ -18348,7 +18348,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row customFormat="1" r="204" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>294</v>
       </c>
@@ -18363,7 +18363,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row customFormat="1" r="205" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>295</v>
       </c>
@@ -18378,7 +18378,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row customFormat="1" r="206" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>296</v>
       </c>
@@ -18393,7 +18393,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row customFormat="1" r="207" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>297</v>
       </c>
@@ -18408,7 +18408,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row customFormat="1" r="208" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>298</v>
       </c>
@@ -18423,7 +18423,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row customFormat="1" r="209" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>299</v>
       </c>
@@ -18438,7 +18438,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row customFormat="1" r="210" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>300</v>
       </c>
@@ -18453,7 +18453,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row customFormat="1" r="211" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>301</v>
       </c>
@@ -18468,7 +18468,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row customFormat="1" r="212" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>302</v>
       </c>
@@ -18483,7 +18483,7 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row customFormat="1" r="213" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>41</v>
       </c>
@@ -18500,28 +18500,28 @@
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="214" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="48" t="s">
         <v>3635</v>
       </c>
     </row>
-    <row customFormat="1" r="215" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row customFormat="1" r="216" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B216" s="37"/>
     </row>
-    <row customFormat="1" r="217" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="48" t="s">
         <v>3636</v>
       </c>
     </row>
-    <row customFormat="1" r="218" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>346</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="219" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>347</v>
       </c>
@@ -18556,7 +18556,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row customFormat="1" r="220" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>348</v>
       </c>
@@ -18577,7 +18577,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row customFormat="1" r="221" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>349</v>
       </c>
@@ -18598,7 +18598,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row customFormat="1" r="222" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>350</v>
       </c>
@@ -18619,7 +18619,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row customFormat="1" r="223" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>351</v>
       </c>
@@ -18640,7 +18640,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row customFormat="1" r="224" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>352</v>
       </c>
@@ -18661,7 +18661,7 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row customFormat="1" r="225" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>353</v>
       </c>
@@ -18676,7 +18676,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row customFormat="1" r="226" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>354</v>
       </c>
@@ -18691,7 +18691,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row customFormat="1" r="227" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>355</v>
       </c>
@@ -18706,7 +18706,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row customFormat="1" r="228" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>356</v>
       </c>
@@ -18721,7 +18721,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row customFormat="1" r="229" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>357</v>
       </c>
@@ -18736,7 +18736,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row customFormat="1" r="230" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>358</v>
       </c>
@@ -18751,7 +18751,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row customFormat="1" r="231" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>359</v>
       </c>
@@ -18766,7 +18766,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row customFormat="1" r="232" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>360</v>
       </c>
@@ -18781,7 +18781,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row customFormat="1" r="233" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>361</v>
       </c>
@@ -18796,7 +18796,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row customFormat="1" r="234" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>362</v>
       </c>
@@ -18811,7 +18811,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row customFormat="1" r="235" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>363</v>
       </c>
@@ -18826,7 +18826,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row customFormat="1" r="236" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>364</v>
       </c>
@@ -18841,7 +18841,7 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row customFormat="1" r="237" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>365</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="238" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="45" t="s">
         <v>3637</v>
       </c>
@@ -18870,27 +18870,27 @@
       <c r="J238" s="46"/>
       <c r="K238" s="47"/>
     </row>
-    <row customFormat="1" r="239" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row customFormat="1" r="240" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row customFormat="1" r="241" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row customFormat="1" r="242" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row customFormat="1" r="243" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>290</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>25569</v>
       </c>
     </row>
-    <row customFormat="1" r="244" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="45" t="s">
         <v>3638</v>
       </c>
@@ -18913,7 +18913,7 @@
       <c r="J244" s="46"/>
       <c r="K244" s="47"/>
     </row>
-    <row customFormat="1" r="245" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>326</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="246" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>327</v>
       </c>
@@ -18948,7 +18948,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row customFormat="1" r="247" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>328</v>
       </c>
@@ -18969,7 +18969,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row customFormat="1" r="248" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>329</v>
       </c>
@@ -18990,7 +18990,7 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row customFormat="1" r="249" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>330</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="250" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>331</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="251" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>332</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>291</v>
       </c>
     </row>
-    <row customFormat="1" r="252" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>333</v>
       </c>
@@ -19047,7 +19047,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row customFormat="1" r="253" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>334</v>
       </c>
@@ -19062,7 +19062,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row customFormat="1" r="254" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>335</v>
       </c>
@@ -19077,7 +19077,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row customFormat="1" r="255" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>336</v>
       </c>
@@ -19092,7 +19092,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row customFormat="1" r="256" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>337</v>
       </c>
@@ -19107,7 +19107,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row customFormat="1" r="257" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>338</v>
       </c>
@@ -19122,7 +19122,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row customFormat="1" r="258" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>339</v>
       </c>
@@ -19137,7 +19137,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row customFormat="1" r="259" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>340</v>
       </c>
@@ -19152,7 +19152,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row customFormat="1" r="260" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>341</v>
       </c>
@@ -19167,7 +19167,7 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row customFormat="1" r="261" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>342</v>
       </c>
@@ -19182,7 +19182,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row customFormat="1" r="262" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>343</v>
       </c>
@@ -19197,7 +19197,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row customFormat="1" r="263" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>344</v>
       </c>
@@ -19212,7 +19212,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row customFormat="1" r="264" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>345</v>
       </c>
@@ -19228,6 +19228,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A67:XFD67"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A61:XFD61"/>
     <mergeCell ref="A238:XFD238"/>
     <mergeCell ref="A244:XFD244"/>
     <mergeCell ref="A180:XFD180"/>
@@ -19241,76 +19247,70 @@
     <mergeCell ref="A124:XFD124"/>
     <mergeCell ref="A145:XFD145"/>
     <mergeCell ref="A151:XFD151"/>
-    <mergeCell ref="A67:XFD67"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A61:XFD61"/>
   </mergeCells>
   <conditionalFormatting sqref="B198:B199">
-    <cfRule dxfId="67" priority="1" type="expression">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>B$4="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:K8 F11:K11 B93:E93 B184" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:K8 F11:K11 B93:E93 B184">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B87:K88 B36:K36 B60:K60 B171:K172 B120:K120 B144:K144 B264:K264 B213:K213 B237:K237" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B87:K88 B36:K36 B60:K60 B171:K172 B120:K120 B144:K144 B264:K264 B213:K213 B237:K237">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:K6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:K6">
       <formula1>"Contract, Permanent"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15 B191" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B191">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4 B92:E92 B182 B176" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B92:E92 B182 B176">
       <formula1>ListJobProfession</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5 B183" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B183">
       <formula1>ListJobPosition</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11 B96:E96 B187" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B96:E96 B187">
       <formula1>ListIndustryType</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B192" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B192">
       <formula1>"Domestic Investment, Foreign Investment"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B199" type="custom">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B199">
       <formula1>B170="Input Data"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B198" type="custom">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B198">
       <formula1>B170="Input Data"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$29</xm:f>
           </x14:formula1>
           <xm:sqref>F5:K5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$A$2:$A$195</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$129</xm:f>
           </x14:formula1>
           <xm:sqref>C5:E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AW$2:$AW$515</xm:f>
           </x14:formula1>
@@ -19323,8 +19323,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -19332,14 +19332,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -19356,13 +19356,13 @@
         <v>3352</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>366</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>59</v>
       </c>
@@ -19385,7 +19385,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>63</v>
       </c>
@@ -19408,7 +19408,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -19421,22 +19421,22 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F3:K3" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:K3">
       <formula1>"AKTA, CAT CAT, CAT IS A CAT, DESCRIPTION FOR AAA, DESCRIPTION FOR ASA, DESCRIPTION FOR KTP, E-KTP, KITAS, NPWP, SIM"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:E5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:E5">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>ListCusRel</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$H$2:$H$113</xm:f>
           </x14:formula1>
@@ -19449,8 +19449,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -19458,12 +19458,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="3" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>3639</v>
       </c>
@@ -19495,7 +19495,7 @@
       <c r="J2" s="46"/>
       <c r="K2" s="47"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>66</v>
       </c>
@@ -19518,7 +19518,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
@@ -19541,7 +19541,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -19564,7 +19564,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -19587,7 +19587,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -19610,7 +19610,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>378</v>
       </c>
@@ -19633,7 +19633,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row customFormat="1" r="9" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>3640</v>
       </c>
@@ -19648,7 +19648,7 @@
       <c r="J9" s="46"/>
       <c r="K9" s="47"/>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -19671,7 +19671,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row customFormat="1" r="11" s="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>3641</v>
       </c>
@@ -19686,7 +19686,7 @@
       <c r="J11" s="46"/>
       <c r="K11" s="47"/>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>75</v>
       </c>
@@ -19713,7 +19713,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>727</v>
       </c>
@@ -19736,7 +19736,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>77</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>78</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>79</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>81</v>
       </c>
@@ -19793,7 +19793,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>728</v>
       </c>
@@ -19845,39 +19845,39 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G17:K19 B17:F18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:K19 B17:F18">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:K5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:K5">
       <formula1>"Business, Online Shop, Salary, Stock Trading"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B3:B4" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+27</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:B7" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+22</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+23</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
       <formula1>ListBank</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$J$2:$J$305</xm:f>
           </x14:formula1>
@@ -19890,8 +19890,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -19899,11 +19899,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>86</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>90</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>91</v>
       </c>
@@ -19980,34 +19980,34 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:E2" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E2">
       <formula1>"Mobil, Motor, Rumah"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:E5" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E5">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="15.0" collapsed="true"/>
-    <col min="3" max="5" bestFit="true" customWidth="true" style="7" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="14.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>3642</v>
       </c>
@@ -20033,7 +20033,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="47"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>92</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>07</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>729</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>739</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>97</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>730</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>1466</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>e2955</v>
       </c>
     </row>
-    <row customFormat="1" ht="105" r="8" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>731</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>1467</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>e3822</v>
       </c>
     </row>
-    <row customFormat="1" ht="105" r="10" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>732</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>3643</v>
       </c>
@@ -20194,7 +20194,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="47"/>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1648</v>
       </c>
@@ -20205,7 +20205,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>1649</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="14" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>1650</v>
       </c>
@@ -20237,7 +20237,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1651</v>
       </c>
@@ -20248,7 +20248,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1652</v>
       </c>
@@ -20259,7 +20259,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>1656</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>1653</v>
       </c>
@@ -20291,7 +20291,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>1655</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>1654</v>
       </c>
@@ -20323,7 +20323,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>1658</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="22" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>1657</v>
       </c>
@@ -20355,7 +20355,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row customFormat="1" ht="45" r="23" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>1659</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="24" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>1660</v>
       </c>
@@ -20387,7 +20387,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row customFormat="1" r="25" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>1661</v>
       </c>
@@ -20398,7 +20398,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row customFormat="1" r="26" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>1662</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" r="27" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1663</v>
       </c>
@@ -20428,7 +20428,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row customFormat="1" r="28" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>98</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row customFormat="1" r="29" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>1664</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>BISNIS_SENDIRI</v>
       </c>
     </row>
-    <row customFormat="1" r="30" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>1665</v>
       </c>
@@ -20483,7 +20483,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row customFormat="1" r="31" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>1666</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row customFormat="1" r="32" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>1667</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>FAMILY</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1668</v>
       </c>
@@ -20544,121 +20544,121 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C15:E16 C12:E12 C25:E25" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:E16 C12:E12 C25:E25">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B12 B15:B16 B25" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B15:B16 B25">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>ListDebtGroup</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>ListDebtorBusinessScale</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>ListCounterpart</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>ListSusFinBus</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
       <formula1>ListDebtGroupSLIK</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>ListAfWiMult</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>ListDeptAML</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>ListCSPUSL</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>ListPaymentTypeAML</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
       <formula1>ListAuthorityAML</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>ListBusinessSource</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B33" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
       <formula1>ListBuilding</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AT$2:$AT$109</xm:f>
           </x14:formula1>
           <xm:sqref>C33:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$M$2:$M$629</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$P$2:$P$107</xm:f>
           </x14:formula1>
           <xm:sqref>C6:E6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$S$2:$S$349</xm:f>
           </x14:formula1>
           <xm:sqref>C8:E8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$V$2:$V$115</xm:f>
           </x14:formula1>
           <xm:sqref>C10:E10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$Y$2:$Y$385</xm:f>
           </x14:formula1>
           <xm:sqref>C14:E14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AB$2:$AB$117</xm:f>
           </x14:formula1>
           <xm:sqref>C18:E18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AE$2:$AE$983</xm:f>
           </x14:formula1>
           <xm:sqref>C20:E20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AH$2:$AH$111</xm:f>
           </x14:formula1>
           <xm:sqref>C22:E22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AK$2:$AK$104</xm:f>
           </x14:formula1>
           <xm:sqref>C24:E24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AN$2:$AN$111</xm:f>
           </x14:formula1>
           <xm:sqref>C27:E27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AQ$2:$AQ$102</xm:f>
           </x14:formula1>
@@ -20671,8 +20671,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DC882"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DB882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E30"/>
@@ -20680,46 +20680,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="15" width="42.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="43" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="17" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="17" width="23.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="17" width="35.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="19" width="18.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="17" width="29.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="17" width="22.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="17" width="33.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="17" width="20.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="17" width="255.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="17" width="12.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="22" width="80.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="17" width="12.5703125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="23" width="80.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="20" width="21.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="23" width="79.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="20" width="8.140625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="17" width="89.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="17" width="25.5703125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="17" width="23.0" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="20" width="28.5703125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="17" width="25.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="17" width="31.140625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" style="17" width="12.42578125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" style="17" width="17.42578125" collapsed="true"/>
-    <col min="48" max="48" style="17" width="9.140625" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" style="17" width="97.7109375" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" style="17" width="22.5703125" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="42.140625" style="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" style="43" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30" style="17" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.42578125" style="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="33.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="255.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="80.140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="80.7109375" style="23" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="79.85546875" style="23" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="89" style="17" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="25.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23" style="17" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="25.140625" style="17" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="31.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.42578125" style="17" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="17.42578125" style="17" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="9.140625" style="17" collapsed="1"/>
+    <col min="49" max="49" width="97.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="22.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>3361</v>
       </c>
@@ -21604,7 +21604,7 @@
         <v>4137</v>
       </c>
     </row>
-    <row ht="30" r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>116</v>
       </c>
@@ -21683,7 +21683,7 @@
         <v>4138</v>
       </c>
     </row>
-    <row ht="30" r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row ht="30" r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>120</v>
       </c>
@@ -25115,7 +25115,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row ht="30" r="77" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>248</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row ht="30" r="78" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>250</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row ht="30" r="90" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>272</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row ht="30" r="91" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>273</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row ht="30" r="103" spans="10:106" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:106" ht="30" x14ac:dyDescent="0.25">
       <c r="J103" s="18" t="s">
         <v>488</v>
       </c>
@@ -26436,7 +26436,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row ht="30" r="104" spans="10:106" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:106" ht="30" x14ac:dyDescent="0.25">
       <c r="J104" s="18" t="s">
         <v>389</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row ht="30" r="109" spans="10:106" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:106" ht="30" x14ac:dyDescent="0.25">
       <c r="J109" s="18" t="s">
         <v>409</v>
       </c>
@@ -26920,7 +26920,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row ht="30" r="115" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="J115" s="18" t="s">
         <v>508</v>
       </c>
@@ -26964,7 +26964,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row ht="30" r="116" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="J116" s="18" t="s">
         <v>510</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row ht="30" r="138" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="J138" s="18" t="s">
         <v>549</v>
       </c>
@@ -28528,7 +28528,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row ht="30" r="152" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="K152" s="20"/>
       <c r="M152" s="18" t="s">
         <v>883</v>
@@ -28567,7 +28567,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row ht="30" r="153" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="K153" s="20"/>
       <c r="M153" s="18" t="s">
         <v>884</v>
@@ -35423,8 +35423,8 @@
       <c r="AF882" s="20"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="19">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
@@ -14852,7 +14852,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14903,7 +14903,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4135</v>
+        <v>3637</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>

--- a/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="4178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="4178">
   <si>
     <t>Full Name</t>
   </si>

--- a/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="4178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4543" uniqueCount="4178">
   <si>
     <t>Full Name</t>
   </si>
@@ -15322,7 +15322,7 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>4175</v>
+        <v>4142</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3353</v>

--- a/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4WFINAL\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="644" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="644" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="1.CustomerDetail" r:id="rId1" sheetId="1"/>
-    <sheet name="2.AddressInformation" r:id="rId2" sheetId="2"/>
-    <sheet name="3.JobData" r:id="rId3" sheetId="3"/>
-    <sheet name="4.EmergencyContact" r:id="rId4" sheetId="4"/>
-    <sheet name="5.FinancialData" r:id="rId5" sheetId="5"/>
-    <sheet name="6.CustomerAsset" r:id="rId6" sheetId="6"/>
-    <sheet name="7.OtherAttribute" r:id="rId7" sheetId="7"/>
-    <sheet name="Master" r:id="rId8" sheetId="8"/>
+    <sheet name="1.CustomerDetail" sheetId="1" r:id="rId1"/>
+    <sheet name="2.AddressInformation" sheetId="2" r:id="rId2"/>
+    <sheet name="3.JobData" sheetId="3" r:id="rId3"/>
+    <sheet name="4.EmergencyContact" sheetId="4" r:id="rId4"/>
+    <sheet name="5.FinancialData" sheetId="5" r:id="rId5"/>
+    <sheet name="6.CustomerAsset" sheetId="6" r:id="rId6"/>
+    <sheet name="7.OtherAttribute" sheetId="7" r:id="rId7"/>
+    <sheet name="Master" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_1">Master!$A$1:$B$95</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_10">Master!$AB$1:$AC$16</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_11">Master!$AE$1:$AF$492</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_12">Master!$AH$1:$AI$10</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_13">Master!$AK$1:$AL$3</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_14">Master!$AN$1:$AO$9</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_15">Master!$AQ$1:$AR$2</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_16">Master!$AT$1:$AU$8</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_17">Master!$AW$1:$AX$263</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_18">Master!$BA$1:$BB$242</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_19">Master!$BE$1:$BE$10</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_2">Master!$E$1:$E$30</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_3">Master!$H$1:$H$14</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_4">Master!$J$1:$K$147</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_5">Master!$M$1:$N$315</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_6">Master!$P$1:$Q$6</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_7">Master!$S$1:$T$175</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_8">Master!$V$1:$W$14</definedName>
-    <definedName hidden="1" localSheetId="7" name="ExternalData_9">Master!$Y$1:$Z$193</definedName>
+    <definedName name="ExternalData_1" localSheetId="7" hidden="1">Master!$A$1:$B$95</definedName>
+    <definedName name="ExternalData_10" localSheetId="7" hidden="1">Master!$AB$1:$AC$16</definedName>
+    <definedName name="ExternalData_11" localSheetId="7" hidden="1">Master!$AE$1:$AF$492</definedName>
+    <definedName name="ExternalData_12" localSheetId="7" hidden="1">Master!$AH$1:$AI$10</definedName>
+    <definedName name="ExternalData_13" localSheetId="7" hidden="1">Master!$AK$1:$AL$3</definedName>
+    <definedName name="ExternalData_14" localSheetId="7" hidden="1">Master!$AN$1:$AO$9</definedName>
+    <definedName name="ExternalData_15" localSheetId="7" hidden="1">Master!$AQ$1:$AR$2</definedName>
+    <definedName name="ExternalData_16" localSheetId="7" hidden="1">Master!$AT$1:$AU$8</definedName>
+    <definedName name="ExternalData_17" localSheetId="7" hidden="1">Master!$AW$1:$AX$263</definedName>
+    <definedName name="ExternalData_18" localSheetId="7" hidden="1">Master!$BA$1:$BB$242</definedName>
+    <definedName name="ExternalData_19" localSheetId="7" hidden="1">Master!$BE$1:$BE$10</definedName>
+    <definedName name="ExternalData_2" localSheetId="7" hidden="1">Master!$E$1:$E$30</definedName>
+    <definedName name="ExternalData_3" localSheetId="7" hidden="1">Master!$H$1:$H$14</definedName>
+    <definedName name="ExternalData_4" localSheetId="7" hidden="1">Master!$J$1:$K$147</definedName>
+    <definedName name="ExternalData_5" localSheetId="7" hidden="1">Master!$M$1:$N$315</definedName>
+    <definedName name="ExternalData_6" localSheetId="7" hidden="1">Master!$P$1:$Q$6</definedName>
+    <definedName name="ExternalData_7" localSheetId="7" hidden="1">Master!$S$1:$T$175</definedName>
+    <definedName name="ExternalData_8" localSheetId="7" hidden="1">Master!$V$1:$W$14</definedName>
+    <definedName name="ExternalData_9" localSheetId="7" hidden="1">Master!$Y$1:$Z$193</definedName>
     <definedName name="ListAfWiMult">Master!$AB$2:INDEX(Master!$AB:$AB,SUMPRODUCT(--(Master!$AB:$AB&lt;&gt;"")))</definedName>
     <definedName name="ListAuthorityAML">Master!$AN$2:INDEX(Master!$AN:$AN,SUMPRODUCT(--(Master!$AN:$AN&lt;&gt;"")))</definedName>
     <definedName name="ListBank">Master!$J$2:INDEX(Master!$J:$J,SUMPRODUCT(--(Master!$J:$J&lt;&gt;"")))</definedName>
@@ -62,7 +62,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -75,7 +75,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A16" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A19" shapeId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A13" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A66" shapeId="0">
+    <comment ref="A66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A93" shapeId="0">
+    <comment ref="A93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A8" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A28" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A31" shapeId="0">
+    <comment ref="A31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4543" uniqueCount="4178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="4179">
   <si>
     <t>Full Name</t>
   </si>
@@ -12932,6 +12932,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Spouse Monthly Income</t>
   </si>
 </sst>
 </file>
@@ -13083,92 +13086,92 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="70">
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -13187,7 +13190,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13196,7 +13199,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13221,7 +13224,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13230,7 +13233,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13261,17 +13264,17 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="top" wrapText="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13296,24 +13299,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13322,7 +13325,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13331,10 +13334,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13343,7 +13346,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13368,7 +13371,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13377,7 +13380,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13402,7 +13405,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13411,7 +13414,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13436,24 +13439,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13462,7 +13465,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13471,27 +13474,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13500,7 +13503,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13509,27 +13512,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13538,20 +13541,20 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13560,7 +13563,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13577,7 +13580,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13586,7 +13589,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13595,7 +13598,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13612,7 +13615,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13621,7 +13624,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13630,7 +13633,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13647,7 +13650,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13656,7 +13659,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13665,7 +13668,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13690,7 +13693,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13707,7 +13710,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13724,24 +13727,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13750,7 +13753,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13759,7 +13762,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13783,7 +13786,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -14002,208 +14005,208 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="65" displayName="Query_Job_Profession" headerRowDxfId="66" id="1" insertRowShift="1" name="Query_Job_Profession" ref="A1:B95" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Query_Job_Profession" displayName="Query_Job_Profession" ref="A1:B95" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:B95"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="64" id="1" name="JOB PROFESSION NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="63" id="2" name="JOB POSITION CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="JOB PROFESSION NAME" queryTableFieldId="1" dataDxfId="64"/>
+    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="63"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="33" displayName="Query_Affiliate_with_Multifinance" headerRowDxfId="34" id="10" insertRowShift="1" name="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Query_Affiliate_with_Multifinance" displayName="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="AB1:AC16"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="32" id="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="31" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" dataDxfId="32"/>
+    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="31"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="29" displayName="Query_Department_AML" headerRowDxfId="30" id="11" insertRowShift="1" name="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Query_Department_AML" displayName="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="AE1:AF492"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="28" id="1" name="DEPARTMENT AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="27" id="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="2" uniqueName="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="27"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="25" displayName="Query_csp_usl_source_aml" headerRowDxfId="26" id="12" insertRowShift="1" name="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Query_csp_usl_source_aml" displayName="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="AH1:AI10"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="24" id="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="23" id="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" uniqueName="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" dataDxfId="23"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="21" displayName="Query_payment_type_aml" headerRowDxfId="22" id="13" insertRowShift="1" name="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Query_payment_type_aml" displayName="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="AK1:AL3"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="20" id="1" name="PAYMENT TYPE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="19" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="PAYMENT TYPE AML" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="19"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="17" displayName="Query_authority_aml" headerRowDxfId="18" id="14" insertRowShift="1" name="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Query_authority_aml" displayName="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="AN1:AO9"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="16" id="1" name="AUTHORITY AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="15" id="2" name="AUTHORITY AML2" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" uniqueName="2" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="15"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="13" displayName="Query_Business_Source" headerRowDxfId="14" id="15" insertRowShift="1" name="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Query_Business_Source" displayName="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="AQ1:AR2"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="12" id="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="11" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="9" displayName="query_building" headerRowDxfId="10" id="16" insertRowShift="1" name="query_building" ref="AT1:AU8" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="query_building" displayName="query_building" ref="AT1:AU8" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="AT1:AU8"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="8" id="1" name="BUILDING" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="7" id="2" name="BUILDING CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="BUILDING" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" uniqueName="2" name="BUILDING CODE" queryTableFieldId="2" dataDxfId="7"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="5" displayName="Query_Industry_Type" headerRowDxfId="6" id="17" insertRowShift="1" name="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Query_Industry_Type" displayName="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="AW1:AX263"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="4" id="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="3" id="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" uniqueName="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Country" headerRowDxfId="2" id="18" name="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Query_Country" displayName="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="BA1:BB242"/>
   <tableColumns count="2">
-    <tableColumn id="5" name="COUNTRY NAME" queryTableFieldId="1" uniqueName="5"/>
-    <tableColumn id="6" name="COUNTRY CODE" queryTableFieldId="2" uniqueName="6"/>
+    <tableColumn id="5" uniqueName="5" name="COUNTRY NAME" queryTableFieldId="1"/>
+    <tableColumn id="6" uniqueName="6" name="COUNTRY CODE" queryTableFieldId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Copy_Address_From" headerRowDxfId="1" id="19" name="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Copy_Address_From" displayName="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="BE1:BE10"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="0" id="3" name="Copy Address" queryTableFieldId="1" uniqueName="3"/>
+    <tableColumn id="3" uniqueName="3" name="Copy Address" queryTableFieldId="1" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Job_Position" headerRowDxfId="62" id="2" name="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Query_Job_Position" displayName="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="E1:E30"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="61" id="1" name="JOB POSITION NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn id="1" uniqueName="1" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="61"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Customer_Relationship" headerRowDxfId="60" id="3" name="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Query_Customer_Relationship" displayName="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="60">
   <autoFilter ref="H1:H14"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="59" id="1" name="Customer Relationship" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn id="1" uniqueName="1" name="Customer Relationship" queryTableFieldId="1" dataDxfId="59"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="57" displayName="Query_Bank" headerRowDxfId="58" id="4" insertRowShift="1" name="Query_Bank" ref="J1:K147" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Query_Bank" displayName="Query_Bank" ref="J1:K147" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="J1:K147"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="56" id="1" name="BANK NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="55" id="2" name="BANK CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="BANK NAME" queryTableFieldId="1" dataDxfId="56"/>
+    <tableColumn id="2" uniqueName="2" name="BANK CODE" queryTableFieldId="2" dataDxfId="55"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="53" displayName="Query_Debtor_Group" headerRowDxfId="54" id="5" insertRowShift="1" name="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Query_Debtor_Group" displayName="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="M1:N315"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="52" id="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="51" id="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" dataDxfId="52"/>
+    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" dataDxfId="51"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="49" displayName="Query_Debtor_Business_Scale" headerRowDxfId="50" id="6" insertRowShift="1" name="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Query_Debtor_Business_Scale" displayName="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="P1:Q6"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="48" id="1" name="Debtor Business Scale Description" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="47" id="2" name="Debtor Group Code" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="Debtor Business Scale Description" queryTableFieldId="1" dataDxfId="48"/>
+    <tableColumn id="2" uniqueName="2" name="Debtor Group Code" queryTableFieldId="2" dataDxfId="47"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="45" displayName="Query_Counterpart" headerRowDxfId="46" id="7" insertRowShift="1" name="Query_Counterpart" ref="S1:T175" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Query_Counterpart" displayName="Query_Counterpart" ref="S1:T175" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="S1:T175"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="44" id="1" name="Counterpart Category" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="43" id="2" name="LBPP CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="Counterpart Category" queryTableFieldId="1" dataDxfId="44"/>
+    <tableColumn id="2" uniqueName="2" name="LBPP CODE" queryTableFieldId="2" dataDxfId="43"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="41" displayName="Query_Sustainable_Financial" headerRowDxfId="42" id="8" insertRowShift="1" name="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Query_Sustainable_Financial" displayName="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="V1:W14"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="40" id="1" name="Sustainable Financial Business" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="39" id="2" name="LBPP Code" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="Sustainable Financial Business" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="2" uniqueName="2" name="LBPP Code" queryTableFieldId="2" dataDxfId="39"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="37" displayName="Query_debtor_group_slik" headerRowDxfId="38" id="9" insertRowShift="1" name="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Query_debtor_group_slik" displayName="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="Y1:Z193"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="36" id="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="35" id="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" dataDxfId="36"/>
+    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" dataDxfId="35"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -14212,10 +14215,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14250,7 +14253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -14285,7 +14288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -14379,21 +14382,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -14410,7 +14413,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -14462,15 +14465,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -14478,13 +14481,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -14501,7 +14504,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14518,7 +14521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -14529,7 +14532,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -14544,7 +14547,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -14559,7 +14562,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -14574,7 +14577,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -14591,7 +14594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -14608,7 +14611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -14625,7 +14628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -14633,7 +14636,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
@@ -14650,17 +14653,17 @@
         <v>15</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>18</v>
       </c>
@@ -14677,7 +14680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>3645</v>
       </c>
@@ -14698,7 +14701,7 @@
         <v>COUNTRY001</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>20</v>
       </c>
@@ -14721,7 +14724,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>21</v>
       </c>
@@ -14738,7 +14741,7 @@
         <v>4143</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>22</v>
       </c>
@@ -14755,7 +14758,7 @@
         <v>4145</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>23</v>
       </c>
@@ -14780,65 +14783,65 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD16">
-    <cfRule dxfId="69" priority="2" type="expression">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>AND(A$14&lt;&gt;"Foreigner",A$14&lt;&gt;"",A$14&lt;&gt;"Nationality")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD19">
-    <cfRule dxfId="68" priority="1" type="expression">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>A$8="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F18:K18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:K18">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F17:K17" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:K17">
       <formula1>"S1, S2, S3, SD, SMP, SMA"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B10:K10"/>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B7:K9" type="list">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B10:K10"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:K9">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F14:K14" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:K14">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F11:K11" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F11:K11">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:E14" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E14">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11:E11" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:E11">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="custom">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15">
       <formula1>B$14="Foreigner"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19:E19" type="custom">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19">
       <formula1>B$8="Yes"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B5" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>IF(B$14="Foreigner",ListCountry)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:E17" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:E17">
       <formula1>"S1, S2, S3, SD, SMP, SMA, D3"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18:E18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:E18">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu, AGNOSTIK"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>IF(C$14="Foreigner",Master!$BA$2:$BA$342)</xm:f>
           </x14:formula1>
@@ -14851,20 +14854,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -14881,7 +14884,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>25</v>
       </c>
@@ -14898,7 +14901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -14917,7 +14920,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>28</v>
       </c>
@@ -14940,7 +14943,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>32</v>
       </c>
@@ -14963,7 +14966,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>33</v>
       </c>
@@ -14986,7 +14989,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>34</v>
       </c>
@@ -15009,7 +15012,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>37</v>
       </c>
@@ -15032,7 +15035,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>35</v>
       </c>
@@ -15055,7 +15058,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>38</v>
       </c>
@@ -15078,7 +15081,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>291</v>
       </c>
@@ -15093,7 +15096,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>292</v>
       </c>
@@ -15108,7 +15111,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>293</v>
       </c>
@@ -15123,7 +15126,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>294</v>
       </c>
@@ -15138,7 +15141,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>295</v>
       </c>
@@ -15153,7 +15156,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>296</v>
       </c>
@@ -15168,7 +15171,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>297</v>
       </c>
@@ -15183,7 +15186,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>298</v>
       </c>
@@ -15198,7 +15201,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>299</v>
       </c>
@@ -15213,7 +15216,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>300</v>
       </c>
@@ -15228,7 +15231,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>301</v>
       </c>
@@ -15243,7 +15246,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>40</v>
       </c>
@@ -15262,36 +15265,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:XFD10">
-    <cfRule dxfId="67" priority="1" type="expression">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>AND(A$3&lt;&gt;"",A$3&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B22:K22" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22:K22">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B2:K2" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:K2">
       <formula1>"Legal, Mailing, Residence, Residence 2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I3:K3" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:K3">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B10" type="custom">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
       <formula1>ISBLANK(B$3)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$110</xm:f>
           </x14:formula1>
           <xm:sqref>C3:H3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$20</xm:f>
           </x14:formula1>
@@ -15304,20 +15307,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -15334,7 +15337,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>3633</v>
       </c>
@@ -15349,7 +15352,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="45"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>42</v>
       </c>
@@ -15376,7 +15379,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>99</v>
       </c>
@@ -15399,7 +15402,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>44</v>
       </c>
@@ -15422,7 +15425,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>47</v>
       </c>
@@ -15445,7 +15448,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -15462,7 +15465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -15479,7 +15482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>280</v>
       </c>
@@ -15487,7 +15490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>281</v>
       </c>
@@ -15505,7 +15508,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>282</v>
       </c>
@@ -15522,7 +15525,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -15536,7 +15539,7 @@
         <v>53</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>54</v>
       </c>
@@ -15559,7 +15562,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>283</v>
       </c>
@@ -15580,7 +15583,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -15601,12 +15604,12 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row customFormat="1" r="16" s="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>4146</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>42</v>
       </c>
@@ -15627,7 +15630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -15638,7 +15641,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -15646,12 +15649,12 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>4147</v>
       </c>
@@ -15672,7 +15675,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4148</v>
       </c>
@@ -15680,7 +15683,7 @@
         <v>4149</v>
       </c>
     </row>
-    <row customFormat="1" r="23" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4150</v>
       </c>
@@ -15688,7 +15691,7 @@
         <v>1823612693</v>
       </c>
     </row>
-    <row customFormat="1" r="24" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4151</v>
       </c>
@@ -15696,7 +15699,7 @@
         <v>44056</v>
       </c>
     </row>
-    <row customFormat="1" r="25" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>283</v>
       </c>
@@ -15704,12 +15707,12 @@
         <v>311</v>
       </c>
     </row>
-    <row customFormat="1" r="26" s="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>4152</v>
       </c>
     </row>
-    <row customFormat="1" r="27" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>42</v>
       </c>
@@ -15718,7 +15721,7 @@
         <v>CLG_STD</v>
       </c>
     </row>
-    <row customFormat="1" r="28" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
@@ -15726,17 +15729,17 @@
         <v>175</v>
       </c>
     </row>
-    <row customFormat="1" r="29" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row customFormat="1" r="30" s="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>4153</v>
       </c>
     </row>
-    <row customFormat="1" r="31" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>42</v>
       </c>
@@ -15745,7 +15748,7 @@
         <v>ENTR</v>
       </c>
     </row>
-    <row customFormat="1" r="32" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -15753,7 +15756,7 @@
         <v>276</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -15761,7 +15764,7 @@
         <v>302</v>
       </c>
     </row>
-    <row customFormat="1" r="34" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -15769,7 +15772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" r="35" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>280</v>
       </c>
@@ -15777,7 +15780,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row customFormat="1" r="36" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>4147</v>
       </c>
@@ -15786,7 +15789,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row customFormat="1" r="37" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4148</v>
       </c>
@@ -15794,12 +15797,12 @@
         <v>4155</v>
       </c>
     </row>
-    <row customFormat="1" r="38" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4156</v>
       </c>
     </row>
-    <row customFormat="1" r="39" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4157</v>
       </c>
@@ -15807,7 +15810,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row customFormat="1" r="40" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>283</v>
       </c>
@@ -15815,7 +15818,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row customFormat="1" r="41" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -15823,12 +15826,12 @@
         <v>500</v>
       </c>
     </row>
-    <row customFormat="1" r="42" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4159</v>
       </c>
     </row>
-    <row customFormat="1" r="43" s="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>3634</v>
       </c>
@@ -15843,7 +15846,7 @@
       <c r="J43" s="44"/>
       <c r="K43" s="45"/>
     </row>
-    <row customFormat="1" r="44" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>28</v>
       </c>
@@ -15860,7 +15863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customFormat="1" r="45" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>32</v>
       </c>
@@ -15883,7 +15886,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row customFormat="1" r="46" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>33</v>
       </c>
@@ -15906,7 +15909,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row customFormat="1" r="47" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>34</v>
       </c>
@@ -15929,7 +15932,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row customFormat="1" r="48" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>35</v>
       </c>
@@ -15952,7 +15955,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row customFormat="1" r="49" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>37</v>
       </c>
@@ -15975,7 +15978,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row customFormat="1" r="50" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>38</v>
       </c>
@@ -15998,7 +16001,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row customFormat="1" r="51" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
@@ -16013,7 +16016,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row customFormat="1" r="52" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>291</v>
       </c>
@@ -16028,7 +16031,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row customFormat="1" r="53" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>292</v>
       </c>
@@ -16043,7 +16046,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row customFormat="1" r="54" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>293</v>
       </c>
@@ -16058,7 +16061,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row customFormat="1" r="55" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>294</v>
       </c>
@@ -16073,7 +16076,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row customFormat="1" r="56" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>295</v>
       </c>
@@ -16088,7 +16091,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row customFormat="1" r="57" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>296</v>
       </c>
@@ -16103,7 +16106,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row customFormat="1" r="58" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>297</v>
       </c>
@@ -16118,7 +16121,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row customFormat="1" r="59" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>298</v>
       </c>
@@ -16133,7 +16136,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row customFormat="1" r="60" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>299</v>
       </c>
@@ -16148,7 +16151,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row customFormat="1" r="61" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>300</v>
       </c>
@@ -16163,7 +16166,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row customFormat="1" r="62" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>301</v>
       </c>
@@ -16178,7 +16181,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row customFormat="1" r="63" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>40</v>
       </c>
@@ -16192,7 +16195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row customFormat="1" r="64" s="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
         <v>3635</v>
       </c>
@@ -16207,18 +16210,18 @@
       <c r="J64" s="44"/>
       <c r="K64" s="45"/>
     </row>
-    <row customFormat="1" r="65" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row customFormat="1" r="66" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B66" s="37"/>
     </row>
-    <row customFormat="1" r="67" s="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>3636</v>
       </c>
@@ -16233,7 +16236,7 @@
       <c r="J67" s="44"/>
       <c r="K67" s="45"/>
     </row>
-    <row customFormat="1" r="68" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>345</v>
       </c>
@@ -16250,7 +16253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customFormat="1" r="69" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>346</v>
       </c>
@@ -16273,7 +16276,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row customFormat="1" r="70" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>347</v>
       </c>
@@ -16296,7 +16299,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row customFormat="1" r="71" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>348</v>
       </c>
@@ -16319,7 +16322,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row customFormat="1" r="72" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>349</v>
       </c>
@@ -16342,7 +16345,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row customFormat="1" r="73" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>350</v>
       </c>
@@ -16365,7 +16368,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row customFormat="1" r="74" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>351</v>
       </c>
@@ -16388,7 +16391,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row customFormat="1" r="75" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>352</v>
       </c>
@@ -16403,7 +16406,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row customFormat="1" r="76" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>353</v>
       </c>
@@ -16418,7 +16421,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row customFormat="1" r="77" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>354</v>
       </c>
@@ -16433,7 +16436,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row customFormat="1" r="78" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>355</v>
       </c>
@@ -16448,7 +16451,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row customFormat="1" r="79" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>356</v>
       </c>
@@ -16463,7 +16466,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row customFormat="1" r="80" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>357</v>
       </c>
@@ -16478,7 +16481,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row customFormat="1" r="81" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>358</v>
       </c>
@@ -16493,7 +16496,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row customFormat="1" r="82" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>359</v>
       </c>
@@ -16508,7 +16511,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row customFormat="1" r="83" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>360</v>
       </c>
@@ -16523,7 +16526,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row customFormat="1" r="84" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>361</v>
       </c>
@@ -16538,7 +16541,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row customFormat="1" r="85" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>362</v>
       </c>
@@ -16553,7 +16556,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row customFormat="1" r="86" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>363</v>
       </c>
@@ -16568,7 +16571,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row customFormat="1" r="87" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>364</v>
       </c>
@@ -16582,7 +16585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row customFormat="1" r="88" s="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43" t="s">
         <v>3637</v>
       </c>
@@ -16597,33 +16600,33 @@
       <c r="J88" s="44"/>
       <c r="K88" s="45"/>
     </row>
-    <row customFormat="1" r="89" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row customFormat="1" r="90" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row customFormat="1" r="91" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row customFormat="1" r="92" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row customFormat="1" r="93" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B93" s="37"/>
     </row>
-    <row customFormat="1" r="94" s="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
         <v>3638</v>
       </c>
@@ -16638,7 +16641,7 @@
       <c r="J94" s="44"/>
       <c r="K94" s="45"/>
     </row>
-    <row customFormat="1" r="95" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>325</v>
       </c>
@@ -16652,7 +16655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customFormat="1" r="96" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>326</v>
       </c>
@@ -16673,7 +16676,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row customFormat="1" r="97" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>327</v>
       </c>
@@ -16694,7 +16697,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row customFormat="1" r="98" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>328</v>
       </c>
@@ -16715,7 +16718,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row customFormat="1" r="99" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>329</v>
       </c>
@@ -16729,7 +16732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row customFormat="1" r="100" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>330</v>
       </c>
@@ -16743,7 +16746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row customFormat="1" r="101" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>331</v>
       </c>
@@ -16757,7 +16760,7 @@
         <v>290</v>
       </c>
     </row>
-    <row customFormat="1" r="102" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>332</v>
       </c>
@@ -16772,7 +16775,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row customFormat="1" r="103" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>333</v>
       </c>
@@ -16787,7 +16790,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row customFormat="1" r="104" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>334</v>
       </c>
@@ -16802,7 +16805,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row customFormat="1" r="105" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>335</v>
       </c>
@@ -16817,7 +16820,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row customFormat="1" r="106" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>336</v>
       </c>
@@ -16832,7 +16835,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row customFormat="1" r="107" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>337</v>
       </c>
@@ -16847,7 +16850,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row customFormat="1" r="108" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>338</v>
       </c>
@@ -16862,7 +16865,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row customFormat="1" r="109" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>339</v>
       </c>
@@ -16877,7 +16880,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row customFormat="1" r="110" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>340</v>
       </c>
@@ -16892,7 +16895,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row customFormat="1" r="111" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>341</v>
       </c>
@@ -16907,7 +16910,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row customFormat="1" r="112" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>342</v>
       </c>
@@ -16922,7 +16925,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row customFormat="1" r="113" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>343</v>
       </c>
@@ -16937,7 +16940,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row customFormat="1" r="114" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>344</v>
       </c>
@@ -16964,60 +16967,60 @@
     <mergeCell ref="A88:XFD88"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:K8 F11:K11 B19:E19 B34" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:K8 F11:K11 B19:E19 B34">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="C87:K87 C63:K63 C114:K114" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C87:K87 C63:K63 C114:K114">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:K6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:K6">
       <formula1>"Contract, Permanent"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15 B41" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B41">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4 B18:E18 B32 B28" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B18:E18 B32 B28">
       <formula1>ListJobProfession</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5 B33" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B33">
       <formula1>ListJobPosition</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11 B22:E22 B37" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B22:E22 B37">
       <formula1>ListIndustryType</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B63 B87 B114" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63 B87 B114">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
       <formula1>"Domestic Investment, Foreign Investment"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$29</xm:f>
           </x14:formula1>
           <xm:sqref>F5:K5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$A$2:$A$195</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$129</xm:f>
           </x14:formula1>
           <xm:sqref>C5:E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AW$2:$AW$515</xm:f>
           </x14:formula1>
@@ -17030,8 +17033,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -17039,14 +17042,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -17063,7 +17066,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>365</v>
       </c>
@@ -17071,7 +17074,7 @@
         <v>377</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>58</v>
       </c>
@@ -17094,7 +17097,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>62</v>
       </c>
@@ -17117,7 +17120,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -17130,22 +17133,22 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F3:K3" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:K3">
       <formula1>"AKTA, CAT CAT, CAT IS A CAT, DESCRIPTION FOR AAA, DESCRIPTION FOR ASA, DESCRIPTION FOR KTP, E-KTP, KITAS, NPWP, SIM"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:E5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:E5">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>ListCusRel</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$H$2:$H$113</xm:f>
           </x14:formula1>
@@ -17158,20 +17161,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -17188,7 +17191,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>3639</v>
       </c>
@@ -17203,7 +17206,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="45"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>65</v>
       </c>
@@ -17226,7 +17229,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -17247,7 +17250,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -17270,7 +17273,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -17291,7 +17294,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -17312,7 +17315,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>379</v>
       </c>
@@ -17335,100 +17338,92 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row customFormat="1" r="9" s="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>3640</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-    </row>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B11" s="39">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>1000000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>1000000002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>1000000003</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row customFormat="1" r="11" s="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
         <v>3641</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>192974891</v>
       </c>
-      <c r="C12" s="3" t="str">
-        <f>VLOOKUP(C13,Master!$J$1:$K$204,2,FALSE)</f>
+      <c r="C13" s="3" t="str">
+        <f>VLOOKUP(C14,Master!$J$1:$K$204,2,FALSE)</f>
         <v>014</v>
       </c>
-      <c r="D12" s="3" t="str">
-        <f>VLOOKUP(D13,Master!$J$1:$K$204,2,FALSE)</f>
+      <c r="D13" s="3" t="str">
+        <f>VLOOKUP(D14,Master!$J$1:$K$204,2,FALSE)</f>
         <v>014</v>
       </c>
-      <c r="E12" s="3" t="str">
-        <f>VLOOKUP(E13,Master!$J$1:$K$204,2,FALSE)</f>
+      <c r="E13" s="3" t="str">
+        <f>VLOOKUP(E14,Master!$J$1:$K$204,2,FALSE)</f>
         <v>014</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -17437,83 +17432,89 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>4166</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>4165</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>4168</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -17528,61 +17529,78 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B20" s="12">
         <v>5000000000</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A12:XFD12"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G17:K19 B17:F18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:K20 B18:F19">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:K5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:K5">
       <formula1>"Business, Online Shop, Salary, Stock Trading"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B3:B4" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+27</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:B7" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+22</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+23</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
       <formula1>ListBank</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$J$2:$J$305</xm:f>
           </x14:formula1>
-          <xm:sqref>C13:E13</xm:sqref>
+          <xm:sqref>C14:E14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17591,8 +17609,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -17600,11 +17618,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -17621,7 +17639,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>85</v>
       </c>
@@ -17635,7 +17653,7 @@
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -17649,7 +17667,7 @@
         <v>88</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>89</v>
       </c>
@@ -17664,7 +17682,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>90</v>
       </c>
@@ -17681,21 +17699,21 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:E2" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E2">
       <formula1>"Mobil, Motor, Rumah"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:E5" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E5">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -17703,12 +17721,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="15.0" collapsed="true"/>
-    <col min="3" max="5" bestFit="true" customWidth="true" style="7" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="14.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -17725,7 +17743,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>3642</v>
       </c>
@@ -17734,7 +17752,7 @@
       <c r="D2" s="44"/>
       <c r="E2" s="45"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>91</v>
       </c>
@@ -17755,7 +17773,7 @@
         <v>07</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>730</v>
       </c>
@@ -17772,7 +17790,7 @@
         <v>740</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>96</v>
       </c>
@@ -17793,7 +17811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>731</v>
       </c>
@@ -17810,7 +17828,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>1467</v>
       </c>
@@ -17831,7 +17849,7 @@
         <v>e2955</v>
       </c>
     </row>
-    <row customFormat="1" ht="135" r="8" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>732</v>
       </c>
@@ -17848,7 +17866,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>1468</v>
       </c>
@@ -17869,7 +17887,7 @@
         <v>e3822</v>
       </c>
     </row>
-    <row customFormat="1" ht="105" r="10" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>733</v>
       </c>
@@ -17886,7 +17904,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>3643</v>
       </c>
@@ -17895,7 +17913,7 @@
       <c r="D11" s="44"/>
       <c r="E11" s="45"/>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1649</v>
       </c>
@@ -17906,7 +17924,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>1650</v>
       </c>
@@ -17927,7 +17945,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="14" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>1651</v>
       </c>
@@ -17938,7 +17956,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1652</v>
       </c>
@@ -17949,7 +17967,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1653</v>
       </c>
@@ -17960,7 +17978,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>1657</v>
       </c>
@@ -17981,7 +17999,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>1654</v>
       </c>
@@ -17992,7 +18010,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>1656</v>
       </c>
@@ -18013,7 +18031,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>1655</v>
       </c>
@@ -18024,7 +18042,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>1659</v>
       </c>
@@ -18045,7 +18063,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="22" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>1658</v>
       </c>
@@ -18056,7 +18074,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row customFormat="1" ht="45" r="23" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>1660</v>
       </c>
@@ -18077,7 +18095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="24" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>1661</v>
       </c>
@@ -18088,7 +18106,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row customFormat="1" r="25" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>1662</v>
       </c>
@@ -18099,7 +18117,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row customFormat="1" r="26" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>1663</v>
       </c>
@@ -18120,7 +18138,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row customFormat="1" r="27" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1664</v>
       </c>
@@ -18129,7 +18147,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row customFormat="1" r="28" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>97</v>
       </c>
@@ -18146,7 +18164,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row customFormat="1" r="29" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>1665</v>
       </c>
@@ -18167,7 +18185,7 @@
         <v>BISNIS_SENDIRI</v>
       </c>
     </row>
-    <row customFormat="1" r="30" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>1666</v>
       </c>
@@ -18184,7 +18202,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row customFormat="1" r="31" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>1667</v>
       </c>
@@ -18201,7 +18219,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row customFormat="1" r="32" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>1668</v>
       </c>
@@ -18221,7 +18239,7 @@
         <v>FAMILY</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1669</v>
       </c>
@@ -18244,121 +18262,121 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C15:E16 C12:E12 C25:E25" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:E16 C12:E12 C25:E25">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B12 B15:B16 B25" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B15:B16 B25">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>ListDebtGroup</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>ListDebtorBusinessScale</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>ListCounterpart</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>ListSusFinBus</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
       <formula1>ListDebtGroupSLIK</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>ListAfWiMult</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>ListDeptAML</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>ListCSPUSL</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>ListPaymentTypeAML</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
       <formula1>ListAuthorityAML</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>ListBusinessSource</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B33" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
       <formula1>ListBuilding</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AT$2:$AT$109</xm:f>
           </x14:formula1>
           <xm:sqref>C33:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$M$2:$M$629</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$P$2:$P$107</xm:f>
           </x14:formula1>
           <xm:sqref>C6:E6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$S$2:$S$349</xm:f>
           </x14:formula1>
           <xm:sqref>C8:E8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$V$2:$V$115</xm:f>
           </x14:formula1>
           <xm:sqref>C10:E10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$Y$2:$Y$385</xm:f>
           </x14:formula1>
           <xm:sqref>C14:E14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AB$2:$AB$117</xm:f>
           </x14:formula1>
           <xm:sqref>C18:E18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AE$2:$AE$983</xm:f>
           </x14:formula1>
           <xm:sqref>C20:E20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AH$2:$AH$111</xm:f>
           </x14:formula1>
           <xm:sqref>C22:E22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AK$2:$AK$104</xm:f>
           </x14:formula1>
           <xm:sqref>C24:E24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AN$2:$AN$111</xm:f>
           </x14:formula1>
           <xm:sqref>C27:E27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Master!$AQ$2:$AQ$102</xm:f>
           </x14:formula1>
@@ -18371,8 +18389,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DC882"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DB882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
@@ -18380,46 +18398,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="15" width="42.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="14" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="17" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="17" width="23.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="17" width="35.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="19" width="18.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="17" width="29.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="17" width="22.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="17" width="33.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="17" width="20.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="17" width="255.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="17" width="12.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="22" width="80.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="17" width="12.5703125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="23" width="80.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="20" width="21.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="23" width="79.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="20" width="8.140625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="17" width="89.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="17" width="25.5703125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="17" width="23.0" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="20" width="28.5703125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="17" width="25.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="17" width="31.140625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" style="17" width="12.42578125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" style="17" width="17.42578125" collapsed="true"/>
-    <col min="48" max="48" style="17" width="9.140625" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" style="17" width="97.7109375" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" style="17" width="22.5703125" collapsed="true"/>
-    <col min="53" max="53" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="42.140625" style="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.28515625" style="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30" style="17" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.42578125" style="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="33.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="255.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="80.140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="80.7109375" style="23" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="79.85546875" style="23" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="89" style="17" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="25.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23" style="17" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="25.140625" style="17" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="31.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.42578125" style="17" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="17.42578125" style="17" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="9.140625" style="17" collapsed="1"/>
+    <col min="49" max="49" width="97.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="22.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>3361</v>
       </c>
@@ -19304,7 +19322,7 @@
         <v>4137</v>
       </c>
     </row>
-    <row ht="30" r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>115</v>
       </c>
@@ -19383,7 +19401,7 @@
         <v>4138</v>
       </c>
     </row>
-    <row ht="30" r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>117</v>
       </c>
@@ -19451,7 +19469,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row ht="30" r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -22815,7 +22833,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row ht="30" r="77" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>247</v>
       </c>
@@ -22865,7 +22883,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row ht="30" r="78" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>249</v>
       </c>
@@ -23465,7 +23483,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row ht="30" r="90" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>271</v>
       </c>
@@ -23515,7 +23533,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row ht="30" r="91" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>272</v>
       </c>
@@ -24092,7 +24110,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row ht="30" r="103" spans="10:106" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:106" ht="30" x14ac:dyDescent="0.25">
       <c r="J103" s="18" t="s">
         <v>489</v>
       </c>
@@ -24136,7 +24154,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row ht="30" r="104" spans="10:106" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:106" ht="30" x14ac:dyDescent="0.25">
       <c r="J104" s="18" t="s">
         <v>390</v>
       </c>
@@ -24356,7 +24374,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row ht="30" r="109" spans="10:106" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:106" ht="30" x14ac:dyDescent="0.25">
       <c r="J109" s="18" t="s">
         <v>410</v>
       </c>
@@ -24620,7 +24638,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row ht="30" r="115" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="J115" s="18" t="s">
         <v>509</v>
       </c>
@@ -24664,7 +24682,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row ht="30" r="116" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="J116" s="18" t="s">
         <v>511</v>
       </c>
@@ -25632,7 +25650,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row ht="30" r="138" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="J138" s="18" t="s">
         <v>550</v>
       </c>
@@ -26228,7 +26246,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row ht="30" r="152" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="K152" s="20"/>
       <c r="M152" s="18" t="s">
         <v>884</v>
@@ -26267,7 +26285,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row ht="30" r="153" spans="10:54" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:54" ht="30" x14ac:dyDescent="0.25">
       <c r="K153" s="20"/>
       <c r="M153" s="18" t="s">
         <v>885</v>
@@ -33123,8 +33141,8 @@
       <c r="AF882" s="20"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="19">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="4179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="4180">
   <si>
     <t>Full Name</t>
   </si>
@@ -12935,6 +12935,9 @@
   </si>
   <si>
     <t>Spouse Monthly Income</t>
+  </si>
+  <si>
+    <t>Is Join Income</t>
   </si>
 </sst>
 </file>
@@ -17162,10 +17165,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17353,100 +17356,92 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
         <v>3640</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B12" s="39">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>1000000001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>1000000002</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>1000000003</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
         <v>3641</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>192974891</v>
       </c>
-      <c r="C13" s="3" t="str">
-        <f>VLOOKUP(C14,Master!$J$1:$K$204,2,FALSE)</f>
+      <c r="C14" s="3" t="str">
+        <f>VLOOKUP(C15,Master!$J$1:$K$204,2,FALSE)</f>
         <v>014</v>
       </c>
-      <c r="D13" s="3" t="str">
-        <f>VLOOKUP(D14,Master!$J$1:$K$204,2,FALSE)</f>
+      <c r="D14" s="3" t="str">
+        <f>VLOOKUP(D15,Master!$J$1:$K$204,2,FALSE)</f>
         <v>014</v>
       </c>
-      <c r="E13" s="3" t="str">
-        <f>VLOOKUP(E14,Master!$J$1:$K$204,2,FALSE)</f>
+      <c r="E14" s="3" t="str">
+        <f>VLOOKUP(E15,Master!$J$1:$K$204,2,FALSE)</f>
         <v>014</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -17457,81 +17452,87 @@
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4166</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4165</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>4168</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -17547,24 +17548,41 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B21" s="12">
         <v>5000000000</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A12:XFD12"/>
+    <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A13:XFD13"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:K20 B18:F19">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:K21 B19:F20">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:K5">
@@ -17578,16 +17596,19 @@
       <formula1>0</formula1>
       <formula2>9.99999999999999E+22</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+23</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>ListBank</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10:E10">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17600,7 +17621,7 @@
           <x14:formula1>
             <xm:f>Master!$J$2:$J$305</xm:f>
           </x14:formula1>
-          <xm:sqref>C14:E14</xm:sqref>
+          <xm:sqref>C15:E15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="644" firstSheet="2" activeTab="4"/>
+    <workbookView activeTab="4" tabRatio="644" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1.CustomerDetail" sheetId="1" r:id="rId1"/>
-    <sheet name="2.AddressInformation" sheetId="2" r:id="rId2"/>
-    <sheet name="3.JobData" sheetId="3" r:id="rId3"/>
-    <sheet name="4.EmergencyContact" sheetId="4" r:id="rId4"/>
-    <sheet name="5.FinancialData" sheetId="5" r:id="rId5"/>
-    <sheet name="6.CustomerAsset" sheetId="6" r:id="rId6"/>
-    <sheet name="7.OtherAttribute" sheetId="7" r:id="rId7"/>
-    <sheet name="Master" sheetId="8" r:id="rId8"/>
+    <sheet name="1.CustomerDetail" r:id="rId1" sheetId="1"/>
+    <sheet name="2.AddressInformation" r:id="rId2" sheetId="2"/>
+    <sheet name="3.JobData" r:id="rId3" sheetId="3"/>
+    <sheet name="4.EmergencyContact" r:id="rId4" sheetId="4"/>
+    <sheet name="5.FinancialData" r:id="rId5" sheetId="5"/>
+    <sheet name="6.CustomerAsset" r:id="rId6" sheetId="6"/>
+    <sheet name="7.OtherAttribute" r:id="rId7" sheetId="7"/>
+    <sheet name="Master" r:id="rId8" sheetId="8"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="7" hidden="1">Master!$A$1:$B$95</definedName>
-    <definedName name="ExternalData_10" localSheetId="7" hidden="1">Master!$AB$1:$AC$16</definedName>
-    <definedName name="ExternalData_11" localSheetId="7" hidden="1">Master!$AE$1:$AF$492</definedName>
-    <definedName name="ExternalData_12" localSheetId="7" hidden="1">Master!$AH$1:$AI$10</definedName>
-    <definedName name="ExternalData_13" localSheetId="7" hidden="1">Master!$AK$1:$AL$3</definedName>
-    <definedName name="ExternalData_14" localSheetId="7" hidden="1">Master!$AN$1:$AO$9</definedName>
-    <definedName name="ExternalData_15" localSheetId="7" hidden="1">Master!$AQ$1:$AR$2</definedName>
-    <definedName name="ExternalData_16" localSheetId="7" hidden="1">Master!$AT$1:$AU$8</definedName>
-    <definedName name="ExternalData_17" localSheetId="7" hidden="1">Master!$AW$1:$AX$263</definedName>
-    <definedName name="ExternalData_18" localSheetId="7" hidden="1">Master!$BA$1:$BB$242</definedName>
-    <definedName name="ExternalData_19" localSheetId="7" hidden="1">Master!$BE$1:$BE$10</definedName>
-    <definedName name="ExternalData_2" localSheetId="7" hidden="1">Master!$E$1:$E$30</definedName>
-    <definedName name="ExternalData_3" localSheetId="7" hidden="1">Master!$H$1:$H$14</definedName>
-    <definedName name="ExternalData_4" localSheetId="7" hidden="1">Master!$J$1:$K$147</definedName>
-    <definedName name="ExternalData_5" localSheetId="7" hidden="1">Master!$M$1:$N$315</definedName>
-    <definedName name="ExternalData_6" localSheetId="7" hidden="1">Master!$P$1:$Q$6</definedName>
-    <definedName name="ExternalData_7" localSheetId="7" hidden="1">Master!$S$1:$T$175</definedName>
-    <definedName name="ExternalData_8" localSheetId="7" hidden="1">Master!$V$1:$W$14</definedName>
-    <definedName name="ExternalData_9" localSheetId="7" hidden="1">Master!$Y$1:$Z$193</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_1">Master!$A$1:$B$95</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_10">Master!$AB$1:$AC$16</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_11">Master!$AE$1:$AF$492</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_12">Master!$AH$1:$AI$10</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_13">Master!$AK$1:$AL$3</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_14">Master!$AN$1:$AO$9</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_15">Master!$AQ$1:$AR$2</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_16">Master!$AT$1:$AU$8</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_17">Master!$AW$1:$AX$263</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_18">Master!$BA$1:$BB$242</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_19">Master!$BE$1:$BE$10</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_2">Master!$E$1:$E$30</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_3">Master!$H$1:$H$14</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_4">Master!$J$1:$K$147</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_5">Master!$M$1:$N$315</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_6">Master!$P$1:$Q$6</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_7">Master!$S$1:$T$175</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_8">Master!$V$1:$W$14</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_9">Master!$Y$1:$Z$193</definedName>
     <definedName name="ListAfWiMult">Master!$AB$2:INDEX(Master!$AB:$AB,SUMPRODUCT(--(Master!$AB:$AB&lt;&gt;"")))</definedName>
     <definedName name="ListAuthorityAML">Master!$AN$2:INDEX(Master!$AN:$AN,SUMPRODUCT(--(Master!$AN:$AN&lt;&gt;"")))</definedName>
     <definedName name="ListBank">Master!$J$2:INDEX(Master!$J:$J,SUMPRODUCT(--(Master!$J:$J&lt;&gt;"")))</definedName>
@@ -62,7 +62,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -75,7 +75,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A16" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A66" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A93" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A93" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A8" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A28" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A31" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="4180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4552" uniqueCount="4178">
   <si>
     <t>Full Name</t>
   </si>
@@ -12817,9 +12817,6 @@
     <t>Previous Job</t>
   </si>
   <si>
-    <t>Ala</t>
-  </si>
-  <si>
     <t>Permanent</t>
   </si>
   <si>
@@ -12922,22 +12919,19 @@
     <t>721382838128</t>
   </si>
   <si>
-    <t>CAL CRUBERG</t>
-  </si>
-  <si>
     <t>WARNING</t>
   </si>
   <si>
     <t>FT RICKY</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Spouse Monthly Income</t>
   </si>
   <si>
     <t>Is Join Income</t>
+  </si>
+  <si>
+    <t>BLI GUNG</t>
   </si>
 </sst>
 </file>
@@ -13089,92 +13083,95 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="49">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="70">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13193,7 +13190,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13202,7 +13199,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13227,7 +13224,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13236,7 +13233,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13267,17 +13264,17 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="top" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13302,24 +13299,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13328,7 +13325,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13337,10 +13334,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13349,7 +13346,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13374,7 +13371,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13383,7 +13380,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13408,7 +13405,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13417,7 +13414,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13442,24 +13439,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13468,7 +13465,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13477,27 +13474,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13506,7 +13503,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13515,27 +13512,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13544,20 +13541,20 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13566,7 +13563,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13583,7 +13580,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13592,7 +13589,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13601,7 +13598,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13618,7 +13615,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13627,7 +13624,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13636,7 +13633,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13653,7 +13650,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13662,7 +13659,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13671,7 +13668,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13696,7 +13693,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13713,7 +13710,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13730,24 +13727,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13756,7 +13753,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13765,7 +13762,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13789,7 +13786,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -14008,208 +14005,208 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Query_Job_Profession" displayName="Query_Job_Profession" ref="A1:B95" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="65" displayName="Query_Job_Profession" headerRowDxfId="66" id="1" insertRowShift="1" name="Query_Job_Profession" ref="A1:B95" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B95"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="JOB PROFESSION NAME" queryTableFieldId="1" dataDxfId="64"/>
-    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="63"/>
+    <tableColumn dataDxfId="64" id="1" name="JOB PROFESSION NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="63" id="2" name="JOB POSITION CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Query_Affiliate_with_Multifinance" displayName="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="33" displayName="Query_Affiliate_with_Multifinance" headerRowDxfId="34" id="10" insertRowShift="1" name="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AC16"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" dataDxfId="32"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="31"/>
+    <tableColumn dataDxfId="32" id="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="31" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Query_Department_AML" displayName="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="29" displayName="Query_Department_AML" headerRowDxfId="30" id="11" insertRowShift="1" name="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AE1:AF492"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="28"/>
-    <tableColumn id="2" uniqueName="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="27"/>
+    <tableColumn dataDxfId="28" id="1" name="DEPARTMENT AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="27" id="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Query_csp_usl_source_aml" displayName="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="25" displayName="Query_csp_usl_source_aml" headerRowDxfId="26" id="12" insertRowShift="1" name="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AI10"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" dataDxfId="24"/>
-    <tableColumn id="2" uniqueName="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn dataDxfId="24" id="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="23" id="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Query_payment_type_aml" displayName="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="21" displayName="Query_payment_type_aml" headerRowDxfId="22" id="13" insertRowShift="1" name="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AK1:AL3"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="PAYMENT TYPE AML" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn dataDxfId="20" id="1" name="PAYMENT TYPE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="19" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Query_authority_aml" displayName="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="17" displayName="Query_authority_aml" headerRowDxfId="18" id="14" insertRowShift="1" name="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AO9"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="16"/>
-    <tableColumn id="2" uniqueName="2" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn dataDxfId="16" id="1" name="AUTHORITY AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="15" id="2" name="AUTHORITY AML2" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Query_Business_Source" displayName="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="13" displayName="Query_Business_Source" headerRowDxfId="14" id="15" insertRowShift="1" name="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AQ1:AR2"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn dataDxfId="12" id="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="11" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="query_building" displayName="query_building" ref="AT1:AU8" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="9" displayName="query_building" headerRowDxfId="10" id="16" insertRowShift="1" name="query_building" ref="AT1:AU8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AT1:AU8"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BUILDING" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" uniqueName="2" name="BUILDING CODE" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn dataDxfId="8" id="1" name="BUILDING" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="7" id="2" name="BUILDING CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Query_Industry_Type" displayName="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="5" displayName="Query_Industry_Type" headerRowDxfId="6" id="17" insertRowShift="1" name="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AW1:AX263"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" uniqueName="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn dataDxfId="4" id="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="3" id="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Query_Country" displayName="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Country" headerRowDxfId="2" id="18" name="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BA1:BB242"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="COUNTRY NAME" queryTableFieldId="1"/>
-    <tableColumn id="6" uniqueName="6" name="COUNTRY CODE" queryTableFieldId="2"/>
+    <tableColumn id="5" name="COUNTRY NAME" queryTableFieldId="1" uniqueName="5"/>
+    <tableColumn id="6" name="COUNTRY CODE" queryTableFieldId="2" uniqueName="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Copy_Address_From" displayName="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Copy_Address_From" headerRowDxfId="1" id="19" name="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BE1:BE10"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Copy Address" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn dataDxfId="0" id="3" name="Copy Address" queryTableFieldId="1" uniqueName="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Query_Job_Position" displayName="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Job_Position" headerRowDxfId="62" id="2" name="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:E30"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="61"/>
+    <tableColumn dataDxfId="61" id="1" name="JOB POSITION NAME" queryTableFieldId="1" uniqueName="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Query_Customer_Relationship" displayName="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Customer_Relationship" headerRowDxfId="60" id="3" name="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="H1:H14"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Customer Relationship" queryTableFieldId="1" dataDxfId="59"/>
+    <tableColumn dataDxfId="59" id="1" name="Customer Relationship" queryTableFieldId="1" uniqueName="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Query_Bank" displayName="Query_Bank" ref="J1:K147" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="57" displayName="Query_Bank" headerRowDxfId="58" id="4" insertRowShift="1" name="Query_Bank" ref="J1:K147" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="J1:K147"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BANK NAME" queryTableFieldId="1" dataDxfId="56"/>
-    <tableColumn id="2" uniqueName="2" name="BANK CODE" queryTableFieldId="2" dataDxfId="55"/>
+    <tableColumn dataDxfId="56" id="1" name="BANK NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="55" id="2" name="BANK CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Query_Debtor_Group" displayName="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="53" displayName="Query_Debtor_Group" headerRowDxfId="54" id="5" insertRowShift="1" name="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N315"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" dataDxfId="52"/>
-    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" dataDxfId="51"/>
+    <tableColumn dataDxfId="52" id="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="51" id="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Query_Debtor_Business_Scale" displayName="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="49" displayName="Query_Debtor_Business_Scale" headerRowDxfId="50" id="6" insertRowShift="1" name="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="P1:Q6"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Debtor Business Scale Description" queryTableFieldId="1" dataDxfId="48"/>
-    <tableColumn id="2" uniqueName="2" name="Debtor Group Code" queryTableFieldId="2" dataDxfId="47"/>
+    <tableColumn dataDxfId="48" id="1" name="Debtor Business Scale Description" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="47" id="2" name="Debtor Group Code" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Query_Counterpart" displayName="Query_Counterpart" ref="S1:T175" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="45" displayName="Query_Counterpart" headerRowDxfId="46" id="7" insertRowShift="1" name="Query_Counterpart" ref="S1:T175" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="S1:T175"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Counterpart Category" queryTableFieldId="1" dataDxfId="44"/>
-    <tableColumn id="2" uniqueName="2" name="LBPP CODE" queryTableFieldId="2" dataDxfId="43"/>
+    <tableColumn dataDxfId="44" id="1" name="Counterpart Category" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="43" id="2" name="LBPP CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Query_Sustainable_Financial" displayName="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="41" displayName="Query_Sustainable_Financial" headerRowDxfId="42" id="8" insertRowShift="1" name="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:W14"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Sustainable Financial Business" queryTableFieldId="1" dataDxfId="40"/>
-    <tableColumn id="2" uniqueName="2" name="LBPP Code" queryTableFieldId="2" dataDxfId="39"/>
+    <tableColumn dataDxfId="40" id="1" name="Sustainable Financial Business" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="39" id="2" name="LBPP Code" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Query_debtor_group_slik" displayName="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="37" displayName="Query_debtor_group_slik" headerRowDxfId="38" id="9" insertRowShift="1" name="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Y1:Z193"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" dataDxfId="36"/>
-    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" dataDxfId="35"/>
+    <tableColumn dataDxfId="36" id="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="35" id="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -14218,10 +14215,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14256,7 +14253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -14291,7 +14288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -14385,21 +14382,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -14416,7 +14413,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -14468,34 +14465,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3353</v>
@@ -14507,12 +14504,12 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4174</v>
+        <v>4177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -14524,7 +14521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -14532,10 +14529,10 @@
         <v>4177</v>
       </c>
       <c r="C3" t="s">
-        <v>4176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4174</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -14550,7 +14547,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -14565,7 +14562,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -14580,7 +14577,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -14597,7 +14594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -14614,7 +14611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -14631,15 +14628,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4166</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>14</v>
       </c>
@@ -14656,17 +14653,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>18</v>
       </c>
@@ -14683,7 +14680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>3645</v>
       </c>
@@ -14704,7 +14701,7 @@
         <v>COUNTRY001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>20</v>
       </c>
@@ -14727,47 +14724,45 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4142</v>
+      </c>
+    </row>
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4144</v>
+      </c>
+    </row>
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>4139</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>4131</v>
       </c>
@@ -14786,65 +14781,65 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD16">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule dxfId="69" priority="2" type="expression">
       <formula>AND(A$14&lt;&gt;"Foreigner",A$14&lt;&gt;"",A$14&lt;&gt;"Nationality")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD19">
-    <cfRule type="expression" dxfId="68" priority="1">
+    <cfRule dxfId="68" priority="1" type="expression">
       <formula>A$8="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:K18">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F18:K18" type="list">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:K17">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F17:K17" type="list">
       <formula1>"S1, S2, S3, SD, SMP, SMA"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B10:K10"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:K9">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B10:K10"/>
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B7:K9" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:K14">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F14:K14" type="list">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F11:K11">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F11:K11" type="list">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E14">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:E14" type="list">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:E11">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11:E11" type="list">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="custom">
       <formula1>B$14="Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19:E19" type="custom">
       <formula1>B$8="Yes"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B5" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16" type="list">
       <formula1>IF(B$14="Foreigner",ListCountry)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:E17">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:E17" type="list">
       <formula1>"S1, S2, S3, SD, SMP, SMA, D3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:E18">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18:E18" type="list">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu, AGNOSTIK"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>IF(C$14="Foreigner",Master!$BA$2:$BA$342)</xm:f>
           </x14:formula1>
@@ -14857,8 +14852,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -14866,16 +14861,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3353</v>
@@ -14887,7 +14882,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>25</v>
       </c>
@@ -14904,7 +14899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -14923,12 +14918,12 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -14946,7 +14941,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>32</v>
       </c>
@@ -14969,7 +14964,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>33</v>
       </c>
@@ -14992,7 +14987,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>34</v>
       </c>
@@ -15015,12 +15010,12 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>36</v>
@@ -15038,12 +15033,12 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
@@ -15061,12 +15056,12 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>290</v>
@@ -15084,7 +15079,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>291</v>
       </c>
@@ -15099,7 +15094,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>292</v>
       </c>
@@ -15114,7 +15109,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>293</v>
       </c>
@@ -15129,7 +15124,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>294</v>
       </c>
@@ -15144,7 +15139,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>295</v>
       </c>
@@ -15159,7 +15154,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>296</v>
       </c>
@@ -15174,7 +15169,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>297</v>
       </c>
@@ -15189,7 +15184,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>298</v>
       </c>
@@ -15204,7 +15199,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>299</v>
       </c>
@@ -15219,7 +15214,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>300</v>
       </c>
@@ -15234,7 +15229,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>301</v>
       </c>
@@ -15249,7 +15244,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>40</v>
       </c>
@@ -15268,36 +15263,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:XFD10">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule dxfId="67" priority="1" type="expression">
       <formula>AND(A$3&lt;&gt;"",A$3&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22:K22">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B22:K22" type="list">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:K2">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B2:K2" type="list">
       <formula1>"Legal, Mailing, Residence, Residence 2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:K3">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I3:K3" type="list">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:B10" type="custom">
       <formula1>ISBLANK(B$3)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$110</xm:f>
           </x14:formula1>
           <xm:sqref>C3:H3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$20</xm:f>
           </x14:formula1>
@@ -15310,25 +15305,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3353</v>
@@ -15340,22 +15335,22 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row customFormat="1" r="2" s="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>3633</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>42</v>
       </c>
@@ -15382,7 +15377,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>99</v>
       </c>
@@ -15405,7 +15400,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>44</v>
       </c>
@@ -15428,15 +15423,15 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>48</v>
@@ -15451,7 +15446,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -15468,7 +15463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -15485,7 +15480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>280</v>
       </c>
@@ -15493,7 +15488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>281</v>
       </c>
@@ -15511,7 +15506,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>282</v>
       </c>
@@ -15528,7 +15523,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -15542,7 +15537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>54</v>
       </c>
@@ -15565,7 +15560,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>283</v>
       </c>
@@ -15586,7 +15581,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -15607,12 +15602,12 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>4146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>42</v>
       </c>
@@ -15633,7 +15628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -15644,7 +15639,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -15652,14 +15647,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="B21" s="1" t="str">
         <f>VLOOKUP(B22,Master!$AW:$AX,2,FALSE)</f>
@@ -15678,31 +15673,31 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>4148</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row customFormat="1" r="23" s="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>4149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>4150</v>
       </c>
       <c r="B23" s="1">
         <v>1823612693</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="B24" s="37">
         <v>44056</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>283</v>
       </c>
@@ -15710,12 +15705,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
-        <v>4152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row customFormat="1" r="27" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>42</v>
       </c>
@@ -15724,7 +15719,7 @@
         <v>CLG_STD</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
@@ -15732,17 +15727,17 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>4153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row customFormat="1" r="31" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>42</v>
       </c>
@@ -15751,7 +15746,7 @@
         <v>ENTR</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -15759,7 +15754,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -15767,7 +15762,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -15775,45 +15770,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4153</v>
+      </c>
+    </row>
+    <row customFormat="1" r="36" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="B36" s="1" t="str">
         <f>VLOOKUP(B37,Master!$AW:$AX,2,FALSE)</f>
         <v>1119</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row customFormat="1" r="38" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>4155</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row customFormat="1" r="39" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>4156</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="36" t="s">
         <v>4157</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="40" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>283</v>
       </c>
@@ -15821,7 +15816,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -15829,32 +15824,32 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>4159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row customFormat="1" r="43" s="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="46" t="s">
         <v>3634</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="45"/>
-    </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="48"/>
+    </row>
+    <row customFormat="1" r="44" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>29</v>
@@ -15866,7 +15861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>32</v>
       </c>
@@ -15889,7 +15884,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>33</v>
       </c>
@@ -15912,7 +15907,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>34</v>
       </c>
@@ -15935,12 +15930,12 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>36</v>
@@ -15958,7 +15953,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>37</v>
       </c>
@@ -15981,7 +15976,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>38</v>
       </c>
@@ -16004,7 +15999,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
@@ -16019,7 +16014,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>291</v>
       </c>
@@ -16034,7 +16029,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>292</v>
       </c>
@@ -16049,7 +16044,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>293</v>
       </c>
@@ -16064,7 +16059,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>294</v>
       </c>
@@ -16079,7 +16074,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>295</v>
       </c>
@@ -16094,7 +16089,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>296</v>
       </c>
@@ -16109,7 +16104,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>297</v>
       </c>
@@ -16124,7 +16119,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>298</v>
       </c>
@@ -16139,7 +16134,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>299</v>
       </c>
@@ -16154,7 +16149,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>300</v>
       </c>
@@ -16169,7 +16164,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>301</v>
       </c>
@@ -16184,7 +16179,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>40</v>
       </c>
@@ -16198,53 +16193,53 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
+    <row customFormat="1" r="64" s="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="46" t="s">
         <v>3635</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="45"/>
-    </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="48"/>
+    </row>
+    <row customFormat="1" r="65" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B66" s="37"/>
     </row>
-    <row r="67" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
+    <row customFormat="1" r="67" s="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="46" t="s">
         <v>3636</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="45"/>
-    </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="48"/>
+    </row>
+    <row customFormat="1" r="68" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>29</v>
@@ -16256,7 +16251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>346</v>
       </c>
@@ -16279,7 +16274,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>347</v>
       </c>
@@ -16302,7 +16297,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>348</v>
       </c>
@@ -16325,12 +16320,12 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>36</v>
@@ -16348,12 +16343,12 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>350</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>36</v>
@@ -16371,12 +16366,12 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>290</v>
@@ -16394,7 +16389,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>352</v>
       </c>
@@ -16409,7 +16404,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>353</v>
       </c>
@@ -16424,7 +16419,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>354</v>
       </c>
@@ -16439,7 +16434,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>355</v>
       </c>
@@ -16454,7 +16449,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>356</v>
       </c>
@@ -16469,7 +16464,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>357</v>
       </c>
@@ -16484,7 +16479,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>358</v>
       </c>
@@ -16499,7 +16494,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>359</v>
       </c>
@@ -16514,7 +16509,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>360</v>
       </c>
@@ -16529,7 +16524,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>361</v>
       </c>
@@ -16544,7 +16539,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>362</v>
       </c>
@@ -16559,7 +16554,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>363</v>
       </c>
@@ -16574,7 +16569,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>364</v>
       </c>
@@ -16588,63 +16583,63 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="43" t="s">
+    <row customFormat="1" r="88" s="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="46" t="s">
         <v>3637</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="45"/>
-    </row>
-    <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="48"/>
+    </row>
+    <row customFormat="1" r="89" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B93" s="37"/>
     </row>
-    <row r="94" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="43" t="s">
+    <row customFormat="1" r="94" s="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="46" t="s">
         <v>3638</v>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="45"/>
-    </row>
-    <row r="95" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="48"/>
+    </row>
+    <row customFormat="1" r="95" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>325</v>
       </c>
@@ -16658,7 +16653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>326</v>
       </c>
@@ -16679,7 +16674,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>327</v>
       </c>
@@ -16700,7 +16695,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>328</v>
       </c>
@@ -16721,7 +16716,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>329</v>
       </c>
@@ -16735,7 +16730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>330</v>
       </c>
@@ -16749,7 +16744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>331</v>
       </c>
@@ -16763,7 +16758,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>332</v>
       </c>
@@ -16778,7 +16773,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>333</v>
       </c>
@@ -16793,7 +16788,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>334</v>
       </c>
@@ -16808,7 +16803,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>335</v>
       </c>
@@ -16823,7 +16818,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>336</v>
       </c>
@@ -16838,7 +16833,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>337</v>
       </c>
@@ -16853,7 +16848,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>338</v>
       </c>
@@ -16868,7 +16863,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>339</v>
       </c>
@@ -16883,7 +16878,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>340</v>
       </c>
@@ -16898,7 +16893,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>341</v>
       </c>
@@ -16913,7 +16908,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>342</v>
       </c>
@@ -16928,7 +16923,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>343</v>
       </c>
@@ -16943,7 +16938,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>344</v>
       </c>
@@ -16970,60 +16965,60 @@
     <mergeCell ref="A88:XFD88"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:K8 F11:K11 B19:E19 B34">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:K8 F11:K11 B19:E19 B34" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C87:K87 C63:K63 C114:K114">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="C87:K87 C63:K63 C114:K114" type="list">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:K6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:K6" type="list">
       <formula1>"Contract, Permanent"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B41">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15 B41" type="whole">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B18:E18 B32 B28">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4 B18:E18 B32 B28" type="list">
       <formula1>ListJobProfession</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B33">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5 B33" type="list">
       <formula1>ListJobPosition</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B22:E22 B37">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B11 B22:E22 B37" type="list">
       <formula1>ListIndustryType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63 B87 B114">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B63 B87 B114" type="list">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
       <formula1>"Domestic Investment, Foreign Investment"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$29</xm:f>
           </x14:formula1>
           <xm:sqref>F5:K5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$A$2:$A$195</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$129</xm:f>
           </x14:formula1>
           <xm:sqref>C5:E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AW$2:$AW$515</xm:f>
           </x14:formula1>
@@ -17036,8 +17031,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -17045,19 +17040,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3353</v>
@@ -17069,7 +17064,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>365</v>
       </c>
@@ -17077,7 +17072,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>58</v>
       </c>
@@ -17100,7 +17095,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>62</v>
       </c>
@@ -17123,7 +17118,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -17136,22 +17131,22 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:K3">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F3:K3" type="list">
       <formula1>"AKTA, CAT CAT, CAT IS A CAT, DESCRIPTION FOR AAA, DESCRIPTION FOR ASA, DESCRIPTION FOR KTP, E-KTP, KITAS, NPWP, SIM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:E5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:E5" type="list">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
       <formula1>ListCusRel</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$H$2:$H$113</xm:f>
           </x14:formula1>
@@ -17164,25 +17159,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>4175</v>
+        <v>4141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3353</v>
@@ -17194,22 +17189,22 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row customFormat="1" r="2" s="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>3639</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>65</v>
       </c>
@@ -17232,7 +17227,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -17253,7 +17248,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -17276,7 +17271,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -17297,7 +17292,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -17318,7 +17313,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>379</v>
       </c>
@@ -17341,14 +17336,16 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>4178</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+        <v>4175</v>
+      </c>
+      <c r="B9" s="38">
+        <v>3000000</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -17356,37 +17353,39 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>4179</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+    <row customFormat="1" r="10" s="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+    </row>
+    <row customFormat="1" r="11" s="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
         <v>3640</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -17409,27 +17408,28 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+    <row customFormat="1" r="13" s="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>3641</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
+    </row>
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="3">
-        <v>192974891</v>
+      <c r="B14" s="3" t="str">
+        <f>VLOOKUP(B15,Master!$J$1:$K$204,2,FALSE)</f>
+        <v>014</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>VLOOKUP(C15,Master!$J$1:$K$204,2,FALSE)</f>
@@ -17450,7 +17450,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>728</v>
       </c>
@@ -17473,12 +17473,12 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>77</v>
@@ -17490,12 +17490,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>79</v>
@@ -17507,12 +17507,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>82</v>
@@ -17530,7 +17530,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>729</v>
       </c>
@@ -17582,42 +17582,42 @@
     <mergeCell ref="A13:XFD13"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:K21 B19:F20">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G19:K21 B19:F20" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:K5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B5:K5" type="list">
       <formula1>"Business, Online Shop, Salary, Stock Trading"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B3:B4" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+27</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:B7" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+22</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B21" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+23</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15" type="list">
       <formula1>ListBank</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10:E10">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B10:E10" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$J$2:$J$305</xm:f>
           </x14:formula1>
@@ -17630,8 +17630,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -17639,16 +17639,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3353</v>
@@ -17660,7 +17660,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>85</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>89</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>90</v>
       </c>
@@ -17720,21 +17720,21 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:E2" type="list">
       <formula1>"Mobil, Motor, Rumah"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4:E5" type="whole">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -17742,17 +17742,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="14.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="15.0" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" style="7" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3353</v>
@@ -17764,16 +17764,16 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row customFormat="1" r="2" s="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>3642</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>91</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>07</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>730</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>96</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>731</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>1467</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>e2955</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="135" r="8" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>732</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>1468</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>e3822</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="105" r="10" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>733</v>
       </c>
@@ -17925,27 +17925,27 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+    <row customFormat="1" r="11" s="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
         <v>3643</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+    </row>
+    <row customFormat="1" r="12" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1649</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>1650</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="14" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>1651</v>
       </c>
@@ -17977,29 +17977,29 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1652</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1653</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>1657</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>1654</v>
       </c>
@@ -18031,7 +18031,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>1656</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>1655</v>
       </c>
@@ -18063,7 +18063,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>1659</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="22" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>1658</v>
       </c>
@@ -18095,7 +18095,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="23" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>1660</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="24" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>1661</v>
       </c>
@@ -18127,18 +18127,18 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>1662</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>1663</v>
       </c>
@@ -18159,7 +18159,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1664</v>
       </c>
@@ -18168,7 +18168,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>97</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>1665</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>BISNIS_SENDIRI</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>1666</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>1667</v>
       </c>
@@ -18240,12 +18240,12 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>1668</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="C32" s="10" t="str">
         <f>VLOOKUP(C33,Master!$AT:$AU,2,FALSE)</f>
@@ -18260,7 +18260,7 @@
         <v>FAMILY</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1669</v>
       </c>
@@ -18283,121 +18283,121 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:E16 C12:E12 C25:E25">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C15:E16 C12:E12 C25:E25" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B15:B16 B25">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B12 B15:B16 B25" type="list">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
       <formula1>ListDebtGroup</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
       <formula1>ListDebtorBusinessScale</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
       <formula1>ListCounterpart</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
       <formula1>ListSusFinBus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14" type="list">
       <formula1>ListDebtGroupSLIK</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18" type="list">
       <formula1>ListAfWiMult</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
       <formula1>ListDeptAML</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
       <formula1>ListCSPUSL</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
       <formula1>ListPaymentTypeAML</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
       <formula1>ListAuthorityAML</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
       <formula1>ListBusinessSource</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B33" type="list">
       <formula1>ListBuilding</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AT$2:$AT$109</xm:f>
           </x14:formula1>
           <xm:sqref>C33:E33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$M$2:$M$629</xm:f>
           </x14:formula1>
           <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$P$2:$P$107</xm:f>
           </x14:formula1>
           <xm:sqref>C6:E6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$S$2:$S$349</xm:f>
           </x14:formula1>
           <xm:sqref>C8:E8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$V$2:$V$115</xm:f>
           </x14:formula1>
           <xm:sqref>C10:E10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$Y$2:$Y$385</xm:f>
           </x14:formula1>
           <xm:sqref>C14:E14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AB$2:$AB$117</xm:f>
           </x14:formula1>
           <xm:sqref>C18:E18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AE$2:$AE$983</xm:f>
           </x14:formula1>
           <xm:sqref>C20:E20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AH$2:$AH$111</xm:f>
           </x14:formula1>
           <xm:sqref>C22:E22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AK$2:$AK$104</xm:f>
           </x14:formula1>
           <xm:sqref>C24:E24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AN$2:$AN$111</xm:f>
           </x14:formula1>
           <xm:sqref>C27:E27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$AQ$2:$AQ$102</xm:f>
           </x14:formula1>
@@ -18410,8 +18410,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB882"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DC882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
@@ -18419,46 +18419,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.28515625" style="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30" style="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.85546875" style="19" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="33.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="255.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="80.140625" style="22" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="80.7109375" style="23" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="21.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="79.85546875" style="23" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="8.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="89" style="17" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="25.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23" style="17" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="25.140625" style="17" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="31.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="12.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="17.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="9.140625" style="17" collapsed="1"/>
-    <col min="49" max="49" width="97.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="22.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="15" width="42.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="17" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="17" width="23.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="17" width="35.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="19" width="18.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="29.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="17" width="22.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="17" width="33.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="17" width="20.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="17" width="255.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="17" width="12.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="22" width="80.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="17" width="12.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="23" width="80.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="20" width="21.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="23" width="79.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="20" width="8.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="17" width="89.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="17" width="25.5703125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="17" width="23.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="20" width="28.5703125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="17" width="25.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="17" width="31.140625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="17" width="12.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="17" width="17.42578125" collapsed="true"/>
+    <col min="48" max="48" style="17" width="9.140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="17" width="97.7109375" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="17" width="22.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>3361</v>
       </c>
@@ -19343,7 +19343,7 @@
         <v>4137</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>115</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>4138</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>117</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>247</v>
       </c>
@@ -22904,7 +22904,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>249</v>
       </c>
@@ -23504,7 +23504,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="90" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>271</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="91" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="91" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>272</v>
       </c>
@@ -24131,7 +24131,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="103" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="103" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J103" s="18" t="s">
         <v>489</v>
       </c>
@@ -24175,7 +24175,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row r="104" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="104" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J104" s="18" t="s">
         <v>390</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="109" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="109" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J109" s="18" t="s">
         <v>410</v>
       </c>
@@ -24659,7 +24659,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="115" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="115" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J115" s="18" t="s">
         <v>509</v>
       </c>
@@ -24703,7 +24703,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="116" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="116" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J116" s="18" t="s">
         <v>511</v>
       </c>
@@ -25671,7 +25671,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="138" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="138" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J138" s="18" t="s">
         <v>550</v>
       </c>
@@ -26267,7 +26267,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row r="152" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="152" spans="10:54" x14ac:dyDescent="0.25">
       <c r="K152" s="20"/>
       <c r="M152" s="18" t="s">
         <v>884</v>
@@ -26306,7 +26306,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="153" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="153" spans="10:54" x14ac:dyDescent="0.25">
       <c r="K153" s="20"/>
       <c r="M153" s="18" t="s">
         <v>885</v>
@@ -33162,8 +33162,8 @@
       <c r="AF882" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="19">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/3. CustomerDataCompletion-Personal - Customer.xlsx
@@ -12919,9 +12919,6 @@
     <t>BLI GUNG</t>
   </si>
   <si>
-    <t>vino</t>
-  </si>
-  <si>
     <t>Christian</t>
   </si>
   <si>
@@ -12932,6 +12929,9 @@
   </si>
   <si>
     <t>21836123697</t>
+  </si>
+  <si>
+    <t>kennedy</t>
   </si>
 </sst>
 </file>
@@ -14476,7 +14476,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14526,7 +14526,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>4173</v>
+        <v>4177</v>
       </c>
       <c r="C3" t="s">
         <v>4169</v>
@@ -14726,7 +14726,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4142</v>
@@ -14743,7 +14743,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4144</v>
@@ -17495,7 +17495,7 @@
         <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>79</v>
@@ -17512,7 +17512,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>82</v>
